--- a/models/erreurs_rf.xlsx
+++ b/models/erreurs_rf.xlsx
@@ -547,10 +547,10 @@
         <v>47900</v>
       </c>
       <c r="I3" t="n">
-        <v>126722.3691210317</v>
+        <v>126722.3691210318</v>
       </c>
       <c r="J3" t="n">
-        <v>78822.36912103175</v>
+        <v>78822.36912103176</v>
       </c>
       <c r="K3" t="n">
         <v>164.5560941983962</v>
@@ -580,13 +580,13 @@
         <v>98900</v>
       </c>
       <c r="I4" t="n">
-        <v>27826.25077465173</v>
+        <v>27826.25077465172</v>
       </c>
       <c r="J4" t="n">
-        <v>71073.74922534826</v>
+        <v>71073.74922534828</v>
       </c>
       <c r="K4" t="n">
-        <v>71.86425604180815</v>
+        <v>71.86425604180818</v>
       </c>
     </row>
     <row r="5">
@@ -613,13 +613,13 @@
         <v>128000</v>
       </c>
       <c r="I5" t="n">
-        <v>62593.68337698414</v>
+        <v>62593.68337698413</v>
       </c>
       <c r="J5" t="n">
-        <v>65406.31662301586</v>
+        <v>65406.31662301587</v>
       </c>
       <c r="K5" t="n">
-        <v>51.09868486173114</v>
+        <v>51.09868486173115</v>
       </c>
     </row>
     <row r="6">
@@ -684,10 +684,10 @@
         <v>119389.5837400794</v>
       </c>
       <c r="J7" t="n">
-        <v>52489.58374007937</v>
+        <v>52489.58374007938</v>
       </c>
       <c r="K7" t="n">
-        <v>78.45976642762237</v>
+        <v>78.4597664276224</v>
       </c>
     </row>
     <row r="8">
@@ -891,7 +891,7 @@
         <v>23799.53530246297</v>
       </c>
       <c r="K13" t="n">
-        <v>44.98966975890922</v>
+        <v>44.9896697589092</v>
       </c>
     </row>
     <row r="14">
@@ -956,10 +956,10 @@
         <v>103108.4618392857</v>
       </c>
       <c r="J15" t="n">
-        <v>23208.46183928572</v>
+        <v>23208.46183928574</v>
       </c>
       <c r="K15" t="n">
-        <v>29.04688590649026</v>
+        <v>29.04688590649028</v>
       </c>
     </row>
     <row r="16">
@@ -1196,7 +1196,7 @@
         <v>17450.55035515872</v>
       </c>
       <c r="K22" t="n">
-        <v>56.47427299404116</v>
+        <v>56.47427299404118</v>
       </c>
     </row>
     <row r="23">
@@ -1258,13 +1258,13 @@
         <v>54890</v>
       </c>
       <c r="I24" t="n">
-        <v>38929.3098438638</v>
+        <v>38929.30984386379</v>
       </c>
       <c r="J24" t="n">
-        <v>15960.6901561362</v>
+        <v>15960.69015613621</v>
       </c>
       <c r="K24" t="n">
-        <v>29.07759183118273</v>
+        <v>29.07759183118275</v>
       </c>
     </row>
     <row r="25">
@@ -1291,13 +1291,13 @@
         <v>32990</v>
       </c>
       <c r="I25" t="n">
-        <v>48748.98699404759</v>
+        <v>48748.98699404761</v>
       </c>
       <c r="J25" t="n">
-        <v>15758.98699404759</v>
+        <v>15758.98699404761</v>
       </c>
       <c r="K25" t="n">
-        <v>47.76898149150528</v>
+        <v>47.76898149150534</v>
       </c>
     </row>
     <row r="26">
@@ -1324,13 +1324,13 @@
         <v>19900</v>
       </c>
       <c r="I26" t="n">
-        <v>35543.75294841269</v>
+        <v>35543.7529484127</v>
       </c>
       <c r="J26" t="n">
-        <v>15643.75294841269</v>
+        <v>15643.7529484127</v>
       </c>
       <c r="K26" t="n">
-        <v>78.61182386137031</v>
+        <v>78.61182386137035</v>
       </c>
     </row>
     <row r="27">
@@ -1561,13 +1561,13 @@
         <v>72490</v>
       </c>
       <c r="I33" t="n">
-        <v>57820.99476587301</v>
+        <v>57820.994765873</v>
       </c>
       <c r="J33" t="n">
-        <v>14669.00523412699</v>
+        <v>14669.005234127</v>
       </c>
       <c r="K33" t="n">
-        <v>20.23590182663401</v>
+        <v>20.23590182663402</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>12703.08933831446</v>
       </c>
       <c r="K38" t="n">
-        <v>75.16620910245246</v>
+        <v>75.16620910245241</v>
       </c>
     </row>
     <row r="39">
@@ -1827,13 +1827,13 @@
         <v>34199</v>
       </c>
       <c r="I41" t="n">
-        <v>46478.48553495118</v>
+        <v>46478.48553495116</v>
       </c>
       <c r="J41" t="n">
-        <v>12279.48553495118</v>
+        <v>12279.48553495116</v>
       </c>
       <c r="K41" t="n">
-        <v>35.90597834717735</v>
+        <v>35.9059783471773</v>
       </c>
     </row>
     <row r="42">
@@ -1866,7 +1866,7 @@
         <v>12127.09250089609</v>
       </c>
       <c r="K42" t="n">
-        <v>30.47773938400627</v>
+        <v>30.47773938400626</v>
       </c>
     </row>
     <row r="43">
@@ -1932,7 +1932,7 @@
         <v>11769.0289321879</v>
       </c>
       <c r="K44" t="n">
-        <v>28.0221646519867</v>
+        <v>28.02216465198672</v>
       </c>
     </row>
     <row r="45">
@@ -1994,13 +1994,13 @@
         <v>18485</v>
       </c>
       <c r="I46" t="n">
-        <v>30068.55052289378</v>
+        <v>30068.55052289377</v>
       </c>
       <c r="J46" t="n">
-        <v>11583.55052289378</v>
+        <v>11583.55052289377</v>
       </c>
       <c r="K46" t="n">
-        <v>62.66459574191928</v>
+        <v>62.66459574191924</v>
       </c>
     </row>
     <row r="47">
@@ -2095,13 +2095,13 @@
         <v>31990</v>
       </c>
       <c r="I49" t="n">
-        <v>20898.68597668941</v>
+        <v>20898.68597668942</v>
       </c>
       <c r="J49" t="n">
-        <v>11091.31402331059</v>
+        <v>11091.31402331058</v>
       </c>
       <c r="K49" t="n">
-        <v>34.67119107005498</v>
+        <v>34.67119107005497</v>
       </c>
     </row>
     <row r="50">
@@ -2169,7 +2169,7 @@
         <v>11038.10717658731</v>
       </c>
       <c r="K51" t="n">
-        <v>67.30553156455674</v>
+        <v>67.30553156455679</v>
       </c>
     </row>
     <row r="52">
@@ -2266,13 +2266,13 @@
         <v>34950</v>
       </c>
       <c r="I54" t="n">
-        <v>24054.05322363042</v>
+        <v>24054.05322363041</v>
       </c>
       <c r="J54" t="n">
-        <v>10895.94677636958</v>
+        <v>10895.94677636959</v>
       </c>
       <c r="K54" t="n">
-        <v>31.17581338017048</v>
+        <v>31.17581338017049</v>
       </c>
     </row>
     <row r="55">
@@ -2400,13 +2400,13 @@
         <v>23900</v>
       </c>
       <c r="I58" t="n">
-        <v>34638.61830058108</v>
+        <v>34638.61830058107</v>
       </c>
       <c r="J58" t="n">
-        <v>10738.61830058108</v>
+        <v>10738.61830058107</v>
       </c>
       <c r="K58" t="n">
-        <v>44.93145732460703</v>
+        <v>44.931457324607</v>
       </c>
     </row>
     <row r="59">
@@ -2441,7 +2441,7 @@
         <v>10516.34928514071</v>
       </c>
       <c r="K59" t="n">
-        <v>25.65588993691318</v>
+        <v>25.65588993691316</v>
       </c>
     </row>
     <row r="60">
@@ -2612,7 +2612,7 @@
         <v>10196.31448412699</v>
       </c>
       <c r="K64" t="n">
-        <v>32.9444732928174</v>
+        <v>32.94447329281741</v>
       </c>
     </row>
     <row r="65">
@@ -2710,7 +2710,7 @@
         <v>15137.66748350562</v>
       </c>
       <c r="J67" t="n">
-        <v>9762.332516494384</v>
+        <v>9762.332516494382</v>
       </c>
       <c r="K67" t="n">
         <v>39.2061546847164</v>
@@ -2841,13 +2841,13 @@
         <v>21488</v>
       </c>
       <c r="I71" t="n">
-        <v>30940.00625000001</v>
+        <v>30940.00625</v>
       </c>
       <c r="J71" t="n">
-        <v>9452.006250000006</v>
+        <v>9452.006249999999</v>
       </c>
       <c r="K71" t="n">
-        <v>43.98737085815341</v>
+        <v>43.98737085815338</v>
       </c>
     </row>
     <row r="72">
@@ -2942,13 +2942,13 @@
         <v>24950</v>
       </c>
       <c r="I74" t="n">
-        <v>34296.57340476192</v>
+        <v>34296.57340476191</v>
       </c>
       <c r="J74" t="n">
-        <v>9346.573404761919</v>
+        <v>9346.573404761912</v>
       </c>
       <c r="K74" t="n">
-        <v>37.46121605114998</v>
+        <v>37.46121605114995</v>
       </c>
     </row>
     <row r="75">
@@ -3046,10 +3046,10 @@
         <v>61086.25812103174</v>
       </c>
       <c r="J77" t="n">
-        <v>9096.258121031737</v>
+        <v>9096.258121031744</v>
       </c>
       <c r="K77" t="n">
-        <v>17.49616872673925</v>
+        <v>17.49616872673926</v>
       </c>
     </row>
     <row r="78">
@@ -3079,10 +3079,10 @@
         <v>48066.28322222221</v>
       </c>
       <c r="J78" t="n">
-        <v>9067.283222222206</v>
+        <v>9067.283222222213</v>
       </c>
       <c r="K78" t="n">
-        <v>23.25004031442397</v>
+        <v>23.25004031442399</v>
       </c>
     </row>
     <row r="79">
@@ -3278,13 +3278,13 @@
         <v>69990</v>
       </c>
       <c r="I84" t="n">
-        <v>61317.02242857142</v>
+        <v>61317.02242857144</v>
       </c>
       <c r="J84" t="n">
-        <v>8672.977571428579</v>
+        <v>8672.977571428564</v>
       </c>
       <c r="K84" t="n">
-        <v>12.39173820749904</v>
+        <v>12.39173820749902</v>
       </c>
     </row>
     <row r="85">
@@ -3344,13 +3344,13 @@
         <v>21990</v>
       </c>
       <c r="I86" t="n">
-        <v>13715.11149034739</v>
+        <v>13715.1114903474</v>
       </c>
       <c r="J86" t="n">
-        <v>8274.888509652608</v>
+        <v>8274.888509652605</v>
       </c>
       <c r="K86" t="n">
-        <v>37.63023424125788</v>
+        <v>37.63023424125786</v>
       </c>
     </row>
     <row r="87">
@@ -3379,13 +3379,13 @@
         <v>28490</v>
       </c>
       <c r="I87" t="n">
-        <v>20222.11317014535</v>
+        <v>20222.11317014534</v>
       </c>
       <c r="J87" t="n">
-        <v>8267.886829854655</v>
+        <v>8267.886829854659</v>
       </c>
       <c r="K87" t="n">
-        <v>29.02031179310163</v>
+        <v>29.02031179310164</v>
       </c>
     </row>
     <row r="88">
@@ -3485,10 +3485,10 @@
         <v>20650.55700515059</v>
       </c>
       <c r="J90" t="n">
-        <v>8151.557005150589</v>
+        <v>8151.557005150593</v>
       </c>
       <c r="K90" t="n">
-        <v>65.21767345508113</v>
+        <v>65.21767345508115</v>
       </c>
     </row>
     <row r="91">
@@ -3616,13 +3616,13 @@
         <v>89900</v>
       </c>
       <c r="I94" t="n">
-        <v>97795.44015476193</v>
+        <v>97795.44015476192</v>
       </c>
       <c r="J94" t="n">
-        <v>7895.440154761935</v>
+        <v>7895.44015476192</v>
       </c>
       <c r="K94" t="n">
-        <v>8.782469582605044</v>
+        <v>8.782469582605028</v>
       </c>
     </row>
     <row r="95">
@@ -3753,10 +3753,10 @@
         <v>12225.55024830475</v>
       </c>
       <c r="J98" t="n">
-        <v>7724.449751695252</v>
+        <v>7724.449751695251</v>
       </c>
       <c r="K98" t="n">
-        <v>38.71904637441229</v>
+        <v>38.71904637441228</v>
       </c>
     </row>
     <row r="99">
@@ -4086,13 +4086,13 @@
         <v>8990</v>
       </c>
       <c r="I108" t="n">
-        <v>16330.56680952373</v>
+        <v>16330.56680952374</v>
       </c>
       <c r="J108" t="n">
-        <v>7340.566809523734</v>
+        <v>7340.566809523736</v>
       </c>
       <c r="K108" t="n">
-        <v>81.65257852640417</v>
+        <v>81.65257852640418</v>
       </c>
     </row>
     <row r="109">
@@ -4189,13 +4189,13 @@
         <v>24499</v>
       </c>
       <c r="I111" t="n">
-        <v>17274.22297542536</v>
+        <v>17274.22297542537</v>
       </c>
       <c r="J111" t="n">
-        <v>7224.777024574636</v>
+        <v>7224.777024574632</v>
       </c>
       <c r="K111" t="n">
-        <v>29.49008949171246</v>
+        <v>29.49008949171245</v>
       </c>
     </row>
     <row r="112">
@@ -4425,10 +4425,10 @@
         <v>19033.12888452475</v>
       </c>
       <c r="J118" t="n">
-        <v>7043.128884524751</v>
+        <v>7043.128884524755</v>
       </c>
       <c r="K118" t="n">
-        <v>58.74169211446831</v>
+        <v>58.74169211446834</v>
       </c>
     </row>
     <row r="119">
@@ -4695,10 +4695,10 @@
         <v>13858.89003580048</v>
       </c>
       <c r="J126" t="n">
-        <v>6891.109964199522</v>
+        <v>6891.109964199521</v>
       </c>
       <c r="K126" t="n">
-        <v>33.21016850216638</v>
+        <v>33.21016850216636</v>
       </c>
     </row>
     <row r="127">
@@ -4728,10 +4728,10 @@
         <v>13858.89003580048</v>
       </c>
       <c r="J127" t="n">
-        <v>6891.109964199522</v>
+        <v>6891.109964199521</v>
       </c>
       <c r="K127" t="n">
-        <v>33.21016850216638</v>
+        <v>33.21016850216636</v>
       </c>
     </row>
     <row r="128">
@@ -4758,13 +4758,13 @@
         <v>28890</v>
       </c>
       <c r="I128" t="n">
-        <v>35743.94145722777</v>
+        <v>35743.94145722776</v>
       </c>
       <c r="J128" t="n">
-        <v>6853.941457227767</v>
+        <v>6853.94145722776</v>
       </c>
       <c r="K128" t="n">
-        <v>23.72426949542322</v>
+        <v>23.72426949542319</v>
       </c>
     </row>
     <row r="129">
@@ -4829,10 +4829,10 @@
         <v>30836.37785567988</v>
       </c>
       <c r="J130" t="n">
-        <v>6836.377855679882</v>
+        <v>6836.377855679879</v>
       </c>
       <c r="K130" t="n">
-        <v>28.48490773199951</v>
+        <v>28.4849077319995</v>
       </c>
     </row>
     <row r="131">
@@ -4932,10 +4932,10 @@
         <v>19847.14148202501</v>
       </c>
       <c r="J133" t="n">
-        <v>6797.141482025007</v>
+        <v>6797.14148202501</v>
       </c>
       <c r="K133" t="n">
-        <v>52.08537534118779</v>
+        <v>52.08537534118781</v>
       </c>
     </row>
     <row r="134">
@@ -5127,13 +5127,13 @@
         <v>15749</v>
       </c>
       <c r="I139" t="n">
-        <v>9108.362578926699</v>
+        <v>9108.362578926701</v>
       </c>
       <c r="J139" t="n">
-        <v>6640.637421073301</v>
+        <v>6640.637421073299</v>
       </c>
       <c r="K139" t="n">
-        <v>42.16545444836689</v>
+        <v>42.16545444836687</v>
       </c>
     </row>
     <row r="140">
@@ -5198,10 +5198,10 @@
         <v>15932.32054236146</v>
       </c>
       <c r="J141" t="n">
-        <v>6566.679457638538</v>
+        <v>6566.679457638536</v>
       </c>
       <c r="K141" t="n">
-        <v>29.18653921346966</v>
+        <v>29.18653921346965</v>
       </c>
     </row>
     <row r="142">
@@ -5299,10 +5299,10 @@
         <v>24375.44944864613</v>
       </c>
       <c r="J144" t="n">
-        <v>6475.44944864613</v>
+        <v>6475.449448646126</v>
       </c>
       <c r="K144" t="n">
-        <v>36.17569524383313</v>
+        <v>36.17569524383311</v>
       </c>
     </row>
     <row r="145">
@@ -5332,10 +5332,10 @@
         <v>22958.83822194792</v>
       </c>
       <c r="J145" t="n">
-        <v>6474.838221947917</v>
+        <v>6474.838221947924</v>
       </c>
       <c r="K145" t="n">
-        <v>39.27953301351564</v>
+        <v>39.27953301351568</v>
       </c>
     </row>
     <row r="146">
@@ -5571,10 +5571,10 @@
         <v>12230.95542329729</v>
       </c>
       <c r="J152" t="n">
-        <v>6231.955423297288</v>
+        <v>6231.955423297291</v>
       </c>
       <c r="K152" t="n">
-        <v>103.8832375945539</v>
+        <v>103.883237594554</v>
       </c>
     </row>
     <row r="153">
@@ -5835,10 +5835,10 @@
         <v>10345.64177092036</v>
       </c>
       <c r="J160" t="n">
-        <v>5955.64177092036</v>
+        <v>5955.641770920362</v>
       </c>
       <c r="K160" t="n">
-        <v>135.663821661056</v>
+        <v>135.6638216610561</v>
       </c>
     </row>
     <row r="161">
@@ -5898,13 +5898,13 @@
         <v>25000</v>
       </c>
       <c r="I162" t="n">
-        <v>19051.60368768271</v>
+        <v>19051.60368768272</v>
       </c>
       <c r="J162" t="n">
-        <v>5948.396312317287</v>
+        <v>5948.396312317283</v>
       </c>
       <c r="K162" t="n">
-        <v>23.79358524926915</v>
+        <v>23.79358524926914</v>
       </c>
     </row>
     <row r="163">
@@ -6070,10 +6070,10 @@
         <v>17519.12942382976</v>
       </c>
       <c r="J167" t="n">
-        <v>5810.87057617024</v>
+        <v>5810.870576170244</v>
       </c>
       <c r="K167" t="n">
-        <v>24.90728922490459</v>
+        <v>24.9072892249046</v>
       </c>
     </row>
     <row r="168">
@@ -6170,13 +6170,13 @@
         <v>31149</v>
       </c>
       <c r="I170" t="n">
-        <v>25464.08806655136</v>
+        <v>25464.08806655135</v>
       </c>
       <c r="J170" t="n">
-        <v>5684.911933448642</v>
+        <v>5684.911933448646</v>
       </c>
       <c r="K170" t="n">
-        <v>18.25070446386286</v>
+        <v>18.25070446386287</v>
       </c>
     </row>
     <row r="171">
@@ -6203,13 +6203,13 @@
         <v>6400</v>
       </c>
       <c r="I171" t="n">
-        <v>12075.05091512266</v>
+        <v>12075.05091512267</v>
       </c>
       <c r="J171" t="n">
-        <v>5675.050915122663</v>
+        <v>5675.050915122665</v>
       </c>
       <c r="K171" t="n">
-        <v>88.67267054879161</v>
+        <v>88.67267054879164</v>
       </c>
     </row>
     <row r="172">
@@ -6304,13 +6304,13 @@
         <v>37990</v>
       </c>
       <c r="I174" t="n">
-        <v>32367.78474933053</v>
+        <v>32367.78474933052</v>
       </c>
       <c r="J174" t="n">
-        <v>5622.215250669469</v>
+        <v>5622.215250669477</v>
       </c>
       <c r="K174" t="n">
-        <v>14.79919781697675</v>
+        <v>14.79919781697678</v>
       </c>
     </row>
     <row r="175">
@@ -6372,13 +6372,13 @@
         <v>1445</v>
       </c>
       <c r="I176" t="n">
-        <v>7035.90810824458</v>
+        <v>7035.908108244579</v>
       </c>
       <c r="J176" t="n">
-        <v>5590.90810824458</v>
+        <v>5590.908108244579</v>
       </c>
       <c r="K176" t="n">
-        <v>386.914055933881</v>
+        <v>386.9140559338809</v>
       </c>
     </row>
     <row r="177">
@@ -6443,10 +6443,10 @@
         <v>14547.15766125541</v>
       </c>
       <c r="J178" t="n">
-        <v>5557.157661255414</v>
+        <v>5557.157661255413</v>
       </c>
       <c r="K178" t="n">
-        <v>61.81487943554409</v>
+        <v>61.81487943554408</v>
       </c>
     </row>
     <row r="179">
@@ -6476,10 +6476,10 @@
         <v>16249.66527359258</v>
       </c>
       <c r="J179" t="n">
-        <v>5549.334726407424</v>
+        <v>5549.33472640742</v>
       </c>
       <c r="K179" t="n">
-        <v>25.45683162717291</v>
+        <v>25.4568316271729</v>
       </c>
     </row>
     <row r="180">
@@ -6506,13 +6506,13 @@
         <v>20500</v>
       </c>
       <c r="I180" t="n">
-        <v>26029.38058561022</v>
+        <v>26029.38058561021</v>
       </c>
       <c r="J180" t="n">
-        <v>5529.380585610215</v>
+        <v>5529.380585610212</v>
       </c>
       <c r="K180" t="n">
-        <v>26.97258822248886</v>
+        <v>26.97258822248884</v>
       </c>
     </row>
     <row r="181">
@@ -6574,13 +6574,13 @@
         <v>31977</v>
       </c>
       <c r="I182" t="n">
-        <v>26472.80108684264</v>
+        <v>26472.80108684265</v>
       </c>
       <c r="J182" t="n">
-        <v>5504.198913157357</v>
+        <v>5504.198913157354</v>
       </c>
       <c r="K182" t="n">
-        <v>17.21299344265365</v>
+        <v>17.21299344265364</v>
       </c>
     </row>
     <row r="183">
@@ -6675,13 +6675,13 @@
         <v>15499</v>
       </c>
       <c r="I185" t="n">
-        <v>20953.00110864128</v>
+        <v>20953.00110864127</v>
       </c>
       <c r="J185" t="n">
-        <v>5454.001108641278</v>
+        <v>5454.001108641274</v>
       </c>
       <c r="K185" t="n">
-        <v>35.18937420892495</v>
+        <v>35.18937420892492</v>
       </c>
     </row>
     <row r="186">
@@ -6713,10 +6713,10 @@
         <v>23327.83019059383</v>
       </c>
       <c r="J186" t="n">
-        <v>5427.830190593832</v>
+        <v>5427.830190593828</v>
       </c>
       <c r="K186" t="n">
-        <v>30.32307369046833</v>
+        <v>30.32307369046832</v>
       </c>
     </row>
     <row r="187">
@@ -6983,10 +6983,10 @@
         <v>21764.99306613867</v>
       </c>
       <c r="J194" t="n">
-        <v>5264.993066138672</v>
+        <v>5264.993066138668</v>
       </c>
       <c r="K194" t="n">
-        <v>31.90904888568892</v>
+        <v>31.9090488856889</v>
       </c>
     </row>
     <row r="195">
@@ -7013,13 +7013,13 @@
         <v>19980</v>
       </c>
       <c r="I195" t="n">
-        <v>25234.42526660702</v>
+        <v>25234.42526660701</v>
       </c>
       <c r="J195" t="n">
-        <v>5254.425266607021</v>
+        <v>5254.425266607013</v>
       </c>
       <c r="K195" t="n">
-        <v>26.2984247577929</v>
+        <v>26.29842475779286</v>
       </c>
     </row>
     <row r="196">
@@ -7117,10 +7117,10 @@
         <v>30129.95011056998</v>
       </c>
       <c r="J198" t="n">
-        <v>5179.950110569978</v>
+        <v>5179.950110569982</v>
       </c>
       <c r="K198" t="n">
-        <v>20.76132308845683</v>
+        <v>20.76132308845684</v>
       </c>
     </row>
     <row r="199">
@@ -7183,10 +7183,10 @@
         <v>12133.06289098941</v>
       </c>
       <c r="J200" t="n">
-        <v>5133.062890989413</v>
+        <v>5133.062890989409</v>
       </c>
       <c r="K200" t="n">
-        <v>73.32946987127733</v>
+        <v>73.32946987127728</v>
       </c>
     </row>
     <row r="201">
@@ -7584,13 +7584,13 @@
         <v>74995</v>
       </c>
       <c r="I212" t="n">
-        <v>70132.17115476191</v>
+        <v>70132.17115476192</v>
       </c>
       <c r="J212" t="n">
-        <v>4862.828845238095</v>
+        <v>4862.82884523808</v>
       </c>
       <c r="K212" t="n">
-        <v>6.484204073922388</v>
+        <v>6.484204073922369</v>
       </c>
     </row>
     <row r="213">
@@ -7784,13 +7784,13 @@
         <v>10900</v>
       </c>
       <c r="I218" t="n">
-        <v>15685.70542295067</v>
+        <v>15685.70542295068</v>
       </c>
       <c r="J218" t="n">
-        <v>4785.705422950674</v>
+        <v>4785.705422950676</v>
       </c>
       <c r="K218" t="n">
-        <v>43.90555433899701</v>
+        <v>43.90555433899703</v>
       </c>
     </row>
     <row r="219">
@@ -7857,10 +7857,10 @@
         <v>16021.97630064521</v>
       </c>
       <c r="J220" t="n">
-        <v>4727.02369935479</v>
+        <v>4727.023699354793</v>
       </c>
       <c r="K220" t="n">
-        <v>22.78193502990404</v>
+        <v>22.78193502990406</v>
       </c>
     </row>
     <row r="221">
@@ -8125,10 +8125,10 @@
         <v>13086.58339913642</v>
       </c>
       <c r="J228" t="n">
-        <v>4596.583399136418</v>
+        <v>4596.58339913642</v>
       </c>
       <c r="K228" t="n">
-        <v>54.14114722186594</v>
+        <v>54.14114722186596</v>
       </c>
     </row>
     <row r="229">
@@ -8191,10 +8191,10 @@
         <v>19649.38047852131</v>
       </c>
       <c r="J230" t="n">
-        <v>4550.619521478693</v>
+        <v>4550.619521478689</v>
       </c>
       <c r="K230" t="n">
-        <v>18.80421289867228</v>
+        <v>18.80421289867227</v>
       </c>
     </row>
     <row r="231">
@@ -8226,10 +8226,10 @@
         <v>11896.53628314886</v>
       </c>
       <c r="J231" t="n">
-        <v>4496.536283148862</v>
+        <v>4496.53628314886</v>
       </c>
       <c r="K231" t="n">
-        <v>60.76400382633597</v>
+        <v>60.76400382633594</v>
       </c>
     </row>
     <row r="232">
@@ -8258,13 +8258,13 @@
         <v>11050</v>
       </c>
       <c r="I232" t="n">
-        <v>15544.88668007531</v>
+        <v>15544.88668007532</v>
       </c>
       <c r="J232" t="n">
-        <v>4494.886680075315</v>
+        <v>4494.886680075317</v>
       </c>
       <c r="K232" t="n">
-        <v>40.6777075119938</v>
+        <v>40.67770751199382</v>
       </c>
     </row>
     <row r="233">
@@ -8632,10 +8632,10 @@
         <v>21670.48523786034</v>
       </c>
       <c r="J243" t="n">
-        <v>4319.514762139657</v>
+        <v>4319.514762139661</v>
       </c>
       <c r="K243" t="n">
-        <v>16.61991058922531</v>
+        <v>16.61991058922532</v>
       </c>
     </row>
     <row r="244">
@@ -8829,13 +8829,13 @@
         <v>27622</v>
       </c>
       <c r="I249" t="n">
-        <v>31870.21971686721</v>
+        <v>31870.2197168672</v>
       </c>
       <c r="J249" t="n">
-        <v>4248.219716867214</v>
+        <v>4248.219716867203</v>
       </c>
       <c r="K249" t="n">
-        <v>15.37984112977776</v>
+        <v>15.37984112977772</v>
       </c>
     </row>
     <row r="250">
@@ -8999,10 +8999,10 @@
         <v>17641.93635642964</v>
       </c>
       <c r="J254" t="n">
-        <v>4151.93635642964</v>
+        <v>4151.936356429636</v>
       </c>
       <c r="K254" t="n">
-        <v>30.77788255322194</v>
+        <v>30.77788255322191</v>
       </c>
     </row>
     <row r="255">
@@ -9034,10 +9034,10 @@
         <v>10607.38862406015</v>
       </c>
       <c r="J255" t="n">
-        <v>4141.611375939849</v>
+        <v>4141.61137593985</v>
       </c>
       <c r="K255" t="n">
-        <v>28.08062496399653</v>
+        <v>28.08062496399655</v>
       </c>
     </row>
     <row r="256">
@@ -9097,13 +9097,13 @@
         <v>3440</v>
       </c>
       <c r="I257" t="n">
-        <v>7554.253046989647</v>
+        <v>7554.253046989646</v>
       </c>
       <c r="J257" t="n">
-        <v>4114.253046989647</v>
+        <v>4114.253046989646</v>
       </c>
       <c r="K257" t="n">
-        <v>119.6003792729549</v>
+        <v>119.6003792729548</v>
       </c>
     </row>
     <row r="258">
@@ -9132,13 +9132,13 @@
         <v>26999</v>
       </c>
       <c r="I258" t="n">
-        <v>31090.15455952381</v>
+        <v>31090.1545595238</v>
       </c>
       <c r="J258" t="n">
-        <v>4091.154559523809</v>
+        <v>4091.154559523802</v>
       </c>
       <c r="K258" t="n">
-        <v>15.15298551621841</v>
+        <v>15.15298551621839</v>
       </c>
     </row>
     <row r="259">
@@ -9198,13 +9198,13 @@
         <v>10390</v>
       </c>
       <c r="I260" t="n">
-        <v>14457.11875975065</v>
+        <v>14457.11875975066</v>
       </c>
       <c r="J260" t="n">
-        <v>4067.118759750654</v>
+        <v>4067.118759750656</v>
       </c>
       <c r="K260" t="n">
-        <v>39.14455014196972</v>
+        <v>39.14455014196974</v>
       </c>
     </row>
     <row r="261">
@@ -9234,10 +9234,10 @@
         <v>15626.2386079644</v>
       </c>
       <c r="J261" t="n">
-        <v>4063.761392035596</v>
+        <v>4063.761392035602</v>
       </c>
       <c r="K261" t="n">
-        <v>20.63870691739764</v>
+        <v>20.63870691739767</v>
       </c>
     </row>
     <row r="262">
@@ -9266,13 +9266,13 @@
         <v>23900</v>
       </c>
       <c r="I262" t="n">
-        <v>27950.82415801303</v>
+        <v>27950.82415801302</v>
       </c>
       <c r="J262" t="n">
-        <v>4050.824158013027</v>
+        <v>4050.82415801302</v>
       </c>
       <c r="K262" t="n">
-        <v>16.94905505444781</v>
+        <v>16.94905505444778</v>
       </c>
     </row>
     <row r="263">
@@ -9534,13 +9534,13 @@
         <v>28900</v>
       </c>
       <c r="I270" t="n">
-        <v>32841.83189314852</v>
+        <v>32841.83189314851</v>
       </c>
       <c r="J270" t="n">
-        <v>3941.831893148519</v>
+        <v>3941.831893148512</v>
       </c>
       <c r="K270" t="n">
-        <v>13.6395567236973</v>
+        <v>13.63955672369727</v>
       </c>
     </row>
     <row r="271">
@@ -9668,10 +9668,10 @@
         <v>1799</v>
       </c>
       <c r="I274" t="n">
-        <v>5684.884861491808</v>
+        <v>5684.884861491807</v>
       </c>
       <c r="J274" t="n">
-        <v>3885.884861491808</v>
+        <v>3885.884861491807</v>
       </c>
       <c r="K274" t="n">
         <v>216.002493690484</v>
@@ -9707,7 +9707,7 @@
         <v>3878.656920224117</v>
       </c>
       <c r="K275" t="n">
-        <v>55.80801324063478</v>
+        <v>55.80801324063477</v>
       </c>
     </row>
     <row r="276">
@@ -9737,10 +9737,10 @@
         <v>22765.51311129542</v>
       </c>
       <c r="J276" t="n">
-        <v>3865.513111295415</v>
+        <v>3865.513111295422</v>
       </c>
       <c r="K276" t="n">
-        <v>20.45245032431436</v>
+        <v>20.45245032431441</v>
       </c>
     </row>
     <row r="277">
@@ -10137,10 +10137,10 @@
         <v>12067.29806306029</v>
       </c>
       <c r="J288" t="n">
-        <v>3767.298063060287</v>
+        <v>3767.298063060285</v>
       </c>
       <c r="K288" t="n">
-        <v>45.38913328988297</v>
+        <v>45.38913328988296</v>
       </c>
     </row>
     <row r="289">
@@ -10200,13 +10200,13 @@
         <v>23732</v>
       </c>
       <c r="I290" t="n">
-        <v>27472.3734391755</v>
+        <v>27472.37343917551</v>
       </c>
       <c r="J290" t="n">
-        <v>3740.373439175499</v>
+        <v>3740.373439175506</v>
       </c>
       <c r="K290" t="n">
-        <v>15.76088588899165</v>
+        <v>15.76088588899168</v>
       </c>
     </row>
     <row r="291">
@@ -10238,10 +10238,10 @@
         <v>14162.37285612729</v>
       </c>
       <c r="J291" t="n">
-        <v>3727.627143872709</v>
+        <v>3727.627143872711</v>
       </c>
       <c r="K291" t="n">
-        <v>20.8363730792214</v>
+        <v>20.83637307922141</v>
       </c>
     </row>
     <row r="292">
@@ -10305,13 +10305,13 @@
         <v>5900</v>
       </c>
       <c r="I293" t="n">
-        <v>9594.748444967117</v>
+        <v>9594.748444967119</v>
       </c>
       <c r="J293" t="n">
-        <v>3694.748444967117</v>
+        <v>3694.748444967119</v>
       </c>
       <c r="K293" t="n">
-        <v>62.62285499944267</v>
+        <v>62.62285499944269</v>
       </c>
     </row>
     <row r="294">
@@ -10407,10 +10407,10 @@
         <v>12186.18709722222</v>
       </c>
       <c r="J296" t="n">
-        <v>3686.18709722222</v>
+        <v>3686.187097222222</v>
       </c>
       <c r="K296" t="n">
-        <v>43.36690702614377</v>
+        <v>43.36690702614379</v>
       </c>
     </row>
     <row r="297">
@@ -10609,10 +10609,10 @@
         <v>16074.99310942325</v>
       </c>
       <c r="J302" t="n">
-        <v>3594.993109423245</v>
+        <v>3594.993109423249</v>
       </c>
       <c r="K302" t="n">
-        <v>28.80603453063498</v>
+        <v>28.80603453063501</v>
       </c>
     </row>
     <row r="303">
@@ -10639,13 +10639,13 @@
         <v>22950</v>
       </c>
       <c r="I303" t="n">
-        <v>19358.23029276403</v>
+        <v>19358.23029276404</v>
       </c>
       <c r="J303" t="n">
-        <v>3591.76970723597</v>
+        <v>3591.769707235962</v>
       </c>
       <c r="K303" t="n">
-        <v>15.65041266769486</v>
+        <v>15.65041266769482</v>
       </c>
     </row>
     <row r="304">
@@ -10677,10 +10677,10 @@
         <v>27428.49502785284</v>
       </c>
       <c r="J304" t="n">
-        <v>3561.504972147162</v>
+        <v>3561.504972147159</v>
       </c>
       <c r="K304" t="n">
-        <v>11.49243295304021</v>
+        <v>11.4924329530402</v>
       </c>
     </row>
     <row r="305">
@@ -10709,13 +10709,13 @@
         <v>4950</v>
       </c>
       <c r="I305" t="n">
-        <v>8504.40200976801</v>
+        <v>8504.402009768011</v>
       </c>
       <c r="J305" t="n">
-        <v>3554.40200976801</v>
+        <v>3554.402009768011</v>
       </c>
       <c r="K305" t="n">
-        <v>71.80610120743454</v>
+        <v>71.80610120743457</v>
       </c>
     </row>
     <row r="306">
@@ -10814,13 +10814,13 @@
         <v>25990</v>
       </c>
       <c r="I308" t="n">
-        <v>29534.27376587301</v>
+        <v>29534.27376587302</v>
       </c>
       <c r="J308" t="n">
-        <v>3544.273765873015</v>
+        <v>3544.273765873018</v>
       </c>
       <c r="K308" t="n">
-        <v>13.6370672022817</v>
+        <v>13.63706720228172</v>
       </c>
     </row>
     <row r="309">
@@ -10946,13 +10946,13 @@
         <v>23880</v>
       </c>
       <c r="I312" t="n">
-        <v>27402.8326126409</v>
+        <v>27402.83261264091</v>
       </c>
       <c r="J312" t="n">
-        <v>3522.832612640905</v>
+        <v>3522.832612640908</v>
       </c>
       <c r="K312" t="n">
-        <v>14.75223037119307</v>
+        <v>14.75223037119308</v>
       </c>
     </row>
     <row r="313">
@@ -10982,10 +10982,10 @@
         <v>15487.5810150946</v>
       </c>
       <c r="J313" t="n">
-        <v>3502.418984905404</v>
+        <v>3502.418984905402</v>
       </c>
       <c r="K313" t="n">
-        <v>18.44349123172935</v>
+        <v>18.44349123172934</v>
       </c>
     </row>
     <row r="314">
@@ -11284,13 +11284,13 @@
         <v>19690</v>
       </c>
       <c r="I322" t="n">
-        <v>16244.0198560285</v>
+        <v>16244.01985602851</v>
       </c>
       <c r="J322" t="n">
-        <v>3445.980143971497</v>
+        <v>3445.980143971494</v>
       </c>
       <c r="K322" t="n">
-        <v>17.50116883682833</v>
+        <v>17.50116883682831</v>
       </c>
     </row>
     <row r="323">
@@ -11317,13 +11317,13 @@
         <v>25999</v>
       </c>
       <c r="I323" t="n">
-        <v>22553.53047336136</v>
+        <v>22553.53047336135</v>
       </c>
       <c r="J323" t="n">
-        <v>3445.469526638644</v>
+        <v>3445.469526638648</v>
       </c>
       <c r="K323" t="n">
-        <v>13.25231557613233</v>
+        <v>13.25231557613234</v>
       </c>
     </row>
     <row r="324">
@@ -11385,13 +11385,13 @@
         <v>34990</v>
       </c>
       <c r="I325" t="n">
-        <v>31567.7981611935</v>
+        <v>31567.79816119349</v>
       </c>
       <c r="J325" t="n">
-        <v>3422.201838806504</v>
+        <v>3422.201838806508</v>
       </c>
       <c r="K325" t="n">
-        <v>9.780513972010587</v>
+        <v>9.780513972010597</v>
       </c>
     </row>
     <row r="326">
@@ -11517,13 +11517,13 @@
         <v>17990</v>
       </c>
       <c r="I329" t="n">
-        <v>21388.78352037346</v>
+        <v>21388.78352037345</v>
       </c>
       <c r="J329" t="n">
-        <v>3398.783520373461</v>
+        <v>3398.783520373454</v>
       </c>
       <c r="K329" t="n">
-        <v>18.89262657239278</v>
+        <v>18.89262657239274</v>
       </c>
     </row>
     <row r="330">
@@ -12128,10 +12128,10 @@
         <v>20640.96298954498</v>
       </c>
       <c r="J347" t="n">
-        <v>3259.03701045502</v>
+        <v>3259.037010455017</v>
       </c>
       <c r="K347" t="n">
-        <v>13.63613811905866</v>
+        <v>13.63613811905865</v>
       </c>
     </row>
     <row r="348">
@@ -12330,10 +12330,10 @@
         <v>25687.81247611342</v>
       </c>
       <c r="J353" t="n">
-        <v>3212.187523886576</v>
+        <v>3212.18752388658</v>
       </c>
       <c r="K353" t="n">
-        <v>11.11483572279092</v>
+        <v>11.11483572279093</v>
       </c>
     </row>
     <row r="354">
@@ -12398,10 +12398,10 @@
         <v>10200.09285216439</v>
       </c>
       <c r="J355" t="n">
-        <v>3210.092852164391</v>
+        <v>3210.092852164389</v>
       </c>
       <c r="K355" t="n">
-        <v>45.92407513826024</v>
+        <v>45.92407513826022</v>
       </c>
     </row>
     <row r="356">
@@ -12499,10 +12499,10 @@
         <v>21837.54698809524</v>
       </c>
       <c r="J358" t="n">
-        <v>3187.546988095241</v>
+        <v>3187.546988095237</v>
       </c>
       <c r="K358" t="n">
-        <v>17.09140476190478</v>
+        <v>17.09140476190476</v>
       </c>
     </row>
     <row r="359">
@@ -12532,10 +12532,10 @@
         <v>24806.50394788149</v>
       </c>
       <c r="J359" t="n">
-        <v>3183.496052118506</v>
+        <v>3183.496052118513</v>
       </c>
       <c r="K359" t="n">
-        <v>11.37369078999109</v>
+        <v>11.37369078999111</v>
       </c>
     </row>
     <row r="360">
@@ -12632,13 +12632,13 @@
         <v>63990</v>
       </c>
       <c r="I362" t="n">
-        <v>67142.06473809524</v>
+        <v>67142.06473809526</v>
       </c>
       <c r="J362" t="n">
-        <v>3152.064738095243</v>
+        <v>3152.064738095258</v>
       </c>
       <c r="K362" t="n">
-        <v>4.925870820589535</v>
+        <v>4.925870820589558</v>
       </c>
     </row>
     <row r="363">
@@ -12801,13 +12801,13 @@
         <v>14880</v>
       </c>
       <c r="I367" t="n">
-        <v>11792.99565833692</v>
+        <v>11792.99565833693</v>
       </c>
       <c r="J367" t="n">
-        <v>3087.004341663076</v>
+        <v>3087.004341663072</v>
       </c>
       <c r="K367" t="n">
-        <v>20.74599691977874</v>
+        <v>20.74599691977871</v>
       </c>
     </row>
     <row r="368">
@@ -12904,13 +12904,13 @@
         <v>18950</v>
       </c>
       <c r="I370" t="n">
-        <v>15882.77536988736</v>
+        <v>15882.77536988737</v>
       </c>
       <c r="J370" t="n">
-        <v>3067.224630112636</v>
+        <v>3067.224630112634</v>
       </c>
       <c r="K370" t="n">
-        <v>16.18588195310098</v>
+        <v>16.18588195310097</v>
       </c>
     </row>
     <row r="371">
@@ -13107,10 +13107,10 @@
         <v>33914.29251449041</v>
       </c>
       <c r="J376" t="n">
-        <v>3035.707485509593</v>
+        <v>3035.707485509585</v>
       </c>
       <c r="K376" t="n">
-        <v>8.215717146169398</v>
+        <v>8.215717146169379</v>
       </c>
     </row>
     <row r="377">
@@ -13245,10 +13245,10 @@
         <v>11952.5543774257</v>
       </c>
       <c r="J380" t="n">
-        <v>2997.4456225743</v>
+        <v>2997.445622574298</v>
       </c>
       <c r="K380" t="n">
-        <v>20.04980349548027</v>
+        <v>20.04980349548025</v>
       </c>
     </row>
     <row r="381">
@@ -13280,10 +13280,10 @@
         <v>12852.07872224846</v>
       </c>
       <c r="J381" t="n">
-        <v>2952.07872224846</v>
+        <v>2952.078722248458</v>
       </c>
       <c r="K381" t="n">
-        <v>29.81897699240869</v>
+        <v>29.81897699240867</v>
       </c>
     </row>
     <row r="382">
@@ -13348,10 +13348,10 @@
         <v>15269.91582699632</v>
       </c>
       <c r="J383" t="n">
-        <v>2930.084173003683</v>
+        <v>2930.084173003679</v>
       </c>
       <c r="K383" t="n">
-        <v>16.09936358793232</v>
+        <v>16.0993635879323</v>
       </c>
     </row>
     <row r="384">
@@ -13411,13 +13411,13 @@
         <v>12745</v>
       </c>
       <c r="I385" t="n">
-        <v>9818.857995226124</v>
+        <v>9818.857995226123</v>
       </c>
       <c r="J385" t="n">
-        <v>2926.142004773876</v>
+        <v>2926.142004773877</v>
       </c>
       <c r="K385" t="n">
-        <v>22.95913695389467</v>
+        <v>22.95913695389469</v>
       </c>
     </row>
     <row r="386">
@@ -13615,13 +13615,13 @@
         <v>10990</v>
       </c>
       <c r="I391" t="n">
-        <v>13850.48981080256</v>
+        <v>13850.48981080255</v>
       </c>
       <c r="J391" t="n">
-        <v>2860.489810802555</v>
+        <v>2860.489810802552</v>
       </c>
       <c r="K391" t="n">
-        <v>26.02811474797593</v>
+        <v>26.0281147479759</v>
       </c>
     </row>
     <row r="392">
@@ -13782,13 +13782,13 @@
         <v>20900</v>
       </c>
       <c r="I396" t="n">
-        <v>23734.61980025033</v>
+        <v>23734.61980025034</v>
       </c>
       <c r="J396" t="n">
-        <v>2834.619800250333</v>
+        <v>2834.619800250341</v>
       </c>
       <c r="K396" t="n">
-        <v>13.56277416387719</v>
+        <v>13.56277416387723</v>
       </c>
     </row>
     <row r="397">
@@ -13886,10 +13886,10 @@
         <v>17120.84788712465</v>
       </c>
       <c r="J399" t="n">
-        <v>2829.152112875348</v>
+        <v>2829.152112875352</v>
       </c>
       <c r="K399" t="n">
-        <v>14.18121359837267</v>
+        <v>14.18121359837269</v>
       </c>
     </row>
     <row r="400">
@@ -14224,10 +14224,10 @@
         <v>22683.72715653108</v>
       </c>
       <c r="J409" t="n">
-        <v>2733.727156531077</v>
+        <v>2733.72715653108</v>
       </c>
       <c r="K409" t="n">
-        <v>13.70289301519337</v>
+        <v>13.70289301519338</v>
       </c>
     </row>
     <row r="410">
@@ -14359,13 +14359,13 @@
         <v>5900</v>
       </c>
       <c r="I413" t="n">
-        <v>8608.009086017735</v>
+        <v>8608.009086017737</v>
       </c>
       <c r="J413" t="n">
-        <v>2708.009086017735</v>
+        <v>2708.009086017737</v>
       </c>
       <c r="K413" t="n">
-        <v>45.89845908504635</v>
+        <v>45.89845908504638</v>
       </c>
     </row>
     <row r="414">
@@ -14460,13 +14460,13 @@
         <v>4145</v>
       </c>
       <c r="I416" t="n">
-        <v>6838.434996636493</v>
+        <v>6838.434996636494</v>
       </c>
       <c r="J416" t="n">
-        <v>2693.434996636493</v>
+        <v>2693.434996636494</v>
       </c>
       <c r="K416" t="n">
-        <v>64.98033767518682</v>
+        <v>64.98033767518683</v>
       </c>
     </row>
     <row r="417">
@@ -14729,10 +14729,10 @@
         <v>15548.93540487207</v>
       </c>
       <c r="J424" t="n">
-        <v>2648.935404872071</v>
+        <v>2648.935404872067</v>
       </c>
       <c r="K424" t="n">
-        <v>20.53438298350443</v>
+        <v>20.5343829835044</v>
       </c>
     </row>
     <row r="425">
@@ -14797,10 +14797,10 @@
         <v>29593.50761056998</v>
       </c>
       <c r="J426" t="n">
-        <v>2643.507610569985</v>
+        <v>2643.507610569977</v>
       </c>
       <c r="K426" t="n">
-        <v>9.808933619925732</v>
+        <v>9.808933619925703</v>
       </c>
     </row>
     <row r="427">
@@ -14896,10 +14896,10 @@
         <v>13097.14595329458</v>
       </c>
       <c r="J429" t="n">
-        <v>2617.145953294577</v>
+        <v>2617.145953294579</v>
       </c>
       <c r="K429" t="n">
-        <v>24.97276672991009</v>
+        <v>24.97276672991011</v>
       </c>
     </row>
     <row r="430">
@@ -14961,13 +14961,13 @@
         <v>21990</v>
       </c>
       <c r="I431" t="n">
-        <v>24605.87225769937</v>
+        <v>24605.87225769936</v>
       </c>
       <c r="J431" t="n">
-        <v>2615.872257699371</v>
+        <v>2615.872257699364</v>
       </c>
       <c r="K431" t="n">
-        <v>11.89573559663198</v>
+        <v>11.89573559663194</v>
       </c>
     </row>
     <row r="432">
@@ -14996,13 +14996,13 @@
         <v>29888</v>
       </c>
       <c r="I432" t="n">
-        <v>32496.85202976189</v>
+        <v>32496.85202976188</v>
       </c>
       <c r="J432" t="n">
-        <v>2608.852029761885</v>
+        <v>2608.852029761882</v>
       </c>
       <c r="K432" t="n">
-        <v>8.728760806216156</v>
+        <v>8.728760806216146</v>
       </c>
     </row>
     <row r="433">
@@ -15035,7 +15035,7 @@
         <v>2601.415296183824</v>
       </c>
       <c r="K433" t="n">
-        <v>65.85861509326136</v>
+        <v>65.85861509326138</v>
       </c>
     </row>
     <row r="434">
@@ -15100,10 +15100,10 @@
         <v>21098.5650832887</v>
       </c>
       <c r="J435" t="n">
-        <v>2598.5650832887</v>
+        <v>2598.565083288704</v>
       </c>
       <c r="K435" t="n">
-        <v>14.04629774750649</v>
+        <v>14.04629774750651</v>
       </c>
     </row>
     <row r="436">
@@ -15198,13 +15198,13 @@
         <v>11490</v>
       </c>
       <c r="I438" t="n">
-        <v>8919.654810620827</v>
+        <v>8919.654810620828</v>
       </c>
       <c r="J438" t="n">
-        <v>2570.345189379173</v>
+        <v>2570.345189379172</v>
       </c>
       <c r="K438" t="n">
-        <v>22.37028015125477</v>
+        <v>22.37028015125476</v>
       </c>
     </row>
     <row r="439">
@@ -15297,13 +15297,13 @@
         <v>3300</v>
       </c>
       <c r="I441" t="n">
-        <v>5852.05213341724</v>
+        <v>5852.052133417239</v>
       </c>
       <c r="J441" t="n">
-        <v>2552.05213341724</v>
+        <v>2552.052133417239</v>
       </c>
       <c r="K441" t="n">
-        <v>77.33491313385575</v>
+        <v>77.33491313385572</v>
       </c>
     </row>
     <row r="442">
@@ -15467,10 +15467,10 @@
         <v>11977.68367812515</v>
       </c>
       <c r="J446" t="n">
-        <v>2537.683678125155</v>
+        <v>2537.683678125153</v>
       </c>
       <c r="K446" t="n">
-        <v>26.88224235302071</v>
+        <v>26.88224235302069</v>
       </c>
     </row>
     <row r="447">
@@ -15563,13 +15563,13 @@
         <v>3700</v>
       </c>
       <c r="I449" t="n">
-        <v>6221.879194063</v>
+        <v>6221.879194063001</v>
       </c>
       <c r="J449" t="n">
-        <v>2521.879194063</v>
+        <v>2521.879194063001</v>
       </c>
       <c r="K449" t="n">
-        <v>68.15889713683784</v>
+        <v>68.15889713683787</v>
       </c>
     </row>
     <row r="450">
@@ -15631,13 +15631,13 @@
         <v>11900</v>
       </c>
       <c r="I451" t="n">
-        <v>9397.660400816221</v>
+        <v>9397.660400816223</v>
       </c>
       <c r="J451" t="n">
-        <v>2502.339599183779</v>
+        <v>2502.339599183777</v>
       </c>
       <c r="K451" t="n">
-        <v>21.02806385868722</v>
+        <v>21.0280638586872</v>
       </c>
     </row>
     <row r="452">
@@ -15667,10 +15667,10 @@
         <v>13000.1862039553</v>
       </c>
       <c r="J452" t="n">
-        <v>2499.813796044704</v>
+        <v>2499.813796044702</v>
       </c>
       <c r="K452" t="n">
-        <v>16.12783094222389</v>
+        <v>16.12783094222388</v>
       </c>
     </row>
     <row r="453">
@@ -15768,10 +15768,10 @@
         <v>12416.3714845319</v>
       </c>
       <c r="J455" t="n">
-        <v>2483.628515468097</v>
+        <v>2483.628515468101</v>
       </c>
       <c r="K455" t="n">
-        <v>16.66864775481944</v>
+        <v>16.66864775481947</v>
       </c>
     </row>
     <row r="456">
@@ -15798,10 +15798,10 @@
         <v>6500</v>
       </c>
       <c r="I456" t="n">
-        <v>4018.865471336868</v>
+        <v>4018.865471336867</v>
       </c>
       <c r="J456" t="n">
-        <v>2481.134528663132</v>
+        <v>2481.134528663133</v>
       </c>
       <c r="K456" t="n">
         <v>38.17130044097127</v>
@@ -15831,13 +15831,13 @@
         <v>11600</v>
       </c>
       <c r="I457" t="n">
-        <v>14070.95034427069</v>
+        <v>14070.95034427068</v>
       </c>
       <c r="J457" t="n">
-        <v>2470.950344270686</v>
+        <v>2470.950344270685</v>
       </c>
       <c r="K457" t="n">
-        <v>21.30129607129902</v>
+        <v>21.30129607129901</v>
       </c>
     </row>
     <row r="458">
@@ -15959,13 +15959,13 @@
         <v>9090</v>
       </c>
       <c r="I461" t="n">
-        <v>6625.690556378092</v>
+        <v>6625.690556378091</v>
       </c>
       <c r="J461" t="n">
-        <v>2464.309443621908</v>
+        <v>2464.309443621909</v>
       </c>
       <c r="K461" t="n">
-        <v>27.11011489133012</v>
+        <v>27.11011489133013</v>
       </c>
     </row>
     <row r="462">
@@ -16159,13 +16159,13 @@
         <v>14099</v>
       </c>
       <c r="I467" t="n">
-        <v>11669.56753770443</v>
+        <v>11669.56753770442</v>
       </c>
       <c r="J467" t="n">
-        <v>2429.432462295574</v>
+        <v>2429.432462295576</v>
       </c>
       <c r="K467" t="n">
-        <v>17.23123953681519</v>
+        <v>17.2312395368152</v>
       </c>
     </row>
     <row r="468">
@@ -16263,10 +16263,10 @@
         <v>29299.33262294915</v>
       </c>
       <c r="J470" t="n">
-        <v>2390.667377050846</v>
+        <v>2390.66737705085</v>
       </c>
       <c r="K470" t="n">
-        <v>7.543917251659344</v>
+        <v>7.543917251659355</v>
       </c>
     </row>
     <row r="471">
@@ -16296,10 +16296,10 @@
         <v>19284.19667770649</v>
       </c>
       <c r="J471" t="n">
-        <v>2384.196677706488</v>
+        <v>2384.196677706492</v>
       </c>
       <c r="K471" t="n">
-        <v>14.10767264915082</v>
+        <v>14.10767264915084</v>
       </c>
     </row>
     <row r="472">
@@ -16362,10 +16362,10 @@
         <v>19375.28371634303</v>
       </c>
       <c r="J473" t="n">
-        <v>2376.283716343027</v>
+        <v>2376.28371634303</v>
       </c>
       <c r="K473" t="n">
-        <v>13.97896179977073</v>
+        <v>13.97896179977075</v>
       </c>
     </row>
     <row r="474">
@@ -16395,10 +16395,10 @@
         <v>11531.93804792242</v>
       </c>
       <c r="J474" t="n">
-        <v>2368.061952077582</v>
+        <v>2368.061952077578</v>
       </c>
       <c r="K474" t="n">
-        <v>17.03641692142145</v>
+        <v>17.03641692142143</v>
       </c>
     </row>
     <row r="475">
@@ -16460,13 +16460,13 @@
         <v>13900</v>
       </c>
       <c r="I476" t="n">
-        <v>11541.64524142437</v>
+        <v>11541.64524142438</v>
       </c>
       <c r="J476" t="n">
-        <v>2358.354758575626</v>
+        <v>2358.354758575624</v>
       </c>
       <c r="K476" t="n">
-        <v>16.96658099694695</v>
+        <v>16.96658099694694</v>
       </c>
     </row>
     <row r="477">
@@ -16495,13 +16495,13 @@
         <v>13900</v>
       </c>
       <c r="I477" t="n">
-        <v>11541.64524142437</v>
+        <v>11541.64524142438</v>
       </c>
       <c r="J477" t="n">
-        <v>2358.354758575626</v>
+        <v>2358.354758575624</v>
       </c>
       <c r="K477" t="n">
-        <v>16.96658099694695</v>
+        <v>16.96658099694694</v>
       </c>
     </row>
     <row r="478">
@@ -16596,13 +16596,13 @@
         <v>14480</v>
       </c>
       <c r="I480" t="n">
-        <v>16818.24591570635</v>
+        <v>16818.24591570636</v>
       </c>
       <c r="J480" t="n">
-        <v>2338.245915706353</v>
+        <v>2338.245915706357</v>
       </c>
       <c r="K480" t="n">
-        <v>16.14810715266819</v>
+        <v>16.14810715266821</v>
       </c>
     </row>
     <row r="481">
@@ -16730,13 +16730,13 @@
         <v>34000</v>
       </c>
       <c r="I484" t="n">
-        <v>31684.44859246046</v>
+        <v>31684.44859246047</v>
       </c>
       <c r="J484" t="n">
-        <v>2315.551407539537</v>
+        <v>2315.551407539533</v>
       </c>
       <c r="K484" t="n">
-        <v>6.810445316292754</v>
+        <v>6.810445316292745</v>
       </c>
     </row>
     <row r="485">
@@ -17033,13 +17033,13 @@
         <v>9900</v>
       </c>
       <c r="I493" t="n">
-        <v>12119.30502254322</v>
+        <v>12119.30502254321</v>
       </c>
       <c r="J493" t="n">
-        <v>2219.305022543216</v>
+        <v>2219.305022543214</v>
       </c>
       <c r="K493" t="n">
-        <v>22.41722244993148</v>
+        <v>22.41722244993146</v>
       </c>
     </row>
     <row r="494">
@@ -17103,13 +17103,13 @@
         <v>26970</v>
       </c>
       <c r="I495" t="n">
-        <v>29183.61628697164</v>
+        <v>29183.61628697165</v>
       </c>
       <c r="J495" t="n">
-        <v>2213.616286971643</v>
+        <v>2213.61628697165</v>
       </c>
       <c r="K495" t="n">
-        <v>8.207698505641982</v>
+        <v>8.207698505642009</v>
       </c>
     </row>
     <row r="496">
@@ -17169,13 +17169,13 @@
         <v>24980</v>
       </c>
       <c r="I497" t="n">
-        <v>22779.10854919373</v>
+        <v>22779.10854919372</v>
       </c>
       <c r="J497" t="n">
-        <v>2200.891450806273</v>
+        <v>2200.891450806277</v>
       </c>
       <c r="K497" t="n">
-        <v>8.810614294660823</v>
+        <v>8.810614294660837</v>
       </c>
     </row>
     <row r="498">
@@ -17235,13 +17235,13 @@
         <v>19800</v>
       </c>
       <c r="I499" t="n">
-        <v>21987.19352236652</v>
+        <v>21987.19352236653</v>
       </c>
       <c r="J499" t="n">
-        <v>2187.193522366524</v>
+        <v>2187.193522366528</v>
       </c>
       <c r="K499" t="n">
-        <v>11.04643193114406</v>
+        <v>11.04643193114408</v>
       </c>
     </row>
     <row r="500">
@@ -17306,10 +17306,10 @@
         <v>12174.4443140843</v>
       </c>
       <c r="J501" t="n">
-        <v>2184.444314084298</v>
+        <v>2184.4443140843</v>
       </c>
       <c r="K501" t="n">
-        <v>21.86630945029327</v>
+        <v>21.86630945029329</v>
       </c>
     </row>
     <row r="502">
@@ -17476,13 +17476,13 @@
         <v>9995</v>
       </c>
       <c r="I506" t="n">
-        <v>12168.55844139339</v>
+        <v>12168.5584413934</v>
       </c>
       <c r="J506" t="n">
-        <v>2173.558441393394</v>
+        <v>2173.558441393396</v>
       </c>
       <c r="K506" t="n">
-        <v>21.74645764275532</v>
+        <v>21.74645764275533</v>
       </c>
     </row>
     <row r="507">
@@ -17511,13 +17511,13 @@
         <v>19750</v>
       </c>
       <c r="I507" t="n">
-        <v>17583.20083333334</v>
+        <v>17583.20083333333</v>
       </c>
       <c r="J507" t="n">
-        <v>2166.799166666664</v>
+        <v>2166.799166666668</v>
       </c>
       <c r="K507" t="n">
-        <v>10.97113502109703</v>
+        <v>10.97113502109705</v>
       </c>
     </row>
     <row r="508">
@@ -17648,10 +17648,10 @@
         <v>10022.70728105315</v>
       </c>
       <c r="J511" t="n">
-        <v>2122.707281053154</v>
+        <v>2122.707281053152</v>
       </c>
       <c r="K511" t="n">
-        <v>26.86971241839435</v>
+        <v>26.86971241839433</v>
       </c>
     </row>
     <row r="512">
@@ -17681,10 +17681,10 @@
         <v>17880.06436794322</v>
       </c>
       <c r="J512" t="n">
-        <v>2118.935632056782</v>
+        <v>2118.935632056779</v>
       </c>
       <c r="K512" t="n">
-        <v>10.59520792067994</v>
+        <v>10.59520792067993</v>
       </c>
     </row>
     <row r="513">
@@ -17746,13 +17746,13 @@
         <v>6990</v>
       </c>
       <c r="I514" t="n">
-        <v>4880.3313525239</v>
+        <v>4880.331352523901</v>
       </c>
       <c r="J514" t="n">
-        <v>2109.6686474761</v>
+        <v>2109.668647476099</v>
       </c>
       <c r="K514" t="n">
-        <v>30.18123959193276</v>
+        <v>30.18123959193275</v>
       </c>
     </row>
     <row r="515">
@@ -17852,10 +17852,10 @@
         <v>15578.86956281061</v>
       </c>
       <c r="J517" t="n">
-        <v>2088.869562810609</v>
+        <v>2088.869562810605</v>
       </c>
       <c r="K517" t="n">
-        <v>15.4845779303974</v>
+        <v>15.48457793039737</v>
       </c>
     </row>
     <row r="518">
@@ -18016,13 +18016,13 @@
         <v>6300</v>
       </c>
       <c r="I522" t="n">
-        <v>8348.617969304551</v>
+        <v>8348.617969304552</v>
       </c>
       <c r="J522" t="n">
-        <v>2048.617969304551</v>
+        <v>2048.617969304552</v>
       </c>
       <c r="K522" t="n">
-        <v>32.51774554451667</v>
+        <v>32.51774554451671</v>
       </c>
     </row>
     <row r="523">
@@ -18054,10 +18054,10 @@
         <v>26950.68739682539</v>
       </c>
       <c r="J523" t="n">
-        <v>2036.312603174607</v>
+        <v>2036.312603174611</v>
       </c>
       <c r="K523" t="n">
-        <v>7.02491669774246</v>
+        <v>7.024916697742472</v>
       </c>
     </row>
     <row r="524">
@@ -18117,13 +18117,13 @@
         <v>5950</v>
       </c>
       <c r="I525" t="n">
-        <v>7979.470295516055</v>
+        <v>7979.470295516054</v>
       </c>
       <c r="J525" t="n">
-        <v>2029.470295516055</v>
+        <v>2029.470295516054</v>
       </c>
       <c r="K525" t="n">
-        <v>34.1087444624547</v>
+        <v>34.10874446245469</v>
       </c>
     </row>
     <row r="526">
@@ -18153,10 +18153,10 @@
         <v>12922.56436484675</v>
       </c>
       <c r="J526" t="n">
-        <v>2022.564364846747</v>
+        <v>2022.564364846749</v>
       </c>
       <c r="K526" t="n">
-        <v>18.55563637474079</v>
+        <v>18.55563637474081</v>
       </c>
     </row>
     <row r="527">
@@ -18183,13 +18183,13 @@
         <v>11990</v>
       </c>
       <c r="I527" t="n">
-        <v>9979.303278055102</v>
+        <v>9979.3032780551</v>
       </c>
       <c r="J527" t="n">
-        <v>2010.696721944898</v>
+        <v>2010.6967219449</v>
       </c>
       <c r="K527" t="n">
-        <v>16.76978083356879</v>
+        <v>16.76978083356881</v>
       </c>
     </row>
     <row r="528">
@@ -18453,7 +18453,7 @@
         <v>1982.513946428571</v>
       </c>
       <c r="K535" t="n">
-        <v>252.5495473157415</v>
+        <v>252.5495473157416</v>
       </c>
     </row>
     <row r="536">
@@ -18550,13 +18550,13 @@
         <v>13500</v>
       </c>
       <c r="I538" t="n">
-        <v>11536.01718833475</v>
+        <v>11536.01718833474</v>
       </c>
       <c r="J538" t="n">
-        <v>1963.982811665253</v>
+        <v>1963.982811665255</v>
       </c>
       <c r="K538" t="n">
-        <v>14.54802082715002</v>
+        <v>14.54802082715004</v>
       </c>
     </row>
     <row r="539">
@@ -18687,10 +18687,10 @@
         <v>23046.85478835574</v>
       </c>
       <c r="J542" t="n">
-        <v>1943.14521164426</v>
+        <v>1943.145211644256</v>
       </c>
       <c r="K542" t="n">
-        <v>7.775691123026249</v>
+        <v>7.775691123026234</v>
       </c>
     </row>
     <row r="543">
@@ -18717,13 +18717,13 @@
         <v>29995</v>
       </c>
       <c r="I543" t="n">
-        <v>28055.01829589121</v>
+        <v>28055.0182958912</v>
       </c>
       <c r="J543" t="n">
-        <v>1939.981704108788</v>
+        <v>1939.981704108795</v>
       </c>
       <c r="K543" t="n">
-        <v>6.4676836276339</v>
+        <v>6.467683627633924</v>
       </c>
     </row>
     <row r="544">
@@ -18858,10 +18858,10 @@
         <v>19909.57163191036</v>
       </c>
       <c r="J547" t="n">
-        <v>1919.571631910363</v>
+        <v>1919.571631910359</v>
       </c>
       <c r="K547" t="n">
-        <v>10.67021474102481</v>
+        <v>10.67021474102479</v>
       </c>
     </row>
     <row r="548">
@@ -18890,13 +18890,13 @@
         <v>25895</v>
       </c>
       <c r="I548" t="n">
-        <v>23982.83460695661</v>
+        <v>23982.8346069566</v>
       </c>
       <c r="J548" t="n">
-        <v>1912.165393043393</v>
+        <v>1912.165393043397</v>
       </c>
       <c r="K548" t="n">
-        <v>7.384303506636004</v>
+        <v>7.384303506636018</v>
       </c>
     </row>
     <row r="549">
@@ -18923,13 +18923,13 @@
         <v>16950</v>
       </c>
       <c r="I549" t="n">
-        <v>15042.40918021992</v>
+        <v>15042.40918021993</v>
       </c>
       <c r="J549" t="n">
-        <v>1907.590819780076</v>
+        <v>1907.590819780075</v>
       </c>
       <c r="K549" t="n">
-        <v>11.25422312554617</v>
+        <v>11.25422312554616</v>
       </c>
     </row>
     <row r="550">
@@ -18989,13 +18989,13 @@
         <v>19990</v>
       </c>
       <c r="I551" t="n">
-        <v>18089.09794619329</v>
+        <v>18089.0979461933</v>
       </c>
       <c r="J551" t="n">
-        <v>1900.902053806705</v>
+        <v>1900.902053806702</v>
       </c>
       <c r="K551" t="n">
-        <v>9.509264901484269</v>
+        <v>9.509264901484249</v>
       </c>
     </row>
     <row r="552">
@@ -19027,10 +19027,10 @@
         <v>18848.81081107837</v>
       </c>
       <c r="J552" t="n">
-        <v>1898.810811078372</v>
+        <v>1898.810811078365</v>
       </c>
       <c r="K552" t="n">
-        <v>11.20242366417919</v>
+        <v>11.20242366417915</v>
       </c>
     </row>
     <row r="553">
@@ -19193,13 +19193,13 @@
         <v>10950</v>
       </c>
       <c r="I557" t="n">
-        <v>9066.300427695658</v>
+        <v>9066.300427695656</v>
       </c>
       <c r="J557" t="n">
-        <v>1883.699572304342</v>
+        <v>1883.699572304344</v>
       </c>
       <c r="K557" t="n">
-        <v>17.20273582013098</v>
+        <v>17.20273582013099</v>
       </c>
     </row>
     <row r="558">
@@ -19231,10 +19231,10 @@
         <v>16873.19937645427</v>
       </c>
       <c r="J558" t="n">
-        <v>1883.199376454271</v>
+        <v>1883.199376454268</v>
       </c>
       <c r="K558" t="n">
-        <v>12.56303786827399</v>
+        <v>12.56303786827397</v>
       </c>
     </row>
     <row r="559">
@@ -19294,13 +19294,13 @@
         <v>3950</v>
       </c>
       <c r="I560" t="n">
-        <v>5819.556581626759</v>
+        <v>5819.55658162676</v>
       </c>
       <c r="J560" t="n">
-        <v>1869.556581626759</v>
+        <v>1869.55658162676</v>
       </c>
       <c r="K560" t="n">
-        <v>47.3305463702977</v>
+        <v>47.33054637029772</v>
       </c>
     </row>
     <row r="561">
@@ -19365,10 +19365,10 @@
         <v>13139.02052346884</v>
       </c>
       <c r="J562" t="n">
-        <v>1850.979476531164</v>
+        <v>1850.979476531162</v>
       </c>
       <c r="K562" t="n">
-        <v>12.348095240368</v>
+        <v>12.34809524036799</v>
       </c>
     </row>
     <row r="563">
@@ -19400,10 +19400,10 @@
         <v>18046.28622796239</v>
       </c>
       <c r="J563" t="n">
-        <v>1843.713772037612</v>
+        <v>1843.713772037609</v>
       </c>
       <c r="K563" t="n">
-        <v>9.269551392848729</v>
+        <v>9.26955139284871</v>
       </c>
     </row>
     <row r="564">
@@ -19803,13 +19803,13 @@
         <v>9499</v>
       </c>
       <c r="I575" t="n">
-        <v>11310.91986825308</v>
+        <v>11310.91986825307</v>
       </c>
       <c r="J575" t="n">
-        <v>1811.919868253077</v>
+        <v>1811.919868253071</v>
       </c>
       <c r="K575" t="n">
-        <v>19.07484859725315</v>
+        <v>19.07484859725309</v>
       </c>
     </row>
     <row r="576">
@@ -19836,13 +19836,13 @@
         <v>4740</v>
       </c>
       <c r="I576" t="n">
-        <v>6551.22443982137</v>
+        <v>6551.224439821369</v>
       </c>
       <c r="J576" t="n">
-        <v>1811.22443982137</v>
+        <v>1811.224439821369</v>
       </c>
       <c r="K576" t="n">
-        <v>38.21148607218079</v>
+        <v>38.21148607218078</v>
       </c>
     </row>
     <row r="577">
@@ -19905,10 +19905,10 @@
         <v>11757.8663531746</v>
       </c>
       <c r="J578" t="n">
-        <v>1807.866353174599</v>
+        <v>1807.866353174602</v>
       </c>
       <c r="K578" t="n">
-        <v>18.1695110871819</v>
+        <v>18.16951108718193</v>
       </c>
     </row>
     <row r="579">
@@ -19938,10 +19938,10 @@
         <v>11757.8663531746</v>
       </c>
       <c r="J579" t="n">
-        <v>1807.866353174599</v>
+        <v>1807.866353174602</v>
       </c>
       <c r="K579" t="n">
-        <v>18.1695110871819</v>
+        <v>18.16951108718193</v>
       </c>
     </row>
     <row r="580">
@@ -20003,13 +20003,13 @@
         <v>2950</v>
       </c>
       <c r="I581" t="n">
-        <v>4748.852071428571</v>
+        <v>4748.852071428572</v>
       </c>
       <c r="J581" t="n">
-        <v>1798.852071428571</v>
+        <v>1798.852071428572</v>
       </c>
       <c r="K581" t="n">
-        <v>60.97803631961259</v>
+        <v>60.97803631961262</v>
       </c>
     </row>
     <row r="582">
@@ -20036,13 +20036,13 @@
         <v>2950</v>
       </c>
       <c r="I582" t="n">
-        <v>4748.852071428571</v>
+        <v>4748.852071428572</v>
       </c>
       <c r="J582" t="n">
-        <v>1798.852071428571</v>
+        <v>1798.852071428572</v>
       </c>
       <c r="K582" t="n">
-        <v>60.97803631961259</v>
+        <v>60.97803631961262</v>
       </c>
     </row>
     <row r="583">
@@ -20145,7 +20145,7 @@
         <v>1786.25075281407</v>
       </c>
       <c r="K585" t="n">
-        <v>26.46297411576401</v>
+        <v>26.46297411576399</v>
       </c>
     </row>
     <row r="586">
@@ -20209,13 +20209,13 @@
         <v>8698</v>
       </c>
       <c r="I587" t="n">
-        <v>6929.675563109766</v>
+        <v>6929.675563109768</v>
       </c>
       <c r="J587" t="n">
-        <v>1768.324436890234</v>
+        <v>1768.324436890232</v>
       </c>
       <c r="K587" t="n">
-        <v>20.33024185893578</v>
+        <v>20.33024185893576</v>
       </c>
     </row>
     <row r="588">
@@ -20348,10 +20348,10 @@
         <v>16191.42479925752</v>
       </c>
       <c r="J591" t="n">
-        <v>1758.575200742476</v>
+        <v>1758.575200742478</v>
       </c>
       <c r="K591" t="n">
-        <v>9.797076327256134</v>
+        <v>9.797076327256145</v>
       </c>
     </row>
     <row r="592">
@@ -20446,13 +20446,13 @@
         <v>2499</v>
       </c>
       <c r="I594" t="n">
-        <v>4249.71384541847</v>
+        <v>4249.713845418471</v>
       </c>
       <c r="J594" t="n">
-        <v>1750.71384541847</v>
+        <v>1750.713845418471</v>
       </c>
       <c r="K594" t="n">
-        <v>70.05657644731771</v>
+        <v>70.05657644731779</v>
       </c>
     </row>
     <row r="595">
@@ -20551,7 +20551,7 @@
         <v>1742.046088362104</v>
       </c>
       <c r="K597" t="n">
-        <v>21.91252941335981</v>
+        <v>21.9125294133598</v>
       </c>
     </row>
     <row r="598">
@@ -20912,13 +20912,13 @@
         <v>11990</v>
       </c>
       <c r="I608" t="n">
-        <v>13691.70402706701</v>
+        <v>13691.704027067</v>
       </c>
       <c r="J608" t="n">
-        <v>1701.704027067006</v>
+        <v>1701.704027067004</v>
       </c>
       <c r="K608" t="n">
-        <v>14.1926941373395</v>
+        <v>14.19269413733948</v>
       </c>
     </row>
     <row r="609">
@@ -21013,13 +21013,13 @@
         <v>7900</v>
       </c>
       <c r="I611" t="n">
-        <v>9588.88568255777</v>
+        <v>9588.885682557768</v>
       </c>
       <c r="J611" t="n">
-        <v>1688.88568255777</v>
+        <v>1688.885682557768</v>
       </c>
       <c r="K611" t="n">
-        <v>21.37829977921227</v>
+        <v>21.37829977921225</v>
       </c>
     </row>
     <row r="612">
@@ -21079,13 +21079,13 @@
         <v>8990</v>
       </c>
       <c r="I613" t="n">
-        <v>7304.527812525679</v>
+        <v>7304.52781252568</v>
       </c>
       <c r="J613" t="n">
-        <v>1685.472187474321</v>
+        <v>1685.47218747432</v>
       </c>
       <c r="K613" t="n">
-        <v>18.74830019437509</v>
+        <v>18.74830019437508</v>
       </c>
     </row>
     <row r="614">
@@ -21182,13 +21182,13 @@
         <v>4445</v>
       </c>
       <c r="I616" t="n">
-        <v>6125.123773799091</v>
+        <v>6125.123773799092</v>
       </c>
       <c r="J616" t="n">
-        <v>1680.123773799091</v>
+        <v>1680.123773799092</v>
       </c>
       <c r="K616" t="n">
-        <v>37.79806015296043</v>
+        <v>37.79806015296045</v>
       </c>
     </row>
     <row r="617">
@@ -21215,13 +21215,13 @@
         <v>9500</v>
       </c>
       <c r="I617" t="n">
-        <v>11177.0377071935</v>
+        <v>11177.03770719349</v>
       </c>
       <c r="J617" t="n">
-        <v>1677.037707193496</v>
+        <v>1677.037707193494</v>
       </c>
       <c r="K617" t="n">
-        <v>17.65302849677364</v>
+        <v>17.65302849677363</v>
       </c>
     </row>
     <row r="618">
@@ -21286,10 +21286,10 @@
         <v>13620.50628649337</v>
       </c>
       <c r="J619" t="n">
-        <v>1670.506286493368</v>
+        <v>1670.50628649337</v>
       </c>
       <c r="K619" t="n">
-        <v>13.97913210454701</v>
+        <v>13.97913210454703</v>
       </c>
     </row>
     <row r="620">
@@ -21316,13 +21316,13 @@
         <v>6950</v>
       </c>
       <c r="I620" t="n">
-        <v>5283.238261675124</v>
+        <v>5283.238261675122</v>
       </c>
       <c r="J620" t="n">
-        <v>1666.761738324876</v>
+        <v>1666.761738324878</v>
       </c>
       <c r="K620" t="n">
-        <v>23.98218328525002</v>
+        <v>23.98218328525004</v>
       </c>
     </row>
     <row r="621">
@@ -21419,13 +21419,13 @@
         <v>9938</v>
       </c>
       <c r="I623" t="n">
-        <v>11600.33110317461</v>
+        <v>11600.3311031746</v>
       </c>
       <c r="J623" t="n">
-        <v>1662.331103174605</v>
+        <v>1662.331103174603</v>
       </c>
       <c r="K623" t="n">
-        <v>16.72701854673581</v>
+        <v>16.7270185467358</v>
       </c>
     </row>
     <row r="624">
@@ -21488,10 +21488,10 @@
         <v>27629.42386092617</v>
       </c>
       <c r="J625" t="n">
-        <v>1659.423860926167</v>
+        <v>1659.42386092617</v>
       </c>
       <c r="K625" t="n">
-        <v>6.389772279269028</v>
+        <v>6.389772279269041</v>
       </c>
     </row>
     <row r="626">
@@ -21518,13 +21518,13 @@
         <v>6595</v>
       </c>
       <c r="I626" t="n">
-        <v>4936.203060523173</v>
+        <v>4936.203060523172</v>
       </c>
       <c r="J626" t="n">
-        <v>1658.796939476827</v>
+        <v>1658.796939476828</v>
       </c>
       <c r="K626" t="n">
-        <v>25.1523417661384</v>
+        <v>25.15234176613841</v>
       </c>
     </row>
     <row r="627">
@@ -21554,10 +21554,10 @@
         <v>25097.12490023957</v>
       </c>
       <c r="J627" t="n">
-        <v>1652.875099760429</v>
+        <v>1652.875099760433</v>
       </c>
       <c r="K627" t="n">
-        <v>6.178972335553007</v>
+        <v>6.178972335553021</v>
       </c>
     </row>
     <row r="628">
@@ -21652,13 +21652,13 @@
         <v>4750</v>
       </c>
       <c r="I630" t="n">
-        <v>6387.629995870599</v>
+        <v>6387.6299958706</v>
       </c>
       <c r="J630" t="n">
-        <v>1637.629995870599</v>
+        <v>1637.6299958706</v>
       </c>
       <c r="K630" t="n">
-        <v>34.47642096569683</v>
+        <v>34.47642096569685</v>
       </c>
     </row>
     <row r="631">
@@ -21755,13 +21755,13 @@
         <v>23950</v>
       </c>
       <c r="I633" t="n">
-        <v>22318.10877758505</v>
+        <v>22318.10877758506</v>
       </c>
       <c r="J633" t="n">
-        <v>1631.891222414946</v>
+        <v>1631.891222414943</v>
       </c>
       <c r="K633" t="n">
-        <v>6.813742056012302</v>
+        <v>6.813742056012286</v>
       </c>
     </row>
     <row r="634">
@@ -21791,10 +21791,10 @@
         <v>12323.10255965177</v>
       </c>
       <c r="J634" t="n">
-        <v>1626.897440348226</v>
+        <v>1626.897440348228</v>
       </c>
       <c r="K634" t="n">
-        <v>11.66234724263961</v>
+        <v>11.66234724263963</v>
       </c>
     </row>
     <row r="635">
@@ -21887,13 +21887,13 @@
         <v>17200</v>
       </c>
       <c r="I637" t="n">
-        <v>18816.42355612</v>
+        <v>18816.42355611999</v>
       </c>
       <c r="J637" t="n">
-        <v>1616.423556119997</v>
+        <v>1616.423556119993</v>
       </c>
       <c r="K637" t="n">
-        <v>9.397811372790677</v>
+        <v>9.397811372790656</v>
       </c>
     </row>
     <row r="638">
@@ -21923,10 +21923,10 @@
         <v>16133.84896628999</v>
       </c>
       <c r="J638" t="n">
-        <v>1616.151033710006</v>
+        <v>1616.151033710008</v>
       </c>
       <c r="K638" t="n">
-        <v>9.105076246253557</v>
+        <v>9.105076246253565</v>
       </c>
     </row>
     <row r="639">
@@ -22057,10 +22057,10 @@
         <v>15296.69111528448</v>
       </c>
       <c r="J642" t="n">
-        <v>1606.69111528448</v>
+        <v>1606.691115284482</v>
       </c>
       <c r="K642" t="n">
-        <v>11.73623897212915</v>
+        <v>11.73623897212916</v>
       </c>
     </row>
     <row r="643">
@@ -22087,13 +22087,13 @@
         <v>9490</v>
       </c>
       <c r="I643" t="n">
-        <v>11087.83203570421</v>
+        <v>11087.8320357042</v>
       </c>
       <c r="J643" t="n">
-        <v>1597.832035704207</v>
+        <v>1597.832035704203</v>
       </c>
       <c r="K643" t="n">
-        <v>16.83700775241525</v>
+        <v>16.83700775241521</v>
       </c>
     </row>
     <row r="644">
@@ -22160,10 +22160,10 @@
         <v>22536.27920833333</v>
       </c>
       <c r="J645" t="n">
-        <v>1586.279208333326</v>
+        <v>1586.27920833333</v>
       </c>
       <c r="K645" t="n">
-        <v>7.571738464598215</v>
+        <v>7.571738464598234</v>
       </c>
     </row>
     <row r="646">
@@ -22258,13 +22258,13 @@
         <v>4800</v>
       </c>
       <c r="I648" t="n">
-        <v>6373.92282115054</v>
+        <v>6373.922821150541</v>
       </c>
       <c r="J648" t="n">
-        <v>1573.92282115054</v>
+        <v>1573.922821150541</v>
       </c>
       <c r="K648" t="n">
-        <v>32.79005877396958</v>
+        <v>32.7900587739696</v>
       </c>
     </row>
     <row r="649">
@@ -22361,13 +22361,13 @@
         <v>6300</v>
       </c>
       <c r="I651" t="n">
-        <v>7868.51445258333</v>
+        <v>7868.514452583331</v>
       </c>
       <c r="J651" t="n">
-        <v>1568.51445258333</v>
+        <v>1568.514452583331</v>
       </c>
       <c r="K651" t="n">
-        <v>24.89705480291001</v>
+        <v>24.89705480291002</v>
       </c>
     </row>
     <row r="652">
@@ -22629,13 +22629,13 @@
         <v>8500</v>
       </c>
       <c r="I659" t="n">
-        <v>6955.684140051774</v>
+        <v>6955.684140051773</v>
       </c>
       <c r="J659" t="n">
-        <v>1544.315859948226</v>
+        <v>1544.315859948227</v>
       </c>
       <c r="K659" t="n">
-        <v>18.16842188174383</v>
+        <v>18.16842188174384</v>
       </c>
     </row>
     <row r="660">
@@ -22697,13 +22697,13 @@
         <v>2999</v>
       </c>
       <c r="I661" t="n">
-        <v>4533.10221991426</v>
+        <v>4533.102219914261</v>
       </c>
       <c r="J661" t="n">
-        <v>1534.10221991426</v>
+        <v>1534.102219914261</v>
       </c>
       <c r="K661" t="n">
-        <v>51.15379192778459</v>
+        <v>51.15379192778462</v>
       </c>
     </row>
     <row r="662">
@@ -22734,7 +22734,7 @@
         <v>1523.709125024398</v>
       </c>
       <c r="K662" t="n">
-        <v>58.83046814766013</v>
+        <v>58.83046814766017</v>
       </c>
     </row>
     <row r="663">
@@ -22794,13 +22794,13 @@
         <v>11000</v>
       </c>
       <c r="I664" t="n">
-        <v>12516.60193214853</v>
+        <v>12516.60193214852</v>
       </c>
       <c r="J664" t="n">
-        <v>1516.601932148526</v>
+        <v>1516.601932148524</v>
       </c>
       <c r="K664" t="n">
-        <v>13.78729029225932</v>
+        <v>13.78729029225931</v>
       </c>
     </row>
     <row r="665">
@@ -22829,13 +22829,13 @@
         <v>29900</v>
       </c>
       <c r="I665" t="n">
-        <v>28383.97542231553</v>
+        <v>28383.97542231552</v>
       </c>
       <c r="J665" t="n">
-        <v>1516.024577684471</v>
+        <v>1516.024577684479</v>
       </c>
       <c r="K665" t="n">
-        <v>5.07031631332599</v>
+        <v>5.070316313326016</v>
       </c>
     </row>
     <row r="666">
@@ -22968,10 +22968,10 @@
         <v>13390.75224603175</v>
       </c>
       <c r="J669" t="n">
-        <v>1490.752246031752</v>
+        <v>1490.752246031754</v>
       </c>
       <c r="K669" t="n">
-        <v>12.52732979858616</v>
+        <v>12.52732979858617</v>
       </c>
     </row>
     <row r="670">
@@ -23033,13 +23033,13 @@
         <v>18900</v>
       </c>
       <c r="I671" t="n">
-        <v>17416.65245830734</v>
+        <v>17416.65245830733</v>
       </c>
       <c r="J671" t="n">
-        <v>1483.347541692663</v>
+        <v>1483.347541692667</v>
       </c>
       <c r="K671" t="n">
-        <v>7.848399691495572</v>
+        <v>7.848399691495591</v>
       </c>
     </row>
     <row r="672">
@@ -23102,10 +23102,10 @@
         <v>18420.86444072333</v>
       </c>
       <c r="J673" t="n">
-        <v>1479.13555927667</v>
+        <v>1479.135559276667</v>
       </c>
       <c r="K673" t="n">
-        <v>7.432842006415429</v>
+        <v>7.43284200641541</v>
       </c>
     </row>
     <row r="674">
@@ -23137,10 +23137,10 @@
         <v>13424.27782945527</v>
       </c>
       <c r="J674" t="n">
-        <v>1474.277829455268</v>
+        <v>1474.27782945527</v>
       </c>
       <c r="K674" t="n">
-        <v>12.33705296615287</v>
+        <v>12.33705296615289</v>
       </c>
     </row>
     <row r="675">
@@ -23539,10 +23539,10 @@
         <v>16344.2343633041</v>
       </c>
       <c r="J686" t="n">
-        <v>1444.2343633041</v>
+        <v>1444.234363304096</v>
       </c>
       <c r="K686" t="n">
-        <v>9.692848075866443</v>
+        <v>9.692848075866419</v>
       </c>
     </row>
     <row r="687">
@@ -23574,10 +23574,10 @@
         <v>13061.69658086554</v>
       </c>
       <c r="J687" t="n">
-        <v>1441.696580865539</v>
+        <v>1441.696580865537</v>
       </c>
       <c r="K687" t="n">
-        <v>12.40702737405799</v>
+        <v>12.40702737405798</v>
       </c>
     </row>
     <row r="688">
@@ -23882,7 +23882,7 @@
         <v>1379.204319524471</v>
       </c>
       <c r="K696" t="n">
-        <v>28.14702692907083</v>
+        <v>28.14702692907084</v>
       </c>
     </row>
     <row r="697">
@@ -24116,10 +24116,10 @@
         <v>15154.28953671179</v>
       </c>
       <c r="J703" t="n">
-        <v>1364.289536711785</v>
+        <v>1364.289536711787</v>
       </c>
       <c r="K703" t="n">
-        <v>9.893325139316792</v>
+        <v>9.893325139316804</v>
       </c>
     </row>
     <row r="704">
@@ -24282,13 +24282,13 @@
         <v>7800</v>
       </c>
       <c r="I708" t="n">
-        <v>6449.262149877902</v>
+        <v>6449.262149877901</v>
       </c>
       <c r="J708" t="n">
-        <v>1350.737850122098</v>
+        <v>1350.737850122099</v>
       </c>
       <c r="K708" t="n">
-        <v>17.31715192464229</v>
+        <v>17.3171519246423</v>
       </c>
     </row>
     <row r="709">
@@ -24484,13 +24484,13 @@
         <v>9990</v>
       </c>
       <c r="I714" t="n">
-        <v>11322.43326789461</v>
+        <v>11322.4332678946</v>
       </c>
       <c r="J714" t="n">
-        <v>1332.433267894607</v>
+        <v>1332.433267894603</v>
       </c>
       <c r="K714" t="n">
-        <v>13.33767034929536</v>
+        <v>13.33767034929532</v>
       </c>
     </row>
     <row r="715">
@@ -24585,13 +24585,13 @@
         <v>12900</v>
       </c>
       <c r="I717" t="n">
-        <v>14216.63698712961</v>
+        <v>14216.6369871296</v>
       </c>
       <c r="J717" t="n">
-        <v>1316.636987129606</v>
+        <v>1316.636987129603</v>
       </c>
       <c r="K717" t="n">
-        <v>10.20648827232253</v>
+        <v>10.2064882723225</v>
       </c>
     </row>
     <row r="718">
@@ -24620,13 +24620,13 @@
         <v>10950</v>
       </c>
       <c r="I718" t="n">
-        <v>12264.91190117674</v>
+        <v>12264.91190117675</v>
       </c>
       <c r="J718" t="n">
-        <v>1314.911901176743</v>
+        <v>1314.911901176747</v>
       </c>
       <c r="K718" t="n">
-        <v>12.00832786462779</v>
+        <v>12.00832786462783</v>
       </c>
     </row>
     <row r="719">
@@ -24788,10 +24788,10 @@
         <v>10688.84408819576</v>
       </c>
       <c r="J723" t="n">
-        <v>1301.155911804235</v>
+        <v>1301.155911804237</v>
       </c>
       <c r="K723" t="n">
-        <v>10.85200927276259</v>
+        <v>10.85200927276261</v>
       </c>
     </row>
     <row r="724">
@@ -24994,10 +24994,10 @@
         <v>21616.51514813671</v>
       </c>
       <c r="J729" t="n">
-        <v>1283.484851863286</v>
+        <v>1283.48485186329</v>
       </c>
       <c r="K729" t="n">
-        <v>5.604737344381162</v>
+        <v>5.604737344381178</v>
       </c>
     </row>
     <row r="730">
@@ -25095,10 +25095,10 @@
         <v>16230.34368401344</v>
       </c>
       <c r="J732" t="n">
-        <v>1280.34368401344</v>
+        <v>1280.343684013442</v>
       </c>
       <c r="K732" t="n">
-        <v>8.564171799421002</v>
+        <v>8.564171799421015</v>
       </c>
     </row>
     <row r="733">
@@ -25125,13 +25125,13 @@
         <v>14999</v>
       </c>
       <c r="I733" t="n">
-        <v>13719.13981885807</v>
+        <v>13719.13981885808</v>
       </c>
       <c r="J733" t="n">
-        <v>1279.860181141927</v>
+        <v>1279.860181141925</v>
       </c>
       <c r="K733" t="n">
-        <v>8.53297007228433</v>
+        <v>8.532970072284318</v>
       </c>
     </row>
     <row r="734">
@@ -25226,13 +25226,13 @@
         <v>20950</v>
       </c>
       <c r="I736" t="n">
-        <v>22222.51759972527</v>
+        <v>22222.51759972528</v>
       </c>
       <c r="J736" t="n">
-        <v>1272.51759972527</v>
+        <v>1272.517599725277</v>
       </c>
       <c r="K736" t="n">
-        <v>6.07406968842611</v>
+        <v>6.074069688426144</v>
       </c>
     </row>
     <row r="737">
@@ -25261,13 +25261,13 @@
         <v>1999</v>
       </c>
       <c r="I737" t="n">
-        <v>3270.225118517915</v>
+        <v>3270.225118517914</v>
       </c>
       <c r="J737" t="n">
-        <v>1271.225118517915</v>
+        <v>1271.225118517914</v>
       </c>
       <c r="K737" t="n">
-        <v>63.5930524521218</v>
+        <v>63.59305245212175</v>
       </c>
     </row>
     <row r="738">
@@ -25426,13 +25426,13 @@
         <v>6500</v>
       </c>
       <c r="I742" t="n">
-        <v>7755.05664307414</v>
+        <v>7755.056643074138</v>
       </c>
       <c r="J742" t="n">
-        <v>1255.05664307414</v>
+        <v>1255.056643074138</v>
       </c>
       <c r="K742" t="n">
-        <v>19.30856373960215</v>
+        <v>19.30856373960213</v>
       </c>
     </row>
     <row r="743">
@@ -25494,13 +25494,13 @@
         <v>6900</v>
       </c>
       <c r="I744" t="n">
-        <v>8150.340540892098</v>
+        <v>8150.340540892099</v>
       </c>
       <c r="J744" t="n">
-        <v>1250.340540892098</v>
+        <v>1250.340540892099</v>
       </c>
       <c r="K744" t="n">
-        <v>18.1208774042333</v>
+        <v>18.12087740423332</v>
       </c>
     </row>
     <row r="745">
@@ -25566,7 +25566,7 @@
         <v>1249.01053994936</v>
       </c>
       <c r="K746" t="n">
-        <v>21.16967016863321</v>
+        <v>21.16967016863323</v>
       </c>
     </row>
     <row r="747">
@@ -25760,13 +25760,13 @@
         <v>12900</v>
       </c>
       <c r="I752" t="n">
-        <v>14115.37721659046</v>
+        <v>14115.37721659045</v>
       </c>
       <c r="J752" t="n">
-        <v>1215.377216590457</v>
+        <v>1215.377216590454</v>
       </c>
       <c r="K752" t="n">
-        <v>9.42152881077874</v>
+        <v>9.421528810778712</v>
       </c>
     </row>
     <row r="753">
@@ -25935,7 +25935,7 @@
         <v>1192.327717818759</v>
       </c>
       <c r="K757" t="n">
-        <v>54.19671444630721</v>
+        <v>54.19671444630723</v>
       </c>
     </row>
     <row r="758">
@@ -26062,10 +26062,10 @@
         <v>11809.8878041713</v>
       </c>
       <c r="J761" t="n">
-        <v>1170.112195828697</v>
+        <v>1170.112195828699</v>
       </c>
       <c r="K761" t="n">
-        <v>9.014731863087032</v>
+        <v>9.014731863087045</v>
       </c>
     </row>
     <row r="762">
@@ -26196,10 +26196,10 @@
         <v>12338.15700644074</v>
       </c>
       <c r="J765" t="n">
-        <v>1161.842993559263</v>
+        <v>1161.842993559259</v>
       </c>
       <c r="K765" t="n">
-        <v>8.606244396735283</v>
+        <v>8.606244396735255</v>
       </c>
     </row>
     <row r="766">
@@ -26259,13 +26259,13 @@
         <v>5500</v>
       </c>
       <c r="I767" t="n">
-        <v>6658.54035811185</v>
+        <v>6658.540358111852</v>
       </c>
       <c r="J767" t="n">
-        <v>1158.54035811185</v>
+        <v>1158.540358111852</v>
       </c>
       <c r="K767" t="n">
-        <v>21.06437014748818</v>
+        <v>21.06437014748821</v>
       </c>
     </row>
     <row r="768">
@@ -26292,13 +26292,13 @@
         <v>4450</v>
       </c>
       <c r="I768" t="n">
-        <v>5605.360420634919</v>
+        <v>5605.36042063492</v>
       </c>
       <c r="J768" t="n">
-        <v>1155.360420634919</v>
+        <v>1155.36042063492</v>
       </c>
       <c r="K768" t="n">
-        <v>25.96315551988582</v>
+        <v>25.96315551988584</v>
       </c>
     </row>
     <row r="769">
@@ -26427,10 +26427,10 @@
         <v>22760.35111581378</v>
       </c>
       <c r="J772" t="n">
-        <v>1139.648884186223</v>
+        <v>1139.648884186219</v>
       </c>
       <c r="K772" t="n">
-        <v>4.768405373164113</v>
+        <v>4.768405373164097</v>
       </c>
     </row>
     <row r="773">
@@ -26563,10 +26563,10 @@
         <v>17297.11830013123</v>
       </c>
       <c r="J776" t="n">
-        <v>1122.881699868769</v>
+        <v>1122.881699868773</v>
       </c>
       <c r="K776" t="n">
-        <v>6.095991855965086</v>
+        <v>6.095991855965107</v>
       </c>
     </row>
     <row r="777">
@@ -26801,7 +26801,7 @@
         <v>1101.963422706353</v>
       </c>
       <c r="K783" t="n">
-        <v>58.02861625625872</v>
+        <v>58.02861625625874</v>
       </c>
     </row>
     <row r="784">
@@ -27009,7 +27009,7 @@
         <v>1091.133614550555</v>
       </c>
       <c r="K789" t="n">
-        <v>54.58397271388471</v>
+        <v>54.58397271388468</v>
       </c>
     </row>
     <row r="790">
@@ -27074,10 +27074,10 @@
         <v>10987.04287554112</v>
       </c>
       <c r="J791" t="n">
-        <v>1087.042875541123</v>
+        <v>1087.042875541119</v>
       </c>
       <c r="K791" t="n">
-        <v>10.98023106607195</v>
+        <v>10.98023106607191</v>
       </c>
     </row>
     <row r="792">
@@ -27242,13 +27242,13 @@
         <v>1800</v>
       </c>
       <c r="I796" t="n">
-        <v>2877.10702460928</v>
+        <v>2877.107024609279</v>
       </c>
       <c r="J796" t="n">
-        <v>1077.10702460928</v>
+        <v>1077.107024609279</v>
       </c>
       <c r="K796" t="n">
-        <v>59.83927914495997</v>
+        <v>59.83927914495995</v>
       </c>
     </row>
     <row r="797">
@@ -27339,13 +27339,13 @@
         <v>25950</v>
       </c>
       <c r="I799" t="n">
-        <v>24880.4589221902</v>
+        <v>24880.45892219021</v>
       </c>
       <c r="J799" t="n">
-        <v>1069.541077809801</v>
+        <v>1069.541077809794</v>
       </c>
       <c r="K799" t="n">
-        <v>4.121545579228521</v>
+        <v>4.121545579228493</v>
       </c>
     </row>
     <row r="800">
@@ -27409,13 +27409,13 @@
         <v>26990</v>
       </c>
       <c r="I801" t="n">
-        <v>28055.52725808067</v>
+        <v>28055.52725808066</v>
       </c>
       <c r="J801" t="n">
-        <v>1065.527258080667</v>
+        <v>1065.527258080663</v>
       </c>
       <c r="K801" t="n">
-        <v>3.947859422307028</v>
+        <v>3.947859422307014</v>
       </c>
     </row>
     <row r="802">
@@ -27508,13 +27508,13 @@
         <v>28900</v>
       </c>
       <c r="I804" t="n">
-        <v>27860.01485804474</v>
+        <v>27860.01485804475</v>
       </c>
       <c r="J804" t="n">
-        <v>1039.985141955261</v>
+        <v>1039.985141955254</v>
       </c>
       <c r="K804" t="n">
-        <v>3.598564505035507</v>
+        <v>3.598564505035482</v>
       </c>
     </row>
     <row r="805">
@@ -27814,10 +27814,10 @@
         <v>14487.35889519141</v>
       </c>
       <c r="J813" t="n">
-        <v>1002.641104808592</v>
+        <v>1002.64110480859</v>
       </c>
       <c r="K813" t="n">
-        <v>6.472828307350498</v>
+        <v>6.472828307350485</v>
       </c>
     </row>
     <row r="814">
@@ -27844,13 +27844,13 @@
         <v>11950</v>
       </c>
       <c r="I814" t="n">
-        <v>12951.0398321477</v>
+        <v>12951.03983214769</v>
       </c>
       <c r="J814" t="n">
-        <v>1001.039832147697</v>
+        <v>1001.039832147693</v>
       </c>
       <c r="K814" t="n">
-        <v>8.376902361068593</v>
+        <v>8.376902361068563</v>
       </c>
     </row>
     <row r="815">
@@ -27880,10 +27880,10 @@
         <v>20903.10917958279</v>
       </c>
       <c r="J815" t="n">
-        <v>996.8908204172149</v>
+        <v>996.8908204172112</v>
       </c>
       <c r="K815" t="n">
-        <v>4.552012878617419</v>
+        <v>4.552012878617403</v>
       </c>
     </row>
     <row r="816">
@@ -27915,10 +27915,10 @@
         <v>13896.28711111112</v>
       </c>
       <c r="J816" t="n">
-        <v>996.2871111111162</v>
+        <v>996.2871111111181</v>
       </c>
       <c r="K816" t="n">
-        <v>7.723155900086172</v>
+        <v>7.723155900086186</v>
       </c>
     </row>
     <row r="817">
@@ -27945,13 +27945,13 @@
         <v>3900</v>
       </c>
       <c r="I817" t="n">
-        <v>2904.227535067915</v>
+        <v>2904.227535067914</v>
       </c>
       <c r="J817" t="n">
-        <v>995.7724649320853</v>
+        <v>995.7724649320858</v>
       </c>
       <c r="K817" t="n">
-        <v>25.5326273059509</v>
+        <v>25.53262730595091</v>
       </c>
     </row>
     <row r="818">
@@ -27983,10 +27983,10 @@
         <v>10406.47093259723</v>
       </c>
       <c r="J818" t="n">
-        <v>993.529067402771</v>
+        <v>993.5290674027692</v>
       </c>
       <c r="K818" t="n">
-        <v>8.715167257919044</v>
+        <v>8.715167257919029</v>
       </c>
     </row>
     <row r="819">
@@ -28114,13 +28114,13 @@
         <v>8750</v>
       </c>
       <c r="I822" t="n">
-        <v>9734.263165784008</v>
+        <v>9734.263165784012</v>
       </c>
       <c r="J822" t="n">
-        <v>984.2631657840084</v>
+        <v>984.263165784012</v>
       </c>
       <c r="K822" t="n">
-        <v>11.24872189467438</v>
+        <v>11.24872189467442</v>
       </c>
     </row>
     <row r="823">
@@ -28149,13 +28149,13 @@
         <v>18990</v>
       </c>
       <c r="I823" t="n">
-        <v>18008.53463325641</v>
+        <v>18008.5346332564</v>
       </c>
       <c r="J823" t="n">
-        <v>981.4653667435923</v>
+        <v>981.465366743596</v>
       </c>
       <c r="K823" t="n">
-        <v>5.168327365685057</v>
+        <v>5.168327365685076</v>
       </c>
     </row>
     <row r="824">
@@ -28287,13 +28287,13 @@
         <v>14990</v>
       </c>
       <c r="I827" t="n">
-        <v>14023.16648067845</v>
+        <v>14023.16648067844</v>
       </c>
       <c r="J827" t="n">
-        <v>966.8335193215535</v>
+        <v>966.8335193215571</v>
       </c>
       <c r="K827" t="n">
-        <v>6.449856699943652</v>
+        <v>6.449856699943677</v>
       </c>
     </row>
     <row r="828">
@@ -28353,13 +28353,13 @@
         <v>15980</v>
       </c>
       <c r="I829" t="n">
-        <v>16946.4205754107</v>
+        <v>16946.42057541071</v>
       </c>
       <c r="J829" t="n">
-        <v>966.4205754107024</v>
+        <v>966.4205754107061</v>
       </c>
       <c r="K829" t="n">
-        <v>6.047688206575109</v>
+        <v>6.047688206575132</v>
       </c>
     </row>
     <row r="830">
@@ -28594,13 +28594,13 @@
         <v>7990</v>
       </c>
       <c r="I836" t="n">
-        <v>8932.386902184371</v>
+        <v>8932.386902184369</v>
       </c>
       <c r="J836" t="n">
-        <v>942.3869021843711</v>
+        <v>942.3869021843693</v>
       </c>
       <c r="K836" t="n">
-        <v>11.79457950168174</v>
+        <v>11.79457950168172</v>
       </c>
     </row>
     <row r="837">
@@ -28700,10 +28700,10 @@
         <v>4926.206175686249</v>
       </c>
       <c r="J839" t="n">
-        <v>936.2061756862486</v>
+        <v>936.2061756862495</v>
       </c>
       <c r="K839" t="n">
-        <v>23.46381392697365</v>
+        <v>23.46381392697367</v>
       </c>
     </row>
     <row r="840">
@@ -28866,13 +28866,13 @@
         <v>2999</v>
       </c>
       <c r="I844" t="n">
-        <v>3917.595702253932</v>
+        <v>3917.595702253933</v>
       </c>
       <c r="J844" t="n">
-        <v>918.5957022539324</v>
+        <v>918.5957022539328</v>
       </c>
       <c r="K844" t="n">
-        <v>30.63006676405243</v>
+        <v>30.63006676405244</v>
       </c>
     </row>
     <row r="845">
@@ -29132,13 +29132,13 @@
         <v>5350</v>
       </c>
       <c r="I852" t="n">
-        <v>6257.188730921859</v>
+        <v>6257.188730921858</v>
       </c>
       <c r="J852" t="n">
-        <v>907.1887309218591</v>
+        <v>907.1887309218582</v>
       </c>
       <c r="K852" t="n">
-        <v>16.9567987088198</v>
+        <v>16.95679870881978</v>
       </c>
     </row>
     <row r="853">
@@ -29199,10 +29199,10 @@
         <v>3802.257331507623</v>
       </c>
       <c r="J854" t="n">
-        <v>897.7426684923771</v>
+        <v>897.7426684923767</v>
       </c>
       <c r="K854" t="n">
-        <v>19.10090784026334</v>
+        <v>19.10090784026333</v>
       </c>
     </row>
     <row r="855">
@@ -29394,13 +29394,13 @@
         <v>699</v>
       </c>
       <c r="I860" t="n">
-        <v>1577.651296479617</v>
+        <v>1577.651296479616</v>
       </c>
       <c r="J860" t="n">
-        <v>878.6512964796168</v>
+        <v>878.6512964796163</v>
       </c>
       <c r="K860" t="n">
-        <v>125.7011869069552</v>
+        <v>125.7011869069551</v>
       </c>
     </row>
     <row r="861">
@@ -29529,10 +29529,10 @@
         <v>10932.11582407272</v>
       </c>
       <c r="J864" t="n">
-        <v>867.8841759272782</v>
+        <v>867.8841759272764</v>
       </c>
       <c r="K864" t="n">
-        <v>7.35495064345151</v>
+        <v>7.354950643451494</v>
       </c>
     </row>
     <row r="865">
@@ -29735,10 +29735,10 @@
         <v>11643.38179220779</v>
       </c>
       <c r="J870" t="n">
-        <v>846.6182077922113</v>
+        <v>846.6182077922094</v>
       </c>
       <c r="K870" t="n">
-        <v>6.778368357023309</v>
+        <v>6.778368357023294</v>
       </c>
     </row>
     <row r="871">
@@ -29798,13 +29798,13 @@
         <v>23900</v>
       </c>
       <c r="I872" t="n">
-        <v>23060.97289673594</v>
+        <v>23060.97289673595</v>
       </c>
       <c r="J872" t="n">
-        <v>839.0271032640558</v>
+        <v>839.0271032640521</v>
       </c>
       <c r="K872" t="n">
-        <v>3.510573653824501</v>
+        <v>3.510573653824486</v>
       </c>
     </row>
     <row r="873">
@@ -29836,10 +29836,10 @@
         <v>3338.011971572574</v>
       </c>
       <c r="J873" t="n">
-        <v>838.0119715725737</v>
+        <v>838.0119715725741</v>
       </c>
       <c r="K873" t="n">
-        <v>33.52047886290295</v>
+        <v>33.52047886290296</v>
       </c>
     </row>
     <row r="874">
@@ -29869,10 +29869,10 @@
         <v>13821.39065186154</v>
       </c>
       <c r="J874" t="n">
-        <v>831.3906518615386</v>
+        <v>831.3906518615404</v>
       </c>
       <c r="K874" t="n">
-        <v>6.400235965061883</v>
+        <v>6.400235965061897</v>
       </c>
     </row>
     <row r="875">
@@ -29904,10 +29904,10 @@
         <v>22730.5810194939</v>
       </c>
       <c r="J875" t="n">
-        <v>830.5810194939004</v>
+        <v>830.581019493904</v>
       </c>
       <c r="K875" t="n">
-        <v>3.792607394949317</v>
+        <v>3.792607394949334</v>
       </c>
     </row>
     <row r="876">
@@ -29972,10 +29972,10 @@
         <v>12112.85054054321</v>
       </c>
       <c r="J877" t="n">
-        <v>822.8505405432079</v>
+        <v>822.8505405432097</v>
       </c>
       <c r="K877" t="n">
-        <v>7.288313025183418</v>
+        <v>7.288313025183434</v>
       </c>
     </row>
     <row r="878">
@@ -30004,13 +30004,13 @@
         <v>4950</v>
       </c>
       <c r="I878" t="n">
-        <v>5770.688074037818</v>
+        <v>5770.688074037819</v>
       </c>
       <c r="J878" t="n">
-        <v>820.6880740378183</v>
+        <v>820.6880740378192</v>
       </c>
       <c r="K878" t="n">
-        <v>16.57955705126906</v>
+        <v>16.57955705126907</v>
       </c>
     </row>
     <row r="879">
@@ -30075,10 +30075,10 @@
         <v>17081.32298677837</v>
       </c>
       <c r="J880" t="n">
-        <v>818.6770132216297</v>
+        <v>818.6770132216334</v>
       </c>
       <c r="K880" t="n">
-        <v>4.573614599003518</v>
+        <v>4.573614599003538</v>
       </c>
     </row>
     <row r="881">
@@ -30108,10 +30108,10 @@
         <v>23174.52160773027</v>
       </c>
       <c r="J881" t="n">
-        <v>815.4783922697279</v>
+        <v>815.4783922697316</v>
       </c>
       <c r="K881" t="n">
-        <v>3.399242985701242</v>
+        <v>3.399242985701257</v>
       </c>
     </row>
     <row r="882">
@@ -30171,13 +30171,13 @@
         <v>7950</v>
       </c>
       <c r="I883" t="n">
-        <v>7142.977289928025</v>
+        <v>7142.977289928027</v>
       </c>
       <c r="J883" t="n">
-        <v>807.0227100719749</v>
+        <v>807.0227100719731</v>
       </c>
       <c r="K883" t="n">
-        <v>10.15122905750912</v>
+        <v>10.15122905750909</v>
       </c>
     </row>
     <row r="884">
@@ -30341,10 +30341,10 @@
         <v>3691.295519835682</v>
       </c>
       <c r="J888" t="n">
-        <v>791.2955198356822</v>
+        <v>791.2955198356817</v>
       </c>
       <c r="K888" t="n">
-        <v>27.28605240812697</v>
+        <v>27.28605240812696</v>
       </c>
     </row>
     <row r="889">
@@ -30371,13 +30371,13 @@
         <v>6899</v>
       </c>
       <c r="I889" t="n">
-        <v>7689.818750000001</v>
+        <v>7689.81875</v>
       </c>
       <c r="J889" t="n">
-        <v>790.8187500000013</v>
+        <v>790.8187500000004</v>
       </c>
       <c r="K889" t="n">
-        <v>11.46280258008409</v>
+        <v>11.46280258008407</v>
       </c>
     </row>
     <row r="890">
@@ -30474,13 +30474,13 @@
         <v>23490</v>
       </c>
       <c r="I892" t="n">
-        <v>24277.81003426603</v>
+        <v>24277.81003426602</v>
       </c>
       <c r="J892" t="n">
-        <v>787.8100342660255</v>
+        <v>787.8100342660218</v>
       </c>
       <c r="K892" t="n">
-        <v>3.353810277846</v>
+        <v>3.353810277845985</v>
       </c>
     </row>
     <row r="893">
@@ -30540,13 +30540,13 @@
         <v>5450</v>
       </c>
       <c r="I894" t="n">
-        <v>6232.27504311089</v>
+        <v>6232.275043110892</v>
       </c>
       <c r="J894" t="n">
-        <v>782.2750431108898</v>
+        <v>782.2750431108916</v>
       </c>
       <c r="K894" t="n">
-        <v>14.35367051579614</v>
+        <v>14.35367051579617</v>
       </c>
     </row>
     <row r="895">
@@ -30738,13 +30738,13 @@
         <v>4950</v>
       </c>
       <c r="I900" t="n">
-        <v>5716.916081073928</v>
+        <v>5716.916081073929</v>
       </c>
       <c r="J900" t="n">
-        <v>766.9160810739277</v>
+        <v>766.9160810739295</v>
       </c>
       <c r="K900" t="n">
-        <v>15.49325416310965</v>
+        <v>15.49325416310969</v>
       </c>
     </row>
     <row r="901">
@@ -30774,10 +30774,10 @@
         <v>12742.87263824084</v>
       </c>
       <c r="J901" t="n">
-        <v>757.1273617591614</v>
+        <v>757.1273617591633</v>
       </c>
       <c r="K901" t="n">
-        <v>5.608350827845641</v>
+        <v>5.608350827845654</v>
       </c>
     </row>
     <row r="902">
@@ -30873,10 +30873,10 @@
         <v>14723.94505093785</v>
       </c>
       <c r="J904" t="n">
-        <v>743.945050937853</v>
+        <v>743.9450509378494</v>
       </c>
       <c r="K904" t="n">
-        <v>5.321495357209248</v>
+        <v>5.321495357209224</v>
       </c>
     </row>
     <row r="905">
@@ -30941,10 +30941,10 @@
         <v>11211.61082545028</v>
       </c>
       <c r="J906" t="n">
-        <v>738.3891745497167</v>
+        <v>738.3891745497185</v>
       </c>
       <c r="K906" t="n">
-        <v>6.17898890836583</v>
+        <v>6.178988908365845</v>
       </c>
     </row>
     <row r="907">
@@ -31037,13 +31037,13 @@
         <v>19500</v>
       </c>
       <c r="I909" t="n">
-        <v>18765.33071866249</v>
+        <v>18765.33071866248</v>
       </c>
       <c r="J909" t="n">
-        <v>734.6692813375121</v>
+        <v>734.6692813375157</v>
       </c>
       <c r="K909" t="n">
-        <v>3.767534776089806</v>
+        <v>3.767534776089824</v>
       </c>
     </row>
     <row r="910">
@@ -31278,13 +31278,13 @@
         <v>32175</v>
       </c>
       <c r="I916" t="n">
-        <v>32896.11314034576</v>
+        <v>32896.11314034575</v>
       </c>
       <c r="J916" t="n">
-        <v>721.1131403457621</v>
+        <v>721.1131403457548</v>
       </c>
       <c r="K916" t="n">
-        <v>2.24122188141651</v>
+        <v>2.241221881416487</v>
       </c>
     </row>
     <row r="917">
@@ -31480,13 +31480,13 @@
         <v>6890</v>
       </c>
       <c r="I922" t="n">
-        <v>7603.266867981668</v>
+        <v>7603.266867981667</v>
       </c>
       <c r="J922" t="n">
-        <v>713.2668679816679</v>
+        <v>713.266867981667</v>
       </c>
       <c r="K922" t="n">
-        <v>10.3522041797049</v>
+        <v>10.35220417970489</v>
       </c>
     </row>
     <row r="923">
@@ -31513,13 +31513,13 @@
         <v>6950</v>
       </c>
       <c r="I923" t="n">
-        <v>6238.000676587304</v>
+        <v>6238.000676587306</v>
       </c>
       <c r="J923" t="n">
-        <v>711.999323412696</v>
+        <v>711.9993234126941</v>
       </c>
       <c r="K923" t="n">
-        <v>10.24459458147764</v>
+        <v>10.24459458147761</v>
       </c>
     </row>
     <row r="924">
@@ -31579,13 +31579,13 @@
         <v>9900</v>
       </c>
       <c r="I925" t="n">
-        <v>9191.795803394043</v>
+        <v>9191.795803394045</v>
       </c>
       <c r="J925" t="n">
-        <v>708.2041966059569</v>
+        <v>708.2041966059551</v>
       </c>
       <c r="K925" t="n">
-        <v>7.153577743494513</v>
+        <v>7.153577743494496</v>
       </c>
     </row>
     <row r="926">
@@ -31918,10 +31918,10 @@
         <v>13546.08400387845</v>
       </c>
       <c r="J935" t="n">
-        <v>696.0840038784499</v>
+        <v>696.0840038784481</v>
       </c>
       <c r="K935" t="n">
-        <v>5.416996139131907</v>
+        <v>5.416996139131892</v>
       </c>
     </row>
     <row r="936">
@@ -32055,13 +32055,13 @@
         <v>7500</v>
       </c>
       <c r="I939" t="n">
-        <v>6815.141759716385</v>
+        <v>6815.141759716386</v>
       </c>
       <c r="J939" t="n">
-        <v>684.8582402836146</v>
+        <v>684.8582402836137</v>
       </c>
       <c r="K939" t="n">
-        <v>9.131443203781528</v>
+        <v>9.131443203781515</v>
       </c>
     </row>
     <row r="940">
@@ -32154,13 +32154,13 @@
         <v>7300</v>
       </c>
       <c r="I942" t="n">
-        <v>6623.651448444696</v>
+        <v>6623.651448444695</v>
       </c>
       <c r="J942" t="n">
-        <v>676.3485515553039</v>
+        <v>676.3485515553048</v>
       </c>
       <c r="K942" t="n">
-        <v>9.265048651442518</v>
+        <v>9.26504865144253</v>
       </c>
     </row>
     <row r="943">
@@ -32225,10 +32225,10 @@
         <v>2461.448170152239</v>
       </c>
       <c r="J944" t="n">
-        <v>671.4481701522391</v>
+        <v>671.4481701522386</v>
       </c>
       <c r="K944" t="n">
-        <v>37.51107095822564</v>
+        <v>37.51107095822562</v>
       </c>
     </row>
     <row r="945">
@@ -32257,13 +32257,13 @@
         <v>6889</v>
       </c>
       <c r="I945" t="n">
-        <v>7551.450910714285</v>
+        <v>7551.450910714286</v>
       </c>
       <c r="J945" t="n">
-        <v>662.4509107142849</v>
+        <v>662.4509107142858</v>
       </c>
       <c r="K945" t="n">
-        <v>9.61606779959769</v>
+        <v>9.616067799597705</v>
       </c>
     </row>
     <row r="946">
@@ -32396,10 +32396,10 @@
         <v>12096.82106432819</v>
       </c>
       <c r="J949" t="n">
-        <v>646.8210643281855</v>
+        <v>646.8210643281873</v>
       </c>
       <c r="K949" t="n">
-        <v>5.649092264874982</v>
+        <v>5.649092264874998</v>
       </c>
     </row>
     <row r="950">
@@ -32701,10 +32701,10 @@
         <v>11321.4929876217</v>
       </c>
       <c r="J958" t="n">
-        <v>628.5070123783007</v>
+        <v>628.5070123783025</v>
       </c>
       <c r="K958" t="n">
-        <v>5.259472906931387</v>
+        <v>5.259472906931402</v>
       </c>
     </row>
     <row r="959">
@@ -32800,10 +32800,10 @@
         <v>11416.89088782876</v>
       </c>
       <c r="J961" t="n">
-        <v>626.8908878287602</v>
+        <v>626.8908878287584</v>
       </c>
       <c r="K961" t="n">
-        <v>5.809924817690086</v>
+        <v>5.809924817690069</v>
       </c>
     </row>
     <row r="962">
@@ -32835,10 +32835,10 @@
         <v>14523.55762483054</v>
       </c>
       <c r="J962" t="n">
-        <v>623.5576248305406</v>
+        <v>623.5576248305388</v>
       </c>
       <c r="K962" t="n">
-        <v>4.486026077917558</v>
+        <v>4.486026077917545</v>
       </c>
     </row>
     <row r="963">
@@ -32971,10 +32971,10 @@
         <v>10517.04893783773</v>
       </c>
       <c r="J966" t="n">
-        <v>617.048937837726</v>
+        <v>617.0489378377279</v>
       </c>
       <c r="K966" t="n">
-        <v>6.232817553916425</v>
+        <v>6.232817553916443</v>
       </c>
     </row>
     <row r="967">
@@ -33172,13 +33172,13 @@
         <v>4900</v>
       </c>
       <c r="I972" t="n">
-        <v>5502.280410775449</v>
+        <v>5502.28041077545</v>
       </c>
       <c r="J972" t="n">
-        <v>602.2804107754491</v>
+        <v>602.28041077545</v>
       </c>
       <c r="K972" t="n">
-        <v>12.291436954601</v>
+        <v>12.29143695460102</v>
       </c>
     </row>
     <row r="973">
@@ -33276,10 +33276,10 @@
         <v>16079.82855186496</v>
       </c>
       <c r="J975" t="n">
-        <v>598.1714481350391</v>
+        <v>598.1714481350409</v>
       </c>
       <c r="K975" t="n">
-        <v>3.586589807740971</v>
+        <v>3.586589807740982</v>
       </c>
     </row>
     <row r="976">
@@ -33346,10 +33346,10 @@
         <v>14658.81861588016</v>
       </c>
       <c r="J977" t="n">
-        <v>591.1813841198382</v>
+        <v>591.18138411984</v>
       </c>
       <c r="K977" t="n">
-        <v>3.876599240130087</v>
+        <v>3.876599240130099</v>
       </c>
     </row>
     <row r="978">
@@ -33413,13 +33413,13 @@
         <v>5299</v>
       </c>
       <c r="I979" t="n">
-        <v>4713.492767391857</v>
+        <v>4713.492767391858</v>
       </c>
       <c r="J979" t="n">
-        <v>585.5072326081427</v>
+        <v>585.5072326081417</v>
       </c>
       <c r="K979" t="n">
-        <v>11.04939106639258</v>
+        <v>11.04939106639256</v>
       </c>
     </row>
     <row r="980">
@@ -33991,10 +33991,10 @@
         <v>15483.89153653583</v>
       </c>
       <c r="J996" t="n">
-        <v>515.108463464172</v>
+        <v>515.1084634641738</v>
       </c>
       <c r="K996" t="n">
-        <v>3.219629123471292</v>
+        <v>3.219629123471303</v>
       </c>
     </row>
     <row r="997">
@@ -34059,10 +34059,10 @@
         <v>14461.61167991031</v>
       </c>
       <c r="J998" t="n">
-        <v>511.6116799103092</v>
+        <v>511.6116799103111</v>
       </c>
       <c r="K998" t="n">
-        <v>3.667467239500425</v>
+        <v>3.667467239500438</v>
       </c>
     </row>
     <row r="999">
@@ -34127,10 +34127,10 @@
         <v>11937.70745833333</v>
       </c>
       <c r="J1000" t="n">
-        <v>487.7074583333342</v>
+        <v>487.7074583333306</v>
       </c>
       <c r="K1000" t="n">
-        <v>4.259453784570605</v>
+        <v>4.259453784570573</v>
       </c>
     </row>
     <row r="1001">
@@ -34258,13 +34258,13 @@
         <v>8490</v>
       </c>
       <c r="I1004" t="n">
-        <v>8967.107460393039</v>
+        <v>8967.107460393037</v>
       </c>
       <c r="J1004" t="n">
-        <v>477.1074603930392</v>
+        <v>477.1074603930374</v>
       </c>
       <c r="K1004" t="n">
-        <v>5.619640287314949</v>
+        <v>5.619640287314928</v>
       </c>
     </row>
     <row r="1005">
@@ -34291,13 +34291,13 @@
         <v>7499</v>
       </c>
       <c r="I1005" t="n">
-        <v>7022.074204030038</v>
+        <v>7022.074204030037</v>
       </c>
       <c r="J1005" t="n">
-        <v>476.9257959699617</v>
+        <v>476.9257959699635</v>
       </c>
       <c r="K1005" t="n">
-        <v>6.359858594078699</v>
+        <v>6.359858594078724</v>
       </c>
     </row>
     <row r="1006">
@@ -34324,13 +34324,13 @@
         <v>7950</v>
       </c>
       <c r="I1006" t="n">
-        <v>7478.618532001997</v>
+        <v>7478.618532001998</v>
       </c>
       <c r="J1006" t="n">
-        <v>471.3814679980032</v>
+        <v>471.3814679980023</v>
       </c>
       <c r="K1006" t="n">
-        <v>5.929326641484317</v>
+        <v>5.929326641484306</v>
       </c>
     </row>
     <row r="1007">
@@ -34393,10 +34393,10 @@
         <v>2418.46274404762</v>
       </c>
       <c r="J1008" t="n">
-        <v>469.4627440476202</v>
+        <v>469.4627440476197</v>
       </c>
       <c r="K1008" t="n">
-        <v>24.08736501013957</v>
+        <v>24.08736501013954</v>
       </c>
     </row>
     <row r="1009">
@@ -34764,10 +34764,10 @@
         <v>23441.45596957997</v>
       </c>
       <c r="J1019" t="n">
-        <v>438.544030420031</v>
+        <v>438.5440304200274</v>
       </c>
       <c r="K1019" t="n">
-        <v>1.836449038609845</v>
+        <v>1.83644903860983</v>
       </c>
     </row>
     <row r="1020">
@@ -34832,10 +34832,10 @@
         <v>11319.68337962971</v>
       </c>
       <c r="J1021" t="n">
-        <v>429.3166203702876</v>
+        <v>429.3166203702895</v>
       </c>
       <c r="K1021" t="n">
-        <v>3.654069455871033</v>
+        <v>3.654069455871048</v>
       </c>
     </row>
     <row r="1022">
@@ -34862,13 +34862,13 @@
         <v>2500</v>
       </c>
       <c r="I1022" t="n">
-        <v>2927.483108526417</v>
+        <v>2927.483108526418</v>
       </c>
       <c r="J1022" t="n">
-        <v>427.4831085264173</v>
+        <v>427.4831085264177</v>
       </c>
       <c r="K1022" t="n">
-        <v>17.09932434105669</v>
+        <v>17.09932434105671</v>
       </c>
     </row>
     <row r="1023">
@@ -34895,13 +34895,13 @@
         <v>4950</v>
       </c>
       <c r="I1023" t="n">
-        <v>4527.941706100053</v>
+        <v>4527.941706100052</v>
       </c>
       <c r="J1023" t="n">
-        <v>422.0582938999469</v>
+        <v>422.0582938999478</v>
       </c>
       <c r="K1023" t="n">
-        <v>8.526430179796906</v>
+        <v>8.526430179796924</v>
       </c>
     </row>
     <row r="1024">
@@ -34963,13 +34963,13 @@
         <v>6950</v>
       </c>
       <c r="I1025" t="n">
-        <v>6529.84656993252</v>
+        <v>6529.846569932521</v>
       </c>
       <c r="J1025" t="n">
-        <v>420.1534300674803</v>
+        <v>420.1534300674793</v>
       </c>
       <c r="K1025" t="n">
-        <v>6.045373094496118</v>
+        <v>6.045373094496106</v>
       </c>
     </row>
     <row r="1026">
@@ -35065,10 +35065,10 @@
         <v>18892.51755309937</v>
       </c>
       <c r="J1028" t="n">
-        <v>412.5175530993729</v>
+        <v>412.5175530993693</v>
       </c>
       <c r="K1028" t="n">
-        <v>2.232237841446823</v>
+        <v>2.232237841446803</v>
       </c>
     </row>
     <row r="1029">
@@ -35131,10 +35131,10 @@
         <v>17307.40294189144</v>
       </c>
       <c r="J1030" t="n">
-        <v>407.4029418914397</v>
+        <v>407.4029418914433</v>
       </c>
       <c r="K1030" t="n">
-        <v>2.410668295215619</v>
+        <v>2.410668295215641</v>
       </c>
     </row>
     <row r="1031">
@@ -35264,13 +35264,13 @@
         <v>4490</v>
       </c>
       <c r="I1034" t="n">
-        <v>4102.149005554198</v>
+        <v>4102.149005554199</v>
       </c>
       <c r="J1034" t="n">
-        <v>387.8509944458019</v>
+        <v>387.850994445801</v>
       </c>
       <c r="K1034" t="n">
-        <v>8.638106780530109</v>
+        <v>8.638106780530091</v>
       </c>
     </row>
     <row r="1035">
@@ -35365,13 +35365,13 @@
         <v>3900</v>
       </c>
       <c r="I1037" t="n">
-        <v>4283.388850087128</v>
+        <v>4283.388850087129</v>
       </c>
       <c r="J1037" t="n">
-        <v>383.388850087128</v>
+        <v>383.388850087129</v>
       </c>
       <c r="K1037" t="n">
-        <v>9.830483335567386</v>
+        <v>9.830483335567409</v>
       </c>
     </row>
     <row r="1038">
@@ -35398,13 +35398,13 @@
         <v>15250</v>
       </c>
       <c r="I1038" t="n">
-        <v>15632.21197770569</v>
+        <v>15632.2119777057</v>
       </c>
       <c r="J1038" t="n">
-        <v>382.2119777056942</v>
+        <v>382.2119777056978</v>
       </c>
       <c r="K1038" t="n">
-        <v>2.506308050529142</v>
+        <v>2.506308050529166</v>
       </c>
     </row>
     <row r="1039">
@@ -35466,13 +35466,13 @@
         <v>3499</v>
       </c>
       <c r="I1040" t="n">
-        <v>3126.845082680053</v>
+        <v>3126.845082680052</v>
       </c>
       <c r="J1040" t="n">
-        <v>372.1549173199473</v>
+        <v>372.1549173199478</v>
       </c>
       <c r="K1040" t="n">
-        <v>10.63603650528572</v>
+        <v>10.63603650528573</v>
       </c>
     </row>
     <row r="1041">
@@ -35504,10 +35504,10 @@
         <v>14870.49080704917</v>
       </c>
       <c r="J1041" t="n">
-        <v>371.4908070491674</v>
+        <v>371.4908070491729</v>
       </c>
       <c r="K1041" t="n">
-        <v>2.562182268081712</v>
+        <v>2.56218226808175</v>
       </c>
     </row>
     <row r="1042">
@@ -35603,10 +35603,10 @@
         <v>24360.55080901044</v>
       </c>
       <c r="J1044" t="n">
-        <v>361.5508090104449</v>
+        <v>361.5508090104413</v>
       </c>
       <c r="K1044" t="n">
-        <v>1.506524476063356</v>
+        <v>1.506524476063341</v>
       </c>
     </row>
     <row r="1045">
@@ -35633,13 +35633,13 @@
         <v>9450</v>
       </c>
       <c r="I1045" t="n">
-        <v>9811.524740961528</v>
+        <v>9811.524740961529</v>
       </c>
       <c r="J1045" t="n">
-        <v>361.5247409615276</v>
+        <v>361.5247409615295</v>
       </c>
       <c r="K1045" t="n">
-        <v>3.82565863451352</v>
+        <v>3.825658634513539</v>
       </c>
     </row>
     <row r="1046">
@@ -35734,13 +35734,13 @@
         <v>19989</v>
       </c>
       <c r="I1048" t="n">
-        <v>19634.5515672219</v>
+        <v>19634.55156722189</v>
       </c>
       <c r="J1048" t="n">
-        <v>354.4484327781029</v>
+        <v>354.4484327781065</v>
       </c>
       <c r="K1048" t="n">
-        <v>1.773217433478928</v>
+        <v>1.773217433478946</v>
       </c>
     </row>
     <row r="1049">
@@ -35800,13 +35800,13 @@
         <v>5499</v>
       </c>
       <c r="I1050" t="n">
-        <v>5848.910814724788</v>
+        <v>5848.910814724789</v>
       </c>
       <c r="J1050" t="n">
-        <v>349.910814724788</v>
+        <v>349.9108147247889</v>
       </c>
       <c r="K1050" t="n">
-        <v>6.363171753496781</v>
+        <v>6.363171753496799</v>
       </c>
     </row>
     <row r="1051">
@@ -35833,13 +35833,13 @@
         <v>14556</v>
       </c>
       <c r="I1051" t="n">
-        <v>14903.8793729988</v>
+        <v>14903.87937299881</v>
       </c>
       <c r="J1051" t="n">
-        <v>347.8793729988047</v>
+        <v>347.8793729988065</v>
       </c>
       <c r="K1051" t="n">
-        <v>2.389937984328144</v>
+        <v>2.389937984328157</v>
       </c>
     </row>
     <row r="1052">
@@ -35866,13 +35866,13 @@
         <v>7800</v>
       </c>
       <c r="I1052" t="n">
-        <v>8139.610494928929</v>
+        <v>8139.610494928927</v>
       </c>
       <c r="J1052" t="n">
-        <v>339.6104949289293</v>
+        <v>339.6104949289265</v>
       </c>
       <c r="K1052" t="n">
-        <v>4.353980704217042</v>
+        <v>4.353980704217006</v>
       </c>
     </row>
     <row r="1053">
@@ -35974,10 +35974,10 @@
         <v>26834.00480952381</v>
       </c>
       <c r="J1055" t="n">
-        <v>334.0048095238053</v>
+        <v>334.0048095238126</v>
       </c>
       <c r="K1055" t="n">
-        <v>1.260395507637001</v>
+        <v>1.260395507637029</v>
       </c>
     </row>
     <row r="1056">
@@ -36173,13 +36173,13 @@
         <v>12450</v>
       </c>
       <c r="I1061" t="n">
-        <v>12776.06237521878</v>
+        <v>12776.06237521877</v>
       </c>
       <c r="J1061" t="n">
-        <v>326.0623752187767</v>
+        <v>326.0623752187748</v>
       </c>
       <c r="K1061" t="n">
-        <v>2.618974901355636</v>
+        <v>2.618974901355621</v>
       </c>
     </row>
     <row r="1062">
@@ -36209,10 +36209,10 @@
         <v>28323.9758154762</v>
       </c>
       <c r="J1062" t="n">
-        <v>323.9758154761985</v>
+        <v>323.9758154762021</v>
       </c>
       <c r="K1062" t="n">
-        <v>1.157056483843566</v>
+        <v>1.157056483843579</v>
       </c>
     </row>
     <row r="1063">
@@ -36242,10 +36242,10 @@
         <v>7576.686604700853</v>
       </c>
       <c r="J1063" t="n">
-        <v>323.3133952991475</v>
+        <v>323.3133952991466</v>
       </c>
       <c r="K1063" t="n">
-        <v>4.092574624039842</v>
+        <v>4.09257462403983</v>
       </c>
     </row>
     <row r="1064">
@@ -36272,13 +36272,13 @@
         <v>8400</v>
       </c>
       <c r="I1064" t="n">
-        <v>8721.131717000624</v>
+        <v>8721.131717000626</v>
       </c>
       <c r="J1064" t="n">
-        <v>321.1317170006241</v>
+        <v>321.1317170006259</v>
       </c>
       <c r="K1064" t="n">
-        <v>3.822996630959811</v>
+        <v>3.822996630959833</v>
       </c>
     </row>
     <row r="1065">
@@ -36308,10 +36308,10 @@
         <v>10671.23296818007</v>
       </c>
       <c r="J1065" t="n">
-        <v>318.7670318199271</v>
+        <v>318.7670318199253</v>
       </c>
       <c r="K1065" t="n">
-        <v>2.900518942856479</v>
+        <v>2.900518942856463</v>
       </c>
     </row>
     <row r="1066">
@@ -36338,13 +36338,13 @@
         <v>2450</v>
       </c>
       <c r="I1066" t="n">
-        <v>2768.63093712494</v>
+        <v>2768.630937124941</v>
       </c>
       <c r="J1066" t="n">
-        <v>318.6309371249399</v>
+        <v>318.6309371249408</v>
       </c>
       <c r="K1066" t="n">
-        <v>13.00534437244653</v>
+        <v>13.00534437244657</v>
       </c>
     </row>
     <row r="1067">
@@ -36371,13 +36371,13 @@
         <v>5900</v>
       </c>
       <c r="I1067" t="n">
-        <v>6212.804492786214</v>
+        <v>6212.804492786215</v>
       </c>
       <c r="J1067" t="n">
-        <v>312.8044927862138</v>
+        <v>312.8044927862147</v>
       </c>
       <c r="K1067" t="n">
-        <v>5.301771064173115</v>
+        <v>5.301771064173131</v>
       </c>
     </row>
     <row r="1068">
@@ -36503,13 +36503,13 @@
         <v>6999</v>
       </c>
       <c r="I1071" t="n">
-        <v>6701.676891478856</v>
+        <v>6701.676891478858</v>
       </c>
       <c r="J1071" t="n">
-        <v>297.3231085211437</v>
+        <v>297.3231085211419</v>
       </c>
       <c r="K1071" t="n">
-        <v>4.248079847423114</v>
+        <v>4.248079847423087</v>
       </c>
     </row>
     <row r="1072">
@@ -36574,10 +36574,10 @@
         <v>25657.54683439945</v>
       </c>
       <c r="J1073" t="n">
-        <v>292.4531656005529</v>
+        <v>292.4531656005456</v>
       </c>
       <c r="K1073" t="n">
-        <v>1.126987150676504</v>
+        <v>1.126987150676476</v>
       </c>
     </row>
     <row r="1074">
@@ -36607,10 +36607,10 @@
         <v>16190.94900287667</v>
       </c>
       <c r="J1074" t="n">
-        <v>290.9490028766704</v>
+        <v>290.9490028766722</v>
       </c>
       <c r="K1074" t="n">
-        <v>1.829867942620569</v>
+        <v>1.82986794262058</v>
       </c>
     </row>
     <row r="1075">
@@ -36738,13 +36738,13 @@
         <v>7600</v>
       </c>
       <c r="I1078" t="n">
-        <v>7316.807410455487</v>
+        <v>7316.807410455486</v>
       </c>
       <c r="J1078" t="n">
-        <v>283.1925895445129</v>
+        <v>283.1925895445138</v>
       </c>
       <c r="K1078" t="n">
-        <v>3.726218283480433</v>
+        <v>3.726218283480445</v>
       </c>
     </row>
     <row r="1079">
@@ -36872,13 +36872,13 @@
         <v>7990</v>
       </c>
       <c r="I1082" t="n">
-        <v>8267.646658748537</v>
+        <v>8267.646658748539</v>
       </c>
       <c r="J1082" t="n">
-        <v>277.6466587485374</v>
+        <v>277.6466587485393</v>
       </c>
       <c r="K1082" t="n">
-        <v>3.474926892972934</v>
+        <v>3.474926892972957</v>
       </c>
     </row>
     <row r="1083">
@@ -36938,13 +36938,13 @@
         <v>10500</v>
       </c>
       <c r="I1084" t="n">
-        <v>10223.54090153272</v>
+        <v>10223.54090153271</v>
       </c>
       <c r="J1084" t="n">
-        <v>276.4590984672832</v>
+        <v>276.459098467285</v>
       </c>
       <c r="K1084" t="n">
-        <v>2.632943794926506</v>
+        <v>2.632943794926524</v>
       </c>
     </row>
     <row r="1085">
@@ -37313,13 +37313,13 @@
         <v>2990</v>
       </c>
       <c r="I1095" t="n">
-        <v>2735.962593884687</v>
+        <v>2735.962593884688</v>
       </c>
       <c r="J1095" t="n">
-        <v>254.0374061153129</v>
+        <v>254.0374061153125</v>
       </c>
       <c r="K1095" t="n">
-        <v>8.496234318237891</v>
+        <v>8.496234318237876</v>
       </c>
     </row>
     <row r="1096">
@@ -37384,10 +37384,10 @@
         <v>15742.73763780925</v>
       </c>
       <c r="J1097" t="n">
-        <v>247.2623621907496</v>
+        <v>247.2623621907533</v>
       </c>
       <c r="K1097" t="n">
-        <v>1.546356236339898</v>
+        <v>1.54635623633992</v>
       </c>
     </row>
     <row r="1098">
@@ -37416,13 +37416,13 @@
         <v>9850</v>
       </c>
       <c r="I1098" t="n">
-        <v>9603.066822763634</v>
+        <v>9603.066822763636</v>
       </c>
       <c r="J1098" t="n">
-        <v>246.9331772363657</v>
+        <v>246.9331772363639</v>
       </c>
       <c r="K1098" t="n">
-        <v>2.506935809506251</v>
+        <v>2.506935809506233</v>
       </c>
     </row>
     <row r="1099">
@@ -37449,13 +37449,13 @@
         <v>6950</v>
       </c>
       <c r="I1099" t="n">
-        <v>6705.563185616171</v>
+        <v>6705.563185616172</v>
       </c>
       <c r="J1099" t="n">
-        <v>244.4368143838292</v>
+        <v>244.4368143838283</v>
       </c>
       <c r="K1099" t="n">
-        <v>3.517076465954377</v>
+        <v>3.517076465954364</v>
       </c>
     </row>
     <row r="1100">
@@ -37585,13 +37585,13 @@
         <v>9990</v>
       </c>
       <c r="I1103" t="n">
-        <v>10224.56104617605</v>
+        <v>10224.56104617604</v>
       </c>
       <c r="J1103" t="n">
-        <v>234.5610461760461</v>
+        <v>234.5610461760443</v>
       </c>
       <c r="K1103" t="n">
-        <v>2.347958420180642</v>
+        <v>2.347958420180624</v>
       </c>
     </row>
     <row r="1104">
@@ -37623,10 +37623,10 @@
         <v>21219.28659810746</v>
       </c>
       <c r="J1104" t="n">
-        <v>229.286598107461</v>
+        <v>229.2865981074574</v>
       </c>
       <c r="K1104" t="n">
-        <v>1.092361115328542</v>
+        <v>1.092361115328525</v>
       </c>
     </row>
     <row r="1105">
@@ -37893,10 +37893,10 @@
         <v>10114.24535714286</v>
       </c>
       <c r="J1112" t="n">
-        <v>214.2453571428596</v>
+        <v>214.2453571428578</v>
       </c>
       <c r="K1112" t="n">
-        <v>2.164094516594541</v>
+        <v>2.164094516594523</v>
       </c>
     </row>
     <row r="1113">
@@ -37956,13 +37956,13 @@
         <v>10400</v>
       </c>
       <c r="I1114" t="n">
-        <v>10192.37782318613</v>
+        <v>10192.37782318614</v>
       </c>
       <c r="J1114" t="n">
-        <v>207.6221768138657</v>
+        <v>207.6221768138639</v>
       </c>
       <c r="K1114" t="n">
-        <v>1.996367084748709</v>
+        <v>1.996367084748691</v>
       </c>
     </row>
     <row r="1115">
@@ -38027,10 +38027,10 @@
         <v>11796.20960679327</v>
       </c>
       <c r="J1116" t="n">
-        <v>202.7903932067293</v>
+        <v>202.7903932067256</v>
       </c>
       <c r="K1116" t="n">
-        <v>1.690060781787893</v>
+        <v>1.690060781787863</v>
       </c>
     </row>
     <row r="1117">
@@ -38090,13 +38090,13 @@
         <v>14990</v>
       </c>
       <c r="I1118" t="n">
-        <v>14794.90150688382</v>
+        <v>14794.90150688383</v>
       </c>
       <c r="J1118" t="n">
-        <v>195.0984931161765</v>
+        <v>195.0984931161729</v>
       </c>
       <c r="K1118" t="n">
-        <v>1.301524303643606</v>
+        <v>1.301524303643582</v>
       </c>
     </row>
     <row r="1119">
@@ -38196,10 +38196,10 @@
         <v>35289.99763333335</v>
       </c>
       <c r="J1121" t="n">
-        <v>180.0023666666457</v>
+        <v>180.002366666653</v>
       </c>
       <c r="K1121" t="n">
-        <v>0.507477774645181</v>
+        <v>0.5074777746452015</v>
       </c>
     </row>
     <row r="1122">
@@ -38332,10 +38332,10 @@
         <v>27225.75008802309</v>
       </c>
       <c r="J1125" t="n">
-        <v>174.2499119769091</v>
+        <v>174.2499119769127</v>
       </c>
       <c r="K1125" t="n">
-        <v>0.6359485838573323</v>
+        <v>0.6359485838573457</v>
       </c>
     </row>
     <row r="1126">
@@ -38465,13 +38465,13 @@
         <v>11790</v>
       </c>
       <c r="I1129" t="n">
-        <v>11627.66430212927</v>
+        <v>11627.66430212928</v>
       </c>
       <c r="J1129" t="n">
-        <v>162.3356978707252</v>
+        <v>162.3356978707234</v>
       </c>
       <c r="K1129" t="n">
-        <v>1.376893111710985</v>
+        <v>1.37689311171097</v>
       </c>
     </row>
     <row r="1130">
@@ -38705,10 +38705,10 @@
         <v>6836.657333971692</v>
       </c>
       <c r="J1136" t="n">
-        <v>154.3426660283085</v>
+        <v>154.3426660283076</v>
       </c>
       <c r="K1136" t="n">
-        <v>2.207733743789279</v>
+        <v>2.207733743789266</v>
       </c>
     </row>
     <row r="1137">
@@ -38735,13 +38735,13 @@
         <v>7699</v>
       </c>
       <c r="I1137" t="n">
-        <v>7848.836375741772</v>
+        <v>7848.836375741771</v>
       </c>
       <c r="J1137" t="n">
-        <v>149.8363757417719</v>
+        <v>149.836375741771</v>
       </c>
       <c r="K1137" t="n">
-        <v>1.946179708296817</v>
+        <v>1.946179708296805</v>
       </c>
     </row>
     <row r="1138">
@@ -38869,13 +38869,13 @@
         <v>6850</v>
       </c>
       <c r="I1141" t="n">
-        <v>6702.034946391774</v>
+        <v>6702.034946391772</v>
       </c>
       <c r="J1141" t="n">
-        <v>147.9650536082263</v>
+        <v>147.9650536082281</v>
       </c>
       <c r="K1141" t="n">
-        <v>2.160073775302574</v>
+        <v>2.1600737753026</v>
       </c>
     </row>
     <row r="1142">
@@ -39107,10 +39107,10 @@
         <v>15016.3329386387</v>
       </c>
       <c r="J1148" t="n">
-        <v>126.3329386386977</v>
+        <v>126.3329386386995</v>
       </c>
       <c r="K1148" t="n">
-        <v>0.8484414952229528</v>
+        <v>0.848441495222965</v>
       </c>
     </row>
     <row r="1149">
@@ -39304,13 +39304,13 @@
         <v>11500</v>
       </c>
       <c r="I1154" t="n">
-        <v>11385.86846675044</v>
+        <v>11385.86846675045</v>
       </c>
       <c r="J1154" t="n">
-        <v>114.131533249556</v>
+        <v>114.1315332495542</v>
       </c>
       <c r="K1154" t="n">
-        <v>0.9924481152135306</v>
+        <v>0.9924481152135147</v>
       </c>
     </row>
     <row r="1155">
@@ -39403,13 +39403,13 @@
         <v>3900</v>
       </c>
       <c r="I1157" t="n">
-        <v>3802.000166740938</v>
+        <v>3802.000166740937</v>
       </c>
       <c r="J1157" t="n">
-        <v>97.99983325906214</v>
+        <v>97.9998332590626</v>
       </c>
       <c r="K1157" t="n">
-        <v>2.51281623741185</v>
+        <v>2.512816237411862</v>
       </c>
     </row>
     <row r="1158">
@@ -39560,13 +39560,13 @@
         <v>9486</v>
       </c>
       <c r="I1162" t="n">
-        <v>9571.883185017457</v>
+        <v>9571.883185017456</v>
       </c>
       <c r="J1162" t="n">
-        <v>85.88318501745744</v>
+        <v>85.88318501745562</v>
       </c>
       <c r="K1162" t="n">
-        <v>0.9053677526613687</v>
+        <v>0.9053677526613495</v>
       </c>
     </row>
     <row r="1163">
@@ -39659,13 +39659,13 @@
         <v>5800</v>
       </c>
       <c r="I1165" t="n">
-        <v>5720.217258506125</v>
+        <v>5720.217258506126</v>
       </c>
       <c r="J1165" t="n">
-        <v>79.78274149387471</v>
+        <v>79.7827414938738</v>
       </c>
       <c r="K1165" t="n">
-        <v>1.375564508515081</v>
+        <v>1.375564508515066</v>
       </c>
     </row>
     <row r="1166">
@@ -39865,13 +39865,13 @@
         <v>7500</v>
       </c>
       <c r="I1171" t="n">
-        <v>7565.479895983888</v>
+        <v>7565.479895983889</v>
       </c>
       <c r="J1171" t="n">
-        <v>65.47989598388813</v>
+        <v>65.47989598388904</v>
       </c>
       <c r="K1171" t="n">
-        <v>0.873065279785175</v>
+        <v>0.8730652797851871</v>
       </c>
     </row>
     <row r="1172">
@@ -39934,10 +39934,10 @@
         <v>14438.52827719193</v>
       </c>
       <c r="J1173" t="n">
-        <v>60.47172280807354</v>
+        <v>60.4717228080699</v>
       </c>
       <c r="K1173" t="n">
-        <v>0.4170751279955413</v>
+        <v>0.4170751279955162</v>
       </c>
     </row>
     <row r="1174">
@@ -39997,13 +39997,13 @@
         <v>5450</v>
       </c>
       <c r="I1175" t="n">
-        <v>5508.725577999405</v>
+        <v>5508.725577999404</v>
       </c>
       <c r="J1175" t="n">
-        <v>58.72557799940478</v>
+        <v>58.72557799940387</v>
       </c>
       <c r="K1175" t="n">
-        <v>1.077533541273482</v>
+        <v>1.077533541273465</v>
       </c>
     </row>
     <row r="1176">
@@ -40200,10 +40200,10 @@
         <v>10941.60385639794</v>
       </c>
       <c r="J1181" t="n">
-        <v>41.60385639794004</v>
+        <v>41.60385639794185</v>
       </c>
       <c r="K1181" t="n">
-        <v>0.381686755944404</v>
+        <v>0.3816867559444207</v>
       </c>
     </row>
     <row r="1182">
@@ -40268,10 +40268,10 @@
         <v>14958.21873070219</v>
       </c>
       <c r="J1183" t="n">
-        <v>31.78126929780956</v>
+        <v>31.78126929780774</v>
       </c>
       <c r="K1183" t="n">
-        <v>0.2120164729673753</v>
+        <v>0.2120164729673632</v>
       </c>
     </row>
     <row r="1184">
@@ -40331,13 +40331,13 @@
         <v>8800</v>
       </c>
       <c r="I1185" t="n">
-        <v>8824.497318117314</v>
+        <v>8824.497318117312</v>
       </c>
       <c r="J1185" t="n">
-        <v>24.49731811731363</v>
+        <v>24.49731811731181</v>
       </c>
       <c r="K1185" t="n">
-        <v>0.278378614969473</v>
+        <v>0.2783786149694523</v>
       </c>
     </row>
     <row r="1186">
@@ -40366,13 +40366,13 @@
         <v>6990</v>
       </c>
       <c r="I1186" t="n">
-        <v>6971.590411604735</v>
+        <v>6971.590411604736</v>
       </c>
       <c r="J1186" t="n">
-        <v>18.40958839526502</v>
+        <v>18.40958839526411</v>
       </c>
       <c r="K1186" t="n">
-        <v>0.2633703633085124</v>
+        <v>0.2633703633084994</v>
       </c>
     </row>
     <row r="1187">
@@ -40399,13 +40399,13 @@
         <v>29900</v>
       </c>
       <c r="I1187" t="n">
-        <v>29883.76995614153</v>
+        <v>29883.76995614154</v>
       </c>
       <c r="J1187" t="n">
-        <v>16.23004385846798</v>
+        <v>16.2300438584607</v>
       </c>
       <c r="K1187" t="n">
-        <v>0.05428108313868889</v>
+        <v>0.05428108313866456</v>
       </c>
     </row>
     <row r="1188">
@@ -40503,10 +40503,10 @@
         <v>31742.26554312072</v>
       </c>
       <c r="J1190" t="n">
-        <v>7.734456879283243</v>
+        <v>7.734456879275967</v>
       </c>
       <c r="K1190" t="n">
-        <v>0.02436049410797872</v>
+        <v>0.0243604941079558</v>
       </c>
     </row>
     <row r="1191">

--- a/models/erreurs_rf.xlsx
+++ b/models/erreurs_rf.xlsx
@@ -547,10 +547,10 @@
         <v>47900</v>
       </c>
       <c r="I3" t="n">
-        <v>126722.3691210318</v>
+        <v>126722.3691210317</v>
       </c>
       <c r="J3" t="n">
-        <v>78822.36912103176</v>
+        <v>78822.36912103175</v>
       </c>
       <c r="K3" t="n">
         <v>164.5560941983962</v>
@@ -648,13 +648,13 @@
         <v>103000</v>
       </c>
       <c r="I6" t="n">
-        <v>49339.65869642857</v>
+        <v>49339.65869642858</v>
       </c>
       <c r="J6" t="n">
-        <v>53660.34130357143</v>
+        <v>53660.34130357142</v>
       </c>
       <c r="K6" t="n">
-        <v>52.09741874133148</v>
+        <v>52.09741874133147</v>
       </c>
     </row>
     <row r="7">
@@ -684,10 +684,10 @@
         <v>119389.5837400794</v>
       </c>
       <c r="J7" t="n">
-        <v>52489.58374007938</v>
+        <v>52489.58374007935</v>
       </c>
       <c r="K7" t="n">
-        <v>78.4597664276224</v>
+        <v>78.45976642762236</v>
       </c>
     </row>
     <row r="8">
@@ -716,13 +716,13 @@
         <v>74200</v>
       </c>
       <c r="I8" t="n">
-        <v>33244.25569642856</v>
+        <v>33244.25569642857</v>
       </c>
       <c r="J8" t="n">
-        <v>40955.74430357144</v>
+        <v>40955.74430357143</v>
       </c>
       <c r="K8" t="n">
-        <v>55.19642089430113</v>
+        <v>55.19642089430112</v>
       </c>
     </row>
     <row r="9">
@@ -920,13 +920,13 @@
         <v>40999</v>
       </c>
       <c r="I14" t="n">
-        <v>17524.0932819264</v>
+        <v>17524.09328192641</v>
       </c>
       <c r="J14" t="n">
-        <v>23474.9067180736</v>
+        <v>23474.90671807359</v>
       </c>
       <c r="K14" t="n">
-        <v>57.2572665627786</v>
+        <v>57.25726656277859</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +956,10 @@
         <v>103108.4618392857</v>
       </c>
       <c r="J15" t="n">
-        <v>23208.46183928574</v>
+        <v>23208.46183928572</v>
       </c>
       <c r="K15" t="n">
-        <v>29.04688590649028</v>
+        <v>29.04688590649026</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +986,10 @@
         <v>13999</v>
       </c>
       <c r="I16" t="n">
-        <v>36809.70552813851</v>
+        <v>36809.70552813852</v>
       </c>
       <c r="J16" t="n">
-        <v>22810.70552813851</v>
+        <v>22810.70552813852</v>
       </c>
       <c r="K16" t="n">
         <v>162.9452498616938</v>
@@ -1122,13 +1122,13 @@
         <v>44995</v>
       </c>
       <c r="I20" t="n">
-        <v>63392.91970400437</v>
+        <v>63392.91970400436</v>
       </c>
       <c r="J20" t="n">
-        <v>18397.91970400437</v>
+        <v>18397.91970400436</v>
       </c>
       <c r="K20" t="n">
-        <v>40.88880920992192</v>
+        <v>40.8888092099219</v>
       </c>
     </row>
     <row r="21">
@@ -1196,7 +1196,7 @@
         <v>17450.55035515872</v>
       </c>
       <c r="K22" t="n">
-        <v>56.47427299404118</v>
+        <v>56.47427299404116</v>
       </c>
     </row>
     <row r="23">
@@ -1297,7 +1297,7 @@
         <v>15758.98699404761</v>
       </c>
       <c r="K25" t="n">
-        <v>47.76898149150534</v>
+        <v>47.76898149150532</v>
       </c>
     </row>
     <row r="26">
@@ -1324,13 +1324,13 @@
         <v>19900</v>
       </c>
       <c r="I26" t="n">
-        <v>35543.7529484127</v>
+        <v>35543.75294841269</v>
       </c>
       <c r="J26" t="n">
-        <v>15643.7529484127</v>
+        <v>15643.75294841269</v>
       </c>
       <c r="K26" t="n">
-        <v>78.61182386137035</v>
+        <v>78.61182386137031</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1363,7 @@
         <v>15504.52539075276</v>
       </c>
       <c r="K27" t="n">
-        <v>37.00364055072258</v>
+        <v>37.00364055072257</v>
       </c>
     </row>
     <row r="28">
@@ -1561,13 +1561,13 @@
         <v>72490</v>
       </c>
       <c r="I33" t="n">
-        <v>57820.994765873</v>
+        <v>57820.99476587301</v>
       </c>
       <c r="J33" t="n">
-        <v>14669.005234127</v>
+        <v>14669.00523412699</v>
       </c>
       <c r="K33" t="n">
-        <v>20.23590182663402</v>
+        <v>20.23590182663401</v>
       </c>
     </row>
     <row r="34">
@@ -1767,7 +1767,7 @@
         <v>12584.12069538316</v>
       </c>
       <c r="K39" t="n">
-        <v>61.4159135938661</v>
+        <v>61.41591359386607</v>
       </c>
     </row>
     <row r="40">
@@ -1866,7 +1866,7 @@
         <v>12127.09250089609</v>
       </c>
       <c r="K42" t="n">
-        <v>30.47773938400626</v>
+        <v>30.47773938400627</v>
       </c>
     </row>
     <row r="43">
@@ -1932,7 +1932,7 @@
         <v>11769.0289321879</v>
       </c>
       <c r="K44" t="n">
-        <v>28.02216465198672</v>
+        <v>28.0221646519867</v>
       </c>
     </row>
     <row r="45">
@@ -1994,13 +1994,13 @@
         <v>18485</v>
       </c>
       <c r="I46" t="n">
-        <v>30068.55052289377</v>
+        <v>30068.55052289378</v>
       </c>
       <c r="J46" t="n">
-        <v>11583.55052289377</v>
+        <v>11583.55052289378</v>
       </c>
       <c r="K46" t="n">
-        <v>62.66459574191924</v>
+        <v>62.66459574191928</v>
       </c>
     </row>
     <row r="47">
@@ -2134,7 +2134,7 @@
         <v>11050.32687485445</v>
       </c>
       <c r="K50" t="n">
-        <v>35.87768465861835</v>
+        <v>35.87768465861836</v>
       </c>
     </row>
     <row r="51">
@@ -2169,7 +2169,7 @@
         <v>11038.10717658731</v>
       </c>
       <c r="K51" t="n">
-        <v>67.30553156455679</v>
+        <v>67.30553156455674</v>
       </c>
     </row>
     <row r="52">
@@ -2400,13 +2400,13 @@
         <v>23900</v>
       </c>
       <c r="I58" t="n">
-        <v>34638.61830058107</v>
+        <v>34638.61830058108</v>
       </c>
       <c r="J58" t="n">
-        <v>10738.61830058107</v>
+        <v>10738.61830058108</v>
       </c>
       <c r="K58" t="n">
-        <v>44.931457324607</v>
+        <v>44.93145732460703</v>
       </c>
     </row>
     <row r="59">
@@ -2435,10 +2435,10 @@
         <v>40990</v>
       </c>
       <c r="I59" t="n">
-        <v>30473.65071485929</v>
+        <v>30473.6507148593</v>
       </c>
       <c r="J59" t="n">
-        <v>10516.34928514071</v>
+        <v>10516.3492851407</v>
       </c>
       <c r="K59" t="n">
         <v>25.65588993691316</v>
@@ -2540,13 +2540,13 @@
         <v>32990</v>
       </c>
       <c r="I62" t="n">
-        <v>22766.19411544011</v>
+        <v>22766.19411544012</v>
       </c>
       <c r="J62" t="n">
-        <v>10223.80588455989</v>
+        <v>10223.80588455988</v>
       </c>
       <c r="K62" t="n">
-        <v>30.9906210504998</v>
+        <v>30.99062105049979</v>
       </c>
     </row>
     <row r="63">
@@ -2573,13 +2573,13 @@
         <v>18750</v>
       </c>
       <c r="I63" t="n">
-        <v>8552.634160357988</v>
+        <v>8552.634160357986</v>
       </c>
       <c r="J63" t="n">
         <v>10197.36583964201</v>
       </c>
       <c r="K63" t="n">
-        <v>54.3859511447574</v>
+        <v>54.38595114475741</v>
       </c>
     </row>
     <row r="64">
@@ -2612,7 +2612,7 @@
         <v>10196.31448412699</v>
       </c>
       <c r="K64" t="n">
-        <v>32.94447329281741</v>
+        <v>32.9444732928174</v>
       </c>
     </row>
     <row r="65">
@@ -2641,13 +2641,13 @@
         <v>24980</v>
       </c>
       <c r="I65" t="n">
-        <v>34898.81652579366</v>
+        <v>34898.81652579365</v>
       </c>
       <c r="J65" t="n">
-        <v>9918.816525793656</v>
+        <v>9918.816525793649</v>
       </c>
       <c r="K65" t="n">
-        <v>39.70703172855747</v>
+        <v>39.70703172855744</v>
       </c>
     </row>
     <row r="66">
@@ -2912,10 +2912,10 @@
         <v>39546.5568452381</v>
       </c>
       <c r="J73" t="n">
-        <v>9403.443154761895</v>
+        <v>9403.443154761902</v>
       </c>
       <c r="K73" t="n">
-        <v>19.21030266549927</v>
+        <v>19.21030266549929</v>
       </c>
     </row>
     <row r="74">
@@ -3008,13 +3008,13 @@
         <v>19899</v>
       </c>
       <c r="I76" t="n">
-        <v>10791.38568997641</v>
+        <v>10791.3856899764</v>
       </c>
       <c r="J76" t="n">
-        <v>9107.614310023593</v>
+        <v>9107.614310023597</v>
       </c>
       <c r="K76" t="n">
-        <v>45.76920604062312</v>
+        <v>45.76920604062313</v>
       </c>
     </row>
     <row r="77">
@@ -3046,10 +3046,10 @@
         <v>61086.25812103174</v>
       </c>
       <c r="J77" t="n">
-        <v>9096.258121031744</v>
+        <v>9096.258121031737</v>
       </c>
       <c r="K77" t="n">
-        <v>17.49616872673926</v>
+        <v>17.49616872673925</v>
       </c>
     </row>
     <row r="78">
@@ -3079,10 +3079,10 @@
         <v>48066.28322222221</v>
       </c>
       <c r="J78" t="n">
-        <v>9067.283222222213</v>
+        <v>9067.283222222206</v>
       </c>
       <c r="K78" t="n">
-        <v>23.25004031442399</v>
+        <v>23.25004031442397</v>
       </c>
     </row>
     <row r="79">
@@ -3149,10 +3149,10 @@
         <v>39489.42025280109</v>
       </c>
       <c r="J80" t="n">
-        <v>8994.420252801094</v>
+        <v>8994.420252801086</v>
       </c>
       <c r="K80" t="n">
-        <v>29.49473767109721</v>
+        <v>29.49473767109719</v>
       </c>
     </row>
     <row r="81">
@@ -3248,10 +3248,10 @@
         <v>13326.32551537842</v>
       </c>
       <c r="J83" t="n">
-        <v>8673.674484621577</v>
+        <v>8673.674484621575</v>
       </c>
       <c r="K83" t="n">
-        <v>39.42579311191626</v>
+        <v>39.42579311191625</v>
       </c>
     </row>
     <row r="84">
@@ -3278,13 +3278,13 @@
         <v>69990</v>
       </c>
       <c r="I84" t="n">
-        <v>61317.02242857144</v>
+        <v>61317.02242857142</v>
       </c>
       <c r="J84" t="n">
-        <v>8672.977571428564</v>
+        <v>8672.977571428579</v>
       </c>
       <c r="K84" t="n">
-        <v>12.39173820749902</v>
+        <v>12.39173820749904</v>
       </c>
     </row>
     <row r="85">
@@ -3344,13 +3344,13 @@
         <v>21990</v>
       </c>
       <c r="I86" t="n">
-        <v>13715.1114903474</v>
+        <v>13715.11149034739</v>
       </c>
       <c r="J86" t="n">
-        <v>8274.888509652605</v>
+        <v>8274.888509652608</v>
       </c>
       <c r="K86" t="n">
-        <v>37.63023424125786</v>
+        <v>37.63023424125788</v>
       </c>
     </row>
     <row r="87">
@@ -3379,13 +3379,13 @@
         <v>28490</v>
       </c>
       <c r="I87" t="n">
-        <v>20222.11317014534</v>
+        <v>20222.11317014535</v>
       </c>
       <c r="J87" t="n">
-        <v>8267.886829854659</v>
+        <v>8267.886829854655</v>
       </c>
       <c r="K87" t="n">
-        <v>29.02031179310164</v>
+        <v>29.02031179310163</v>
       </c>
     </row>
     <row r="88">
@@ -3452,10 +3452,10 @@
         <v>32072.31075595239</v>
       </c>
       <c r="J89" t="n">
-        <v>8172.310755952392</v>
+        <v>8172.310755952389</v>
       </c>
       <c r="K89" t="n">
-        <v>34.19376885335729</v>
+        <v>34.19376885335727</v>
       </c>
     </row>
     <row r="90">
@@ -3550,13 +3550,13 @@
         <v>22900</v>
       </c>
       <c r="I92" t="n">
-        <v>30967.18923800056</v>
+        <v>30967.18923800057</v>
       </c>
       <c r="J92" t="n">
-        <v>8067.189238000563</v>
+        <v>8067.189238000567</v>
       </c>
       <c r="K92" t="n">
-        <v>35.22790060262255</v>
+        <v>35.22790060262256</v>
       </c>
     </row>
     <row r="93">
@@ -3852,10 +3852,10 @@
         <v>23577.796792315</v>
       </c>
       <c r="J101" t="n">
-        <v>7587.796792315003</v>
+        <v>7587.796792314999</v>
       </c>
       <c r="K101" t="n">
-        <v>47.45338831966856</v>
+        <v>47.45338831966853</v>
       </c>
     </row>
     <row r="102">
@@ -4020,13 +4020,13 @@
         <v>19945</v>
       </c>
       <c r="I106" t="n">
-        <v>27325.32340476191</v>
+        <v>27325.32340476192</v>
       </c>
       <c r="J106" t="n">
-        <v>7380.323404761908</v>
+        <v>7380.323404761915</v>
       </c>
       <c r="K106" t="n">
-        <v>37.00337630865835</v>
+        <v>37.00337630865838</v>
       </c>
     </row>
     <row r="107">
@@ -4053,13 +4053,13 @@
         <v>11500</v>
       </c>
       <c r="I107" t="n">
-        <v>4156.314801902346</v>
+        <v>4156.314801902345</v>
       </c>
       <c r="J107" t="n">
-        <v>7343.685198097654</v>
+        <v>7343.685198097655</v>
       </c>
       <c r="K107" t="n">
-        <v>63.8581321573709</v>
+        <v>63.85813215737091</v>
       </c>
     </row>
     <row r="108">
@@ -4086,13 +4086,13 @@
         <v>8990</v>
       </c>
       <c r="I108" t="n">
-        <v>16330.56680952374</v>
+        <v>16330.56680952373</v>
       </c>
       <c r="J108" t="n">
-        <v>7340.566809523736</v>
+        <v>7340.566809523734</v>
       </c>
       <c r="K108" t="n">
-        <v>81.65257852640418</v>
+        <v>81.65257852640417</v>
       </c>
     </row>
     <row r="109">
@@ -4189,13 +4189,13 @@
         <v>24499</v>
       </c>
       <c r="I111" t="n">
-        <v>17274.22297542537</v>
+        <v>17274.22297542536</v>
       </c>
       <c r="J111" t="n">
-        <v>7224.777024574632</v>
+        <v>7224.777024574636</v>
       </c>
       <c r="K111" t="n">
-        <v>29.49008949171245</v>
+        <v>29.49008949171246</v>
       </c>
     </row>
     <row r="112">
@@ -4425,10 +4425,10 @@
         <v>19033.12888452475</v>
       </c>
       <c r="J118" t="n">
-        <v>7043.128884524755</v>
+        <v>7043.128884524751</v>
       </c>
       <c r="K118" t="n">
-        <v>58.74169211446834</v>
+        <v>58.74169211446831</v>
       </c>
     </row>
     <row r="119">
@@ -4457,13 +4457,13 @@
         <v>28990</v>
       </c>
       <c r="I119" t="n">
-        <v>21950.59399927924</v>
+        <v>21950.59399927923</v>
       </c>
       <c r="J119" t="n">
-        <v>7039.406000720759</v>
+        <v>7039.406000720766</v>
       </c>
       <c r="K119" t="n">
-        <v>24.28218696350727</v>
+        <v>24.2821869635073</v>
       </c>
     </row>
     <row r="120">
@@ -4490,13 +4490,13 @@
         <v>15490</v>
       </c>
       <c r="I120" t="n">
-        <v>22525.50584081619</v>
+        <v>22525.5058408162</v>
       </c>
       <c r="J120" t="n">
-        <v>7035.505840816189</v>
+        <v>7035.505840816197</v>
       </c>
       <c r="K120" t="n">
-        <v>45.41966327189277</v>
+        <v>45.41966327189281</v>
       </c>
     </row>
     <row r="121">
@@ -4695,10 +4695,10 @@
         <v>13858.89003580048</v>
       </c>
       <c r="J126" t="n">
-        <v>6891.109964199521</v>
+        <v>6891.109964199522</v>
       </c>
       <c r="K126" t="n">
-        <v>33.21016850216636</v>
+        <v>33.21016850216638</v>
       </c>
     </row>
     <row r="127">
@@ -4728,10 +4728,10 @@
         <v>13858.89003580048</v>
       </c>
       <c r="J127" t="n">
-        <v>6891.109964199521</v>
+        <v>6891.109964199522</v>
       </c>
       <c r="K127" t="n">
-        <v>33.21016850216636</v>
+        <v>33.21016850216638</v>
       </c>
     </row>
     <row r="128">
@@ -4758,13 +4758,13 @@
         <v>28890</v>
       </c>
       <c r="I128" t="n">
-        <v>35743.94145722776</v>
+        <v>35743.94145722777</v>
       </c>
       <c r="J128" t="n">
-        <v>6853.94145722776</v>
+        <v>6853.941457227767</v>
       </c>
       <c r="K128" t="n">
-        <v>23.72426949542319</v>
+        <v>23.72426949542322</v>
       </c>
     </row>
     <row r="129">
@@ -4829,10 +4829,10 @@
         <v>30836.37785567988</v>
       </c>
       <c r="J130" t="n">
-        <v>6836.377855679879</v>
+        <v>6836.377855679882</v>
       </c>
       <c r="K130" t="n">
-        <v>28.4849077319995</v>
+        <v>28.48490773199951</v>
       </c>
     </row>
     <row r="131">
@@ -4932,10 +4932,10 @@
         <v>19847.14148202501</v>
       </c>
       <c r="J133" t="n">
-        <v>6797.14148202501</v>
+        <v>6797.141482025007</v>
       </c>
       <c r="K133" t="n">
-        <v>52.08537534118781</v>
+        <v>52.08537534118779</v>
       </c>
     </row>
     <row r="134">
@@ -5027,10 +5027,10 @@
         <v>19974.01225518638</v>
       </c>
       <c r="J136" t="n">
-        <v>6742.012255186382</v>
+        <v>6742.012255186379</v>
       </c>
       <c r="K136" t="n">
-        <v>50.95232961900228</v>
+        <v>50.95232961900226</v>
       </c>
     </row>
     <row r="137">
@@ -5094,13 +5094,13 @@
         <v>25000</v>
       </c>
       <c r="I138" t="n">
-        <v>31646.72272967067</v>
+        <v>31646.72272967066</v>
       </c>
       <c r="J138" t="n">
-        <v>6646.722729670666</v>
+        <v>6646.722729670662</v>
       </c>
       <c r="K138" t="n">
-        <v>26.58689091868267</v>
+        <v>26.58689091868265</v>
       </c>
     </row>
     <row r="139">
@@ -5127,13 +5127,13 @@
         <v>15749</v>
       </c>
       <c r="I139" t="n">
-        <v>9108.362578926701</v>
+        <v>9108.362578926699</v>
       </c>
       <c r="J139" t="n">
-        <v>6640.637421073299</v>
+        <v>6640.637421073301</v>
       </c>
       <c r="K139" t="n">
-        <v>42.16545444836687</v>
+        <v>42.16545444836689</v>
       </c>
     </row>
     <row r="140">
@@ -5198,10 +5198,10 @@
         <v>15932.32054236146</v>
       </c>
       <c r="J141" t="n">
-        <v>6566.679457638536</v>
+        <v>6566.67945763854</v>
       </c>
       <c r="K141" t="n">
-        <v>29.18653921346965</v>
+        <v>29.18653921346966</v>
       </c>
     </row>
     <row r="142">
@@ -5332,10 +5332,10 @@
         <v>22958.83822194792</v>
       </c>
       <c r="J145" t="n">
-        <v>6474.838221947924</v>
+        <v>6474.838221947917</v>
       </c>
       <c r="K145" t="n">
-        <v>39.27953301351568</v>
+        <v>39.27953301351564</v>
       </c>
     </row>
     <row r="146">
@@ -5362,13 +5362,13 @@
         <v>7950</v>
       </c>
       <c r="I146" t="n">
-        <v>14377.16744219301</v>
+        <v>14377.16744219302</v>
       </c>
       <c r="J146" t="n">
-        <v>6427.167442193015</v>
+        <v>6427.167442193017</v>
       </c>
       <c r="K146" t="n">
-        <v>80.84487348670459</v>
+        <v>80.8448734867046</v>
       </c>
     </row>
     <row r="147">
@@ -5571,10 +5571,10 @@
         <v>12230.95542329729</v>
       </c>
       <c r="J152" t="n">
-        <v>6231.955423297291</v>
+        <v>6231.955423297288</v>
       </c>
       <c r="K152" t="n">
-        <v>103.883237594554</v>
+        <v>103.8832375945539</v>
       </c>
     </row>
     <row r="153">
@@ -5835,10 +5835,10 @@
         <v>10345.64177092036</v>
       </c>
       <c r="J160" t="n">
-        <v>5955.641770920362</v>
+        <v>5955.64177092036</v>
       </c>
       <c r="K160" t="n">
-        <v>135.6638216610561</v>
+        <v>135.663821661056</v>
       </c>
     </row>
     <row r="161">
@@ -6032,13 +6032,13 @@
         <v>31990</v>
       </c>
       <c r="I166" t="n">
-        <v>26110.14051498379</v>
+        <v>26110.1405149838</v>
       </c>
       <c r="J166" t="n">
-        <v>5879.859485016208</v>
+        <v>5879.859485016204</v>
       </c>
       <c r="K166" t="n">
-        <v>18.38030473590562</v>
+        <v>18.38030473590561</v>
       </c>
     </row>
     <row r="167">
@@ -6070,10 +6070,10 @@
         <v>17519.12942382976</v>
       </c>
       <c r="J167" t="n">
-        <v>5810.870576170244</v>
+        <v>5810.87057617024</v>
       </c>
       <c r="K167" t="n">
-        <v>24.9072892249046</v>
+        <v>24.90728922490459</v>
       </c>
     </row>
     <row r="168">
@@ -6137,13 +6137,13 @@
         <v>31384</v>
       </c>
       <c r="I169" t="n">
-        <v>25698.56738767795</v>
+        <v>25698.56738767794</v>
       </c>
       <c r="J169" t="n">
-        <v>5685.432612322053</v>
+        <v>5685.432612322056</v>
       </c>
       <c r="K169" t="n">
-        <v>18.11570421973634</v>
+        <v>18.11570421973635</v>
       </c>
     </row>
     <row r="170">
@@ -6170,13 +6170,13 @@
         <v>31149</v>
       </c>
       <c r="I170" t="n">
-        <v>25464.08806655135</v>
+        <v>25464.08806655136</v>
       </c>
       <c r="J170" t="n">
-        <v>5684.911933448646</v>
+        <v>5684.911933448642</v>
       </c>
       <c r="K170" t="n">
-        <v>18.25070446386287</v>
+        <v>18.25070446386286</v>
       </c>
     </row>
     <row r="171">
@@ -6203,13 +6203,13 @@
         <v>6400</v>
       </c>
       <c r="I171" t="n">
-        <v>12075.05091512267</v>
+        <v>12075.05091512266</v>
       </c>
       <c r="J171" t="n">
-        <v>5675.050915122665</v>
+        <v>5675.050915122663</v>
       </c>
       <c r="K171" t="n">
-        <v>88.67267054879164</v>
+        <v>88.67267054879161</v>
       </c>
     </row>
     <row r="172">
@@ -6304,13 +6304,13 @@
         <v>37990</v>
       </c>
       <c r="I174" t="n">
-        <v>32367.78474933052</v>
+        <v>32367.78474933053</v>
       </c>
       <c r="J174" t="n">
-        <v>5622.215250669477</v>
+        <v>5622.215250669469</v>
       </c>
       <c r="K174" t="n">
-        <v>14.79919781697678</v>
+        <v>14.79919781697675</v>
       </c>
     </row>
     <row r="175">
@@ -6443,10 +6443,10 @@
         <v>14547.15766125541</v>
       </c>
       <c r="J178" t="n">
-        <v>5557.157661255413</v>
+        <v>5557.157661255414</v>
       </c>
       <c r="K178" t="n">
-        <v>61.81487943554408</v>
+        <v>61.81487943554409</v>
       </c>
     </row>
     <row r="179">
@@ -6476,10 +6476,10 @@
         <v>16249.66527359258</v>
       </c>
       <c r="J179" t="n">
-        <v>5549.33472640742</v>
+        <v>5549.334726407424</v>
       </c>
       <c r="K179" t="n">
-        <v>25.4568316271729</v>
+        <v>25.45683162717291</v>
       </c>
     </row>
     <row r="180">
@@ -6506,13 +6506,13 @@
         <v>20500</v>
       </c>
       <c r="I180" t="n">
-        <v>26029.38058561021</v>
+        <v>26029.38058561022</v>
       </c>
       <c r="J180" t="n">
-        <v>5529.380585610212</v>
+        <v>5529.380585610215</v>
       </c>
       <c r="K180" t="n">
-        <v>26.97258822248884</v>
+        <v>26.97258822248886</v>
       </c>
     </row>
     <row r="181">
@@ -6574,13 +6574,13 @@
         <v>31977</v>
       </c>
       <c r="I182" t="n">
-        <v>26472.80108684265</v>
+        <v>26472.80108684264</v>
       </c>
       <c r="J182" t="n">
-        <v>5504.198913157354</v>
+        <v>5504.198913157357</v>
       </c>
       <c r="K182" t="n">
-        <v>17.21299344265364</v>
+        <v>17.21299344265365</v>
       </c>
     </row>
     <row r="183">
@@ -6675,13 +6675,13 @@
         <v>15499</v>
       </c>
       <c r="I185" t="n">
-        <v>20953.00110864127</v>
+        <v>20953.00110864128</v>
       </c>
       <c r="J185" t="n">
-        <v>5454.001108641274</v>
+        <v>5454.001108641278</v>
       </c>
       <c r="K185" t="n">
-        <v>35.18937420892492</v>
+        <v>35.18937420892495</v>
       </c>
     </row>
     <row r="186">
@@ -6713,10 +6713,10 @@
         <v>23327.83019059383</v>
       </c>
       <c r="J186" t="n">
-        <v>5427.830190593828</v>
+        <v>5427.830190593832</v>
       </c>
       <c r="K186" t="n">
-        <v>30.32307369046832</v>
+        <v>30.32307369046833</v>
       </c>
     </row>
     <row r="187">
@@ -6983,10 +6983,10 @@
         <v>21764.99306613867</v>
       </c>
       <c r="J194" t="n">
-        <v>5264.993066138668</v>
+        <v>5264.993066138672</v>
       </c>
       <c r="K194" t="n">
-        <v>31.9090488856889</v>
+        <v>31.90904888568892</v>
       </c>
     </row>
     <row r="195">
@@ -7013,13 +7013,13 @@
         <v>19980</v>
       </c>
       <c r="I195" t="n">
-        <v>25234.42526660701</v>
+        <v>25234.42526660702</v>
       </c>
       <c r="J195" t="n">
-        <v>5254.425266607013</v>
+        <v>5254.425266607017</v>
       </c>
       <c r="K195" t="n">
-        <v>26.29842475779286</v>
+        <v>26.29842475779288</v>
       </c>
     </row>
     <row r="196">
@@ -7218,10 +7218,10 @@
         <v>28127.85352179092</v>
       </c>
       <c r="J201" t="n">
-        <v>5127.853521790919</v>
+        <v>5127.853521790923</v>
       </c>
       <c r="K201" t="n">
-        <v>22.29501531213443</v>
+        <v>22.29501531213445</v>
       </c>
     </row>
     <row r="202">
@@ -7347,13 +7347,13 @@
         <v>22850</v>
       </c>
       <c r="I205" t="n">
-        <v>27861.61319853701</v>
+        <v>27861.61319853702</v>
       </c>
       <c r="J205" t="n">
-        <v>5011.613198537012</v>
+        <v>5011.613198537016</v>
       </c>
       <c r="K205" t="n">
-        <v>21.9326617003808</v>
+        <v>21.93266170038081</v>
       </c>
     </row>
     <row r="206">
@@ -7519,7 +7519,7 @@
         <v>14801.36717869476</v>
       </c>
       <c r="J210" t="n">
-        <v>4938.632821305238</v>
+        <v>4938.632821305237</v>
       </c>
       <c r="K210" t="n">
         <v>25.01840335007719</v>
@@ -7690,10 +7690,10 @@
         <v>11810.69071011121</v>
       </c>
       <c r="J215" t="n">
-        <v>4810.690710111212</v>
+        <v>4810.690710111214</v>
       </c>
       <c r="K215" t="n">
-        <v>68.72415300158875</v>
+        <v>68.72415300158877</v>
       </c>
     </row>
     <row r="216">
@@ -7754,10 +7754,10 @@
         <v>15992.88695161504</v>
       </c>
       <c r="J217" t="n">
-        <v>4802.886951615044</v>
+        <v>4802.886951615043</v>
       </c>
       <c r="K217" t="n">
-        <v>42.92124174812372</v>
+        <v>42.92124174812371</v>
       </c>
     </row>
     <row r="218">
@@ -7784,13 +7784,13 @@
         <v>10900</v>
       </c>
       <c r="I218" t="n">
-        <v>15685.70542295068</v>
+        <v>15685.70542295067</v>
       </c>
       <c r="J218" t="n">
-        <v>4785.705422950676</v>
+        <v>4785.705422950674</v>
       </c>
       <c r="K218" t="n">
-        <v>43.90555433899703</v>
+        <v>43.90555433899701</v>
       </c>
     </row>
     <row r="219">
@@ -7857,10 +7857,10 @@
         <v>16021.97630064521</v>
       </c>
       <c r="J220" t="n">
-        <v>4727.023699354793</v>
+        <v>4727.02369935479</v>
       </c>
       <c r="K220" t="n">
-        <v>22.78193502990406</v>
+        <v>22.78193502990404</v>
       </c>
     </row>
     <row r="221">
@@ -7890,10 +7890,10 @@
         <v>10170.48426884428</v>
       </c>
       <c r="J221" t="n">
-        <v>4719.51573115572</v>
+        <v>4719.515731155721</v>
       </c>
       <c r="K221" t="n">
-        <v>31.69587462159651</v>
+        <v>31.69587462159652</v>
       </c>
     </row>
     <row r="222">
@@ -7923,10 +7923,10 @@
         <v>15240.02518641776</v>
       </c>
       <c r="J222" t="n">
-        <v>4709.974813582245</v>
+        <v>4709.974813582243</v>
       </c>
       <c r="K222" t="n">
-        <v>23.60889630868293</v>
+        <v>23.60889630868292</v>
       </c>
     </row>
     <row r="223">
@@ -8092,10 +8092,10 @@
         <v>31410.63177713517</v>
       </c>
       <c r="J227" t="n">
-        <v>4620.631777135171</v>
+        <v>4620.631777135168</v>
       </c>
       <c r="K227" t="n">
-        <v>17.24759901879497</v>
+        <v>17.24759901879495</v>
       </c>
     </row>
     <row r="228">
@@ -8125,10 +8125,10 @@
         <v>13086.58339913642</v>
       </c>
       <c r="J228" t="n">
-        <v>4596.58339913642</v>
+        <v>4596.583399136418</v>
       </c>
       <c r="K228" t="n">
-        <v>54.14114722186596</v>
+        <v>54.14114722186594</v>
       </c>
     </row>
     <row r="229">
@@ -8191,10 +8191,10 @@
         <v>19649.38047852131</v>
       </c>
       <c r="J230" t="n">
-        <v>4550.619521478689</v>
+        <v>4550.619521478693</v>
       </c>
       <c r="K230" t="n">
-        <v>18.80421289867227</v>
+        <v>18.80421289867228</v>
       </c>
     </row>
     <row r="231">
@@ -8223,13 +8223,13 @@
         <v>7400</v>
       </c>
       <c r="I231" t="n">
-        <v>11896.53628314886</v>
+        <v>11896.53628314887</v>
       </c>
       <c r="J231" t="n">
-        <v>4496.53628314886</v>
+        <v>4496.536283148866</v>
       </c>
       <c r="K231" t="n">
-        <v>60.76400382633594</v>
+        <v>60.76400382633602</v>
       </c>
     </row>
     <row r="232">
@@ -8428,10 +8428,10 @@
         <v>19952.35209121992</v>
       </c>
       <c r="J237" t="n">
-        <v>4452.352091219924</v>
+        <v>4452.35209121992</v>
       </c>
       <c r="K237" t="n">
-        <v>28.72485220141886</v>
+        <v>28.72485220141884</v>
       </c>
     </row>
     <row r="238">
@@ -8632,10 +8632,10 @@
         <v>21670.48523786034</v>
       </c>
       <c r="J243" t="n">
-        <v>4319.514762139661</v>
+        <v>4319.514762139657</v>
       </c>
       <c r="K243" t="n">
-        <v>16.61991058922532</v>
+        <v>16.61991058922531</v>
       </c>
     </row>
     <row r="244">
@@ -8700,10 +8700,10 @@
         <v>23206.23596264939</v>
       </c>
       <c r="J245" t="n">
-        <v>4306.235962649385</v>
+        <v>4306.235962649389</v>
       </c>
       <c r="K245" t="n">
-        <v>22.78431726269516</v>
+        <v>22.78431726269518</v>
       </c>
     </row>
     <row r="246">
@@ -8763,13 +8763,13 @@
         <v>8950</v>
       </c>
       <c r="I247" t="n">
-        <v>4657.051151433615</v>
+        <v>4657.051151433614</v>
       </c>
       <c r="J247" t="n">
-        <v>4292.948848566385</v>
+        <v>4292.948848566386</v>
       </c>
       <c r="K247" t="n">
-        <v>47.96590892252944</v>
+        <v>47.96590892252945</v>
       </c>
     </row>
     <row r="248">
@@ -8829,13 +8829,13 @@
         <v>27622</v>
       </c>
       <c r="I249" t="n">
-        <v>31870.2197168672</v>
+        <v>31870.21971686721</v>
       </c>
       <c r="J249" t="n">
-        <v>4248.219716867203</v>
+        <v>4248.21971686721</v>
       </c>
       <c r="K249" t="n">
-        <v>15.37984112977772</v>
+        <v>15.37984112977775</v>
       </c>
     </row>
     <row r="250">
@@ -8964,10 +8964,10 @@
         <v>15509.09609554335</v>
       </c>
       <c r="J253" t="n">
-        <v>4170.903904456647</v>
+        <v>4170.903904456651</v>
       </c>
       <c r="K253" t="n">
-        <v>21.19361740069434</v>
+        <v>21.19361740069436</v>
       </c>
     </row>
     <row r="254">
@@ -9034,10 +9034,10 @@
         <v>10607.38862406015</v>
       </c>
       <c r="J255" t="n">
-        <v>4141.61137593985</v>
+        <v>4141.611375939849</v>
       </c>
       <c r="K255" t="n">
-        <v>28.08062496399655</v>
+        <v>28.08062496399653</v>
       </c>
     </row>
     <row r="256">
@@ -9097,13 +9097,13 @@
         <v>3440</v>
       </c>
       <c r="I257" t="n">
-        <v>7554.253046989646</v>
+        <v>7554.253046989647</v>
       </c>
       <c r="J257" t="n">
-        <v>4114.253046989646</v>
+        <v>4114.253046989647</v>
       </c>
       <c r="K257" t="n">
-        <v>119.6003792729548</v>
+        <v>119.6003792729549</v>
       </c>
     </row>
     <row r="258">
@@ -9234,10 +9234,10 @@
         <v>15626.2386079644</v>
       </c>
       <c r="J261" t="n">
-        <v>4063.761392035602</v>
+        <v>4063.761392035596</v>
       </c>
       <c r="K261" t="n">
-        <v>20.63870691739767</v>
+        <v>20.63870691739764</v>
       </c>
     </row>
     <row r="262">
@@ -9436,10 +9436,10 @@
         <v>22983.71539510883</v>
       </c>
       <c r="J267" t="n">
-        <v>3991.284604891171</v>
+        <v>3991.284604891174</v>
       </c>
       <c r="K267" t="n">
-        <v>14.79623579199693</v>
+        <v>14.79623579199694</v>
       </c>
     </row>
     <row r="268">
@@ -9602,13 +9602,13 @@
         <v>17500</v>
       </c>
       <c r="I272" t="n">
-        <v>21406.28956621923</v>
+        <v>21406.28956621924</v>
       </c>
       <c r="J272" t="n">
-        <v>3906.289566219235</v>
+        <v>3906.289566219239</v>
       </c>
       <c r="K272" t="n">
-        <v>22.32165466410991</v>
+        <v>22.32165466410993</v>
       </c>
     </row>
     <row r="273">
@@ -9668,10 +9668,10 @@
         <v>1799</v>
       </c>
       <c r="I274" t="n">
-        <v>5684.884861491807</v>
+        <v>5684.884861491808</v>
       </c>
       <c r="J274" t="n">
-        <v>3885.884861491807</v>
+        <v>3885.884861491808</v>
       </c>
       <c r="K274" t="n">
         <v>216.002493690484</v>
@@ -9707,7 +9707,7 @@
         <v>3878.656920224117</v>
       </c>
       <c r="K275" t="n">
-        <v>55.80801324063477</v>
+        <v>55.80801324063478</v>
       </c>
     </row>
     <row r="276">
@@ -9737,10 +9737,10 @@
         <v>22765.51311129542</v>
       </c>
       <c r="J276" t="n">
-        <v>3865.513111295422</v>
+        <v>3865.513111295415</v>
       </c>
       <c r="K276" t="n">
-        <v>20.45245032431441</v>
+        <v>20.45245032431436</v>
       </c>
     </row>
     <row r="277">
@@ -9932,13 +9932,13 @@
         <v>20700</v>
       </c>
       <c r="I282" t="n">
-        <v>16886.42123864868</v>
+        <v>16886.42123864867</v>
       </c>
       <c r="J282" t="n">
-        <v>3813.578761351324</v>
+        <v>3813.578761351328</v>
       </c>
       <c r="K282" t="n">
-        <v>18.42308580362958</v>
+        <v>18.4230858036296</v>
       </c>
     </row>
     <row r="283">
@@ -9967,13 +9967,13 @@
         <v>44999</v>
       </c>
       <c r="I283" t="n">
-        <v>48797.43160101542</v>
+        <v>48797.43160101541</v>
       </c>
       <c r="J283" t="n">
-        <v>3798.431601015422</v>
+        <v>3798.431601015414</v>
       </c>
       <c r="K283" t="n">
-        <v>8.441146694405257</v>
+        <v>8.441146694405241</v>
       </c>
     </row>
     <row r="284">
@@ -10238,10 +10238,10 @@
         <v>14162.37285612729</v>
       </c>
       <c r="J291" t="n">
-        <v>3727.627143872711</v>
+        <v>3727.627143872709</v>
       </c>
       <c r="K291" t="n">
-        <v>20.83637307922141</v>
+        <v>20.8363730792214</v>
       </c>
     </row>
     <row r="292">
@@ -10305,13 +10305,13 @@
         <v>5900</v>
       </c>
       <c r="I293" t="n">
-        <v>9594.748444967119</v>
+        <v>9594.748444967117</v>
       </c>
       <c r="J293" t="n">
-        <v>3694.748444967119</v>
+        <v>3694.748444967117</v>
       </c>
       <c r="K293" t="n">
-        <v>62.62285499944269</v>
+        <v>62.62285499944267</v>
       </c>
     </row>
     <row r="294">
@@ -10442,10 +10442,10 @@
         <v>19086.56084724602</v>
       </c>
       <c r="J297" t="n">
-        <v>3653.439152753977</v>
+        <v>3653.439152753981</v>
       </c>
       <c r="K297" t="n">
-        <v>16.06613523638512</v>
+        <v>16.06613523638514</v>
       </c>
     </row>
     <row r="298">
@@ -10472,13 +10472,13 @@
         <v>12980</v>
       </c>
       <c r="I298" t="n">
-        <v>9326.822505219799</v>
+        <v>9326.822505219801</v>
       </c>
       <c r="J298" t="n">
-        <v>3653.177494780201</v>
+        <v>3653.177494780199</v>
       </c>
       <c r="K298" t="n">
-        <v>28.14466482881511</v>
+        <v>28.14466482881509</v>
       </c>
     </row>
     <row r="299">
@@ -10541,10 +10541,10 @@
         <v>20587.95126991097</v>
       </c>
       <c r="J300" t="n">
-        <v>3607.951269910969</v>
+        <v>3607.951269910965</v>
       </c>
       <c r="K300" t="n">
-        <v>21.24824069441089</v>
+        <v>21.24824069441087</v>
       </c>
     </row>
     <row r="301">
@@ -10574,10 +10574,10 @@
         <v>16299.13894767076</v>
       </c>
       <c r="J301" t="n">
-        <v>3600.861052329243</v>
+        <v>3600.861052329245</v>
       </c>
       <c r="K301" t="n">
-        <v>18.09477915743338</v>
+        <v>18.09477915743339</v>
       </c>
     </row>
     <row r="302">
@@ -10609,10 +10609,10 @@
         <v>16074.99310942325</v>
       </c>
       <c r="J302" t="n">
-        <v>3594.993109423249</v>
+        <v>3594.993109423245</v>
       </c>
       <c r="K302" t="n">
-        <v>28.80603453063501</v>
+        <v>28.80603453063498</v>
       </c>
     </row>
     <row r="303">
@@ -10639,13 +10639,13 @@
         <v>22950</v>
       </c>
       <c r="I303" t="n">
-        <v>19358.23029276404</v>
+        <v>19358.23029276403</v>
       </c>
       <c r="J303" t="n">
-        <v>3591.769707235962</v>
+        <v>3591.769707235966</v>
       </c>
       <c r="K303" t="n">
-        <v>15.65041266769482</v>
+        <v>15.65041266769484</v>
       </c>
     </row>
     <row r="304">
@@ -10677,10 +10677,10 @@
         <v>27428.49502785284</v>
       </c>
       <c r="J304" t="n">
-        <v>3561.504972147159</v>
+        <v>3561.504972147162</v>
       </c>
       <c r="K304" t="n">
-        <v>11.4924329530402</v>
+        <v>11.49243295304021</v>
       </c>
     </row>
     <row r="305">
@@ -10814,13 +10814,13 @@
         <v>25990</v>
       </c>
       <c r="I308" t="n">
-        <v>29534.27376587302</v>
+        <v>29534.27376587301</v>
       </c>
       <c r="J308" t="n">
-        <v>3544.273765873018</v>
+        <v>3544.273765873015</v>
       </c>
       <c r="K308" t="n">
-        <v>13.63706720228172</v>
+        <v>13.6370672022817</v>
       </c>
     </row>
     <row r="309">
@@ -11116,10 +11116,10 @@
         <v>22425.26040894195</v>
       </c>
       <c r="J317" t="n">
-        <v>3474.739591058049</v>
+        <v>3474.739591058045</v>
       </c>
       <c r="K317" t="n">
-        <v>13.41598297705811</v>
+        <v>13.41598297705809</v>
       </c>
     </row>
     <row r="318">
@@ -11284,13 +11284,13 @@
         <v>19690</v>
       </c>
       <c r="I322" t="n">
-        <v>16244.01985602851</v>
+        <v>16244.0198560285</v>
       </c>
       <c r="J322" t="n">
-        <v>3445.980143971494</v>
+        <v>3445.980143971497</v>
       </c>
       <c r="K322" t="n">
-        <v>17.50116883682831</v>
+        <v>17.50116883682833</v>
       </c>
     </row>
     <row r="323">
@@ -11385,13 +11385,13 @@
         <v>34990</v>
       </c>
       <c r="I325" t="n">
-        <v>31567.79816119349</v>
+        <v>31567.7981611935</v>
       </c>
       <c r="J325" t="n">
-        <v>3422.201838806508</v>
+        <v>3422.201838806504</v>
       </c>
       <c r="K325" t="n">
-        <v>9.780513972010597</v>
+        <v>9.780513972010587</v>
       </c>
     </row>
     <row r="326">
@@ -11517,13 +11517,13 @@
         <v>17990</v>
       </c>
       <c r="I329" t="n">
-        <v>21388.78352037345</v>
+        <v>21388.78352037346</v>
       </c>
       <c r="J329" t="n">
-        <v>3398.783520373454</v>
+        <v>3398.783520373461</v>
       </c>
       <c r="K329" t="n">
-        <v>18.89262657239274</v>
+        <v>18.89262657239278</v>
       </c>
     </row>
     <row r="330">
@@ -11652,10 +11652,10 @@
         <v>11352.58698264698</v>
       </c>
       <c r="J333" t="n">
-        <v>3353.586982646983</v>
+        <v>3353.586982646984</v>
       </c>
       <c r="K333" t="n">
-        <v>41.92507791782701</v>
+        <v>41.92507791782703</v>
       </c>
     </row>
     <row r="334">
@@ -12264,10 +12264,10 @@
         <v>15718.91466259976</v>
       </c>
       <c r="J351" t="n">
-        <v>3235.91466259976</v>
+        <v>3235.914662599762</v>
       </c>
       <c r="K351" t="n">
-        <v>25.92257199871634</v>
+        <v>25.92257199871635</v>
       </c>
     </row>
     <row r="352">
@@ -12330,10 +12330,10 @@
         <v>25687.81247611342</v>
       </c>
       <c r="J353" t="n">
-        <v>3212.18752388658</v>
+        <v>3212.187523886576</v>
       </c>
       <c r="K353" t="n">
-        <v>11.11483572279093</v>
+        <v>11.11483572279092</v>
       </c>
     </row>
     <row r="354">
@@ -12398,10 +12398,10 @@
         <v>10200.09285216439</v>
       </c>
       <c r="J355" t="n">
-        <v>3210.092852164389</v>
+        <v>3210.092852164391</v>
       </c>
       <c r="K355" t="n">
-        <v>45.92407513826022</v>
+        <v>45.92407513826024</v>
       </c>
     </row>
     <row r="356">
@@ -12532,10 +12532,10 @@
         <v>24806.50394788149</v>
       </c>
       <c r="J359" t="n">
-        <v>3183.496052118513</v>
+        <v>3183.496052118506</v>
       </c>
       <c r="K359" t="n">
-        <v>11.37369078999111</v>
+        <v>11.37369078999109</v>
       </c>
     </row>
     <row r="360">
@@ -12600,10 +12600,10 @@
         <v>15646.50481481482</v>
       </c>
       <c r="J361" t="n">
-        <v>3156.504814814818</v>
+        <v>3156.504814814816</v>
       </c>
       <c r="K361" t="n">
-        <v>25.27225632357741</v>
+        <v>25.27225632357739</v>
       </c>
     </row>
     <row r="362">
@@ -12632,13 +12632,13 @@
         <v>63990</v>
       </c>
       <c r="I362" t="n">
-        <v>67142.06473809526</v>
+        <v>67142.06473809524</v>
       </c>
       <c r="J362" t="n">
-        <v>3152.064738095258</v>
+        <v>3152.064738095243</v>
       </c>
       <c r="K362" t="n">
-        <v>4.925870820589558</v>
+        <v>4.925870820589535</v>
       </c>
     </row>
     <row r="363">
@@ -12668,10 +12668,10 @@
         <v>28025.55516931928</v>
       </c>
       <c r="J363" t="n">
-        <v>3125.555169319279</v>
+        <v>3125.555169319283</v>
       </c>
       <c r="K363" t="n">
-        <v>12.55243039887261</v>
+        <v>12.55243039887262</v>
       </c>
     </row>
     <row r="364">
@@ -12731,13 +12731,13 @@
         <v>15500</v>
       </c>
       <c r="I365" t="n">
-        <v>18609.05455205402</v>
+        <v>18609.05455205401</v>
       </c>
       <c r="J365" t="n">
-        <v>3109.054552054018</v>
+        <v>3109.054552054014</v>
       </c>
       <c r="K365" t="n">
-        <v>20.05841646486463</v>
+        <v>20.05841646486461</v>
       </c>
     </row>
     <row r="366">
@@ -12801,13 +12801,13 @@
         <v>14880</v>
       </c>
       <c r="I367" t="n">
-        <v>11792.99565833693</v>
+        <v>11792.99565833692</v>
       </c>
       <c r="J367" t="n">
-        <v>3087.004341663072</v>
+        <v>3087.004341663076</v>
       </c>
       <c r="K367" t="n">
-        <v>20.74599691977871</v>
+        <v>20.74599691977874</v>
       </c>
     </row>
     <row r="368">
@@ -13003,13 +13003,13 @@
         <v>10490</v>
       </c>
       <c r="I373" t="n">
-        <v>13542.26454623617</v>
+        <v>13542.26454623616</v>
       </c>
       <c r="J373" t="n">
-        <v>3052.264546236165</v>
+        <v>3052.264546236163</v>
       </c>
       <c r="K373" t="n">
-        <v>29.09689748556878</v>
+        <v>29.09689748556877</v>
       </c>
     </row>
     <row r="374">
@@ -13036,13 +13036,13 @@
         <v>9480</v>
       </c>
       <c r="I374" t="n">
-        <v>12526.87744788903</v>
+        <v>12526.87744788902</v>
       </c>
       <c r="J374" t="n">
-        <v>3046.877447889026</v>
+        <v>3046.877447889023</v>
       </c>
       <c r="K374" t="n">
-        <v>32.14005746718382</v>
+        <v>32.14005746718379</v>
       </c>
     </row>
     <row r="375">
@@ -13107,10 +13107,10 @@
         <v>33914.29251449041</v>
       </c>
       <c r="J376" t="n">
-        <v>3035.707485509585</v>
+        <v>3035.707485509593</v>
       </c>
       <c r="K376" t="n">
-        <v>8.215717146169379</v>
+        <v>8.215717146169398</v>
       </c>
     </row>
     <row r="377">
@@ -13210,10 +13210,10 @@
         <v>10546.81703769841</v>
       </c>
       <c r="J379" t="n">
-        <v>3012.182962301589</v>
+        <v>3012.182962301587</v>
       </c>
       <c r="K379" t="n">
-        <v>22.21537696217707</v>
+        <v>22.21537696217706</v>
       </c>
     </row>
     <row r="380">
@@ -13280,10 +13280,10 @@
         <v>12852.07872224846</v>
       </c>
       <c r="J381" t="n">
-        <v>2952.078722248458</v>
+        <v>2952.07872224846</v>
       </c>
       <c r="K381" t="n">
-        <v>29.81897699240867</v>
+        <v>29.81897699240869</v>
       </c>
     </row>
     <row r="382">
@@ -13312,13 +13312,13 @@
         <v>15500</v>
       </c>
       <c r="I382" t="n">
-        <v>12555.13259857925</v>
+        <v>12555.13259857926</v>
       </c>
       <c r="J382" t="n">
-        <v>2944.867401420746</v>
+        <v>2944.867401420744</v>
       </c>
       <c r="K382" t="n">
-        <v>18.99914452529514</v>
+        <v>18.99914452529513</v>
       </c>
     </row>
     <row r="383">
@@ -13411,13 +13411,13 @@
         <v>12745</v>
       </c>
       <c r="I385" t="n">
-        <v>9818.857995226123</v>
+        <v>9818.857995226124</v>
       </c>
       <c r="J385" t="n">
-        <v>2926.142004773877</v>
+        <v>2926.142004773876</v>
       </c>
       <c r="K385" t="n">
-        <v>22.95913695389469</v>
+        <v>22.95913695389467</v>
       </c>
     </row>
     <row r="386">
@@ -13515,10 +13515,10 @@
         <v>11838.19778823369</v>
       </c>
       <c r="J388" t="n">
-        <v>2861.802211766313</v>
+        <v>2861.802211766311</v>
       </c>
       <c r="K388" t="n">
-        <v>19.46804225691369</v>
+        <v>19.46804225691368</v>
       </c>
     </row>
     <row r="389">
@@ -13547,13 +13547,13 @@
         <v>7500</v>
       </c>
       <c r="I389" t="n">
-        <v>4639.311642431056</v>
+        <v>4639.311642431057</v>
       </c>
       <c r="J389" t="n">
-        <v>2860.688357568944</v>
+        <v>2860.688357568943</v>
       </c>
       <c r="K389" t="n">
-        <v>38.14251143425258</v>
+        <v>38.14251143425257</v>
       </c>
     </row>
     <row r="390">
@@ -13615,13 +13615,13 @@
         <v>10990</v>
       </c>
       <c r="I391" t="n">
-        <v>13850.48981080255</v>
+        <v>13850.48981080256</v>
       </c>
       <c r="J391" t="n">
-        <v>2860.489810802552</v>
+        <v>2860.489810802555</v>
       </c>
       <c r="K391" t="n">
-        <v>26.0281147479759</v>
+        <v>26.02811474797593</v>
       </c>
     </row>
     <row r="392">
@@ -13714,10 +13714,10 @@
         <v>1949</v>
       </c>
       <c r="I394" t="n">
-        <v>4785.160599697519</v>
+        <v>4785.160599697518</v>
       </c>
       <c r="J394" t="n">
-        <v>2836.160599697519</v>
+        <v>2836.160599697518</v>
       </c>
       <c r="K394" t="n">
         <v>145.5187583220892</v>
@@ -13752,10 +13752,10 @@
         <v>15718.91466259976</v>
       </c>
       <c r="J395" t="n">
-        <v>2835.91466259976</v>
+        <v>2835.914662599762</v>
       </c>
       <c r="K395" t="n">
-        <v>22.0128437677541</v>
+        <v>22.01284376775411</v>
       </c>
     </row>
     <row r="396">
@@ -13782,13 +13782,13 @@
         <v>20900</v>
       </c>
       <c r="I396" t="n">
-        <v>23734.61980025034</v>
+        <v>23734.61980025033</v>
       </c>
       <c r="J396" t="n">
-        <v>2834.619800250341</v>
+        <v>2834.61980025033</v>
       </c>
       <c r="K396" t="n">
-        <v>13.56277416387723</v>
+        <v>13.56277416387718</v>
       </c>
     </row>
     <row r="397">
@@ -13886,10 +13886,10 @@
         <v>17120.84788712465</v>
       </c>
       <c r="J399" t="n">
-        <v>2829.152112875352</v>
+        <v>2829.152112875348</v>
       </c>
       <c r="K399" t="n">
-        <v>14.18121359837269</v>
+        <v>14.18121359837267</v>
       </c>
     </row>
     <row r="400">
@@ -14050,13 +14050,13 @@
         <v>28800</v>
       </c>
       <c r="I404" t="n">
-        <v>26033.59380251484</v>
+        <v>26033.59380251485</v>
       </c>
       <c r="J404" t="n">
-        <v>2766.406197485161</v>
+        <v>2766.406197485154</v>
       </c>
       <c r="K404" t="n">
-        <v>9.605577074601255</v>
+        <v>9.605577074601229</v>
       </c>
     </row>
     <row r="405">
@@ -14191,10 +14191,10 @@
         <v>13641.12413537007</v>
       </c>
       <c r="J408" t="n">
-        <v>2741.124135370066</v>
+        <v>2741.124135370068</v>
       </c>
       <c r="K408" t="n">
-        <v>25.1479278474318</v>
+        <v>25.14792784743182</v>
       </c>
     </row>
     <row r="409">
@@ -14392,10 +14392,10 @@
         <v>1999</v>
       </c>
       <c r="I414" t="n">
-        <v>4700.360717178978</v>
+        <v>4700.360717178977</v>
       </c>
       <c r="J414" t="n">
-        <v>2701.360717178978</v>
+        <v>2701.360717178977</v>
       </c>
       <c r="K414" t="n">
         <v>135.1356036607793</v>
@@ -14498,10 +14498,10 @@
         <v>14201.00133413862</v>
       </c>
       <c r="J417" t="n">
-        <v>2688.99866586138</v>
+        <v>2688.998665861383</v>
       </c>
       <c r="K417" t="n">
-        <v>15.92065521528348</v>
+        <v>15.9206552152835</v>
       </c>
     </row>
     <row r="418">
@@ -14625,13 +14625,13 @@
         <v>22000</v>
       </c>
       <c r="I421" t="n">
-        <v>24662.48843838527</v>
+        <v>24662.48843838526</v>
       </c>
       <c r="J421" t="n">
-        <v>2662.48843838527</v>
+        <v>2662.488438385262</v>
       </c>
       <c r="K421" t="n">
-        <v>12.1022201744785</v>
+        <v>12.10222017447846</v>
       </c>
     </row>
     <row r="422">
@@ -14693,13 +14693,13 @@
         <v>20990</v>
       </c>
       <c r="I423" t="n">
-        <v>23643.709456076</v>
+        <v>23643.70945607599</v>
       </c>
       <c r="J423" t="n">
-        <v>2653.709456075998</v>
+        <v>2653.709456075994</v>
       </c>
       <c r="K423" t="n">
-        <v>12.64273204419246</v>
+        <v>12.64273204419245</v>
       </c>
     </row>
     <row r="424">
@@ -14729,10 +14729,10 @@
         <v>15548.93540487207</v>
       </c>
       <c r="J424" t="n">
-        <v>2648.935404872067</v>
+        <v>2648.935404872071</v>
       </c>
       <c r="K424" t="n">
-        <v>20.5343829835044</v>
+        <v>20.53438298350443</v>
       </c>
     </row>
     <row r="425">
@@ -14896,10 +14896,10 @@
         <v>13097.14595329458</v>
       </c>
       <c r="J429" t="n">
-        <v>2617.145953294579</v>
+        <v>2617.145953294577</v>
       </c>
       <c r="K429" t="n">
-        <v>24.97276672991011</v>
+        <v>24.97276672991009</v>
       </c>
     </row>
     <row r="430">
@@ -14961,13 +14961,13 @@
         <v>21990</v>
       </c>
       <c r="I431" t="n">
-        <v>24605.87225769936</v>
+        <v>24605.87225769937</v>
       </c>
       <c r="J431" t="n">
-        <v>2615.872257699364</v>
+        <v>2615.872257699371</v>
       </c>
       <c r="K431" t="n">
-        <v>11.89573559663194</v>
+        <v>11.89573559663198</v>
       </c>
     </row>
     <row r="432">
@@ -15065,10 +15065,10 @@
         <v>32300.30804497354</v>
       </c>
       <c r="J434" t="n">
-        <v>2599.691955026461</v>
+        <v>2599.691955026457</v>
       </c>
       <c r="K434" t="n">
-        <v>7.448974083170375</v>
+        <v>7.448974083170365</v>
       </c>
     </row>
     <row r="435">
@@ -15100,10 +15100,10 @@
         <v>21098.5650832887</v>
       </c>
       <c r="J435" t="n">
-        <v>2598.565083288704</v>
+        <v>2598.5650832887</v>
       </c>
       <c r="K435" t="n">
-        <v>14.04629774750651</v>
+        <v>14.04629774750649</v>
       </c>
     </row>
     <row r="436">
@@ -15297,13 +15297,13 @@
         <v>3300</v>
       </c>
       <c r="I441" t="n">
-        <v>5852.052133417239</v>
+        <v>5852.05213341724</v>
       </c>
       <c r="J441" t="n">
-        <v>2552.052133417239</v>
+        <v>2552.05213341724</v>
       </c>
       <c r="K441" t="n">
-        <v>77.33491313385572</v>
+        <v>77.33491313385575</v>
       </c>
     </row>
     <row r="442">
@@ -15365,13 +15365,13 @@
         <v>6990</v>
       </c>
       <c r="I443" t="n">
-        <v>4444.722324286637</v>
+        <v>4444.722324286636</v>
       </c>
       <c r="J443" t="n">
-        <v>2545.277675713363</v>
+        <v>2545.277675713364</v>
       </c>
       <c r="K443" t="n">
-        <v>36.4131284079165</v>
+        <v>36.41312840791651</v>
       </c>
     </row>
     <row r="444">
@@ -15563,13 +15563,13 @@
         <v>3700</v>
       </c>
       <c r="I449" t="n">
-        <v>6221.879194063001</v>
+        <v>6221.879194063</v>
       </c>
       <c r="J449" t="n">
-        <v>2521.879194063001</v>
+        <v>2521.879194063</v>
       </c>
       <c r="K449" t="n">
-        <v>68.15889713683787</v>
+        <v>68.15889713683784</v>
       </c>
     </row>
     <row r="450">
@@ -15599,10 +15599,10 @@
         <v>19509.82383207122</v>
       </c>
       <c r="J450" t="n">
-        <v>2517.823832071223</v>
+        <v>2517.823832071219</v>
       </c>
       <c r="K450" t="n">
-        <v>14.81770145992951</v>
+        <v>14.81770145992949</v>
       </c>
     </row>
     <row r="451">
@@ -15631,13 +15631,13 @@
         <v>11900</v>
       </c>
       <c r="I451" t="n">
-        <v>9397.660400816223</v>
+        <v>9397.660400816221</v>
       </c>
       <c r="J451" t="n">
-        <v>2502.339599183777</v>
+        <v>2502.339599183779</v>
       </c>
       <c r="K451" t="n">
-        <v>21.0280638586872</v>
+        <v>21.02806385868722</v>
       </c>
     </row>
     <row r="452">
@@ -15667,10 +15667,10 @@
         <v>13000.1862039553</v>
       </c>
       <c r="J452" t="n">
-        <v>2499.813796044702</v>
+        <v>2499.813796044704</v>
       </c>
       <c r="K452" t="n">
-        <v>16.12783094222388</v>
+        <v>16.12783094222389</v>
       </c>
     </row>
     <row r="453">
@@ -15732,13 +15732,13 @@
         <v>5490</v>
       </c>
       <c r="I454" t="n">
-        <v>7975.780512866036</v>
+        <v>7975.780512866035</v>
       </c>
       <c r="J454" t="n">
-        <v>2485.780512866036</v>
+        <v>2485.780512866035</v>
       </c>
       <c r="K454" t="n">
-        <v>45.27833356768735</v>
+        <v>45.27833356768733</v>
       </c>
     </row>
     <row r="455">
@@ -15768,10 +15768,10 @@
         <v>12416.3714845319</v>
       </c>
       <c r="J455" t="n">
-        <v>2483.628515468101</v>
+        <v>2483.628515468097</v>
       </c>
       <c r="K455" t="n">
-        <v>16.66864775481947</v>
+        <v>16.66864775481944</v>
       </c>
     </row>
     <row r="456">
@@ -15798,13 +15798,13 @@
         <v>6500</v>
       </c>
       <c r="I456" t="n">
-        <v>4018.865471336867</v>
+        <v>4018.865471336866</v>
       </c>
       <c r="J456" t="n">
-        <v>2481.134528663133</v>
+        <v>2481.134528663134</v>
       </c>
       <c r="K456" t="n">
-        <v>38.17130044097127</v>
+        <v>38.17130044097129</v>
       </c>
     </row>
     <row r="457">
@@ -15831,13 +15831,13 @@
         <v>11600</v>
       </c>
       <c r="I457" t="n">
-        <v>14070.95034427068</v>
+        <v>14070.95034427069</v>
       </c>
       <c r="J457" t="n">
-        <v>2470.950344270685</v>
+        <v>2470.950344270686</v>
       </c>
       <c r="K457" t="n">
-        <v>21.30129607129901</v>
+        <v>21.30129607129902</v>
       </c>
     </row>
     <row r="458">
@@ -15959,13 +15959,13 @@
         <v>9090</v>
       </c>
       <c r="I461" t="n">
-        <v>6625.690556378091</v>
+        <v>6625.690556378092</v>
       </c>
       <c r="J461" t="n">
-        <v>2464.309443621909</v>
+        <v>2464.309443621908</v>
       </c>
       <c r="K461" t="n">
-        <v>27.11011489133013</v>
+        <v>27.11011489133012</v>
       </c>
     </row>
     <row r="462">
@@ -16263,10 +16263,10 @@
         <v>29299.33262294915</v>
       </c>
       <c r="J470" t="n">
-        <v>2390.66737705085</v>
+        <v>2390.667377050846</v>
       </c>
       <c r="K470" t="n">
-        <v>7.543917251659355</v>
+        <v>7.543917251659344</v>
       </c>
     </row>
     <row r="471">
@@ -16296,10 +16296,10 @@
         <v>19284.19667770649</v>
       </c>
       <c r="J471" t="n">
-        <v>2384.196677706492</v>
+        <v>2384.196677706488</v>
       </c>
       <c r="K471" t="n">
-        <v>14.10767264915084</v>
+        <v>14.10767264915082</v>
       </c>
     </row>
     <row r="472">
@@ -16362,10 +16362,10 @@
         <v>19375.28371634303</v>
       </c>
       <c r="J473" t="n">
-        <v>2376.28371634303</v>
+        <v>2376.283716343027</v>
       </c>
       <c r="K473" t="n">
-        <v>13.97896179977075</v>
+        <v>13.97896179977073</v>
       </c>
     </row>
     <row r="474">
@@ -16395,10 +16395,10 @@
         <v>11531.93804792242</v>
       </c>
       <c r="J474" t="n">
-        <v>2368.061952077578</v>
+        <v>2368.061952077582</v>
       </c>
       <c r="K474" t="n">
-        <v>17.03641692142143</v>
+        <v>17.03641692142145</v>
       </c>
     </row>
     <row r="475">
@@ -16425,13 +16425,13 @@
         <v>12750</v>
       </c>
       <c r="I475" t="n">
-        <v>10390.68142384882</v>
+        <v>10390.68142384881</v>
       </c>
       <c r="J475" t="n">
-        <v>2359.318576151185</v>
+        <v>2359.318576151187</v>
       </c>
       <c r="K475" t="n">
-        <v>18.50445942079361</v>
+        <v>18.50445942079362</v>
       </c>
     </row>
     <row r="476">
@@ -16460,13 +16460,13 @@
         <v>13900</v>
       </c>
       <c r="I476" t="n">
-        <v>11541.64524142438</v>
+        <v>11541.64524142437</v>
       </c>
       <c r="J476" t="n">
-        <v>2358.354758575624</v>
+        <v>2358.354758575626</v>
       </c>
       <c r="K476" t="n">
-        <v>16.96658099694694</v>
+        <v>16.96658099694695</v>
       </c>
     </row>
     <row r="477">
@@ -16495,13 +16495,13 @@
         <v>13900</v>
       </c>
       <c r="I477" t="n">
-        <v>11541.64524142438</v>
+        <v>11541.64524142437</v>
       </c>
       <c r="J477" t="n">
-        <v>2358.354758575624</v>
+        <v>2358.354758575626</v>
       </c>
       <c r="K477" t="n">
-        <v>16.96658099694694</v>
+        <v>16.96658099694695</v>
       </c>
     </row>
     <row r="478">
@@ -16528,13 +16528,13 @@
         <v>29995</v>
       </c>
       <c r="I478" t="n">
-        <v>27636.78844566052</v>
+        <v>27636.78844566051</v>
       </c>
       <c r="J478" t="n">
-        <v>2358.211554339483</v>
+        <v>2358.211554339487</v>
       </c>
       <c r="K478" t="n">
-        <v>7.862015517051119</v>
+        <v>7.862015517051131</v>
       </c>
     </row>
     <row r="479">
@@ -16596,13 +16596,13 @@
         <v>14480</v>
       </c>
       <c r="I480" t="n">
-        <v>16818.24591570636</v>
+        <v>16818.24591570635</v>
       </c>
       <c r="J480" t="n">
-        <v>2338.245915706357</v>
+        <v>2338.245915706353</v>
       </c>
       <c r="K480" t="n">
-        <v>16.14810715266821</v>
+        <v>16.14810715266819</v>
       </c>
     </row>
     <row r="481">
@@ -16697,10 +16697,10 @@
         <v>1950</v>
       </c>
       <c r="I483" t="n">
-        <v>4269.330053315446</v>
+        <v>4269.330053315445</v>
       </c>
       <c r="J483" t="n">
-        <v>2319.330053315446</v>
+        <v>2319.330053315445</v>
       </c>
       <c r="K483" t="n">
         <v>118.9400027341254</v>
@@ -16831,13 +16831,13 @@
         <v>14999</v>
       </c>
       <c r="I487" t="n">
-        <v>12752.39514350143</v>
+        <v>12752.39514350144</v>
       </c>
       <c r="J487" t="n">
-        <v>2246.604856498567</v>
+        <v>2246.604856498565</v>
       </c>
       <c r="K487" t="n">
-        <v>14.97836426760829</v>
+        <v>14.97836426760827</v>
       </c>
     </row>
     <row r="488">
@@ -16932,13 +16932,13 @@
         <v>6475</v>
       </c>
       <c r="I490" t="n">
-        <v>8712.500650911743</v>
+        <v>8712.500650911745</v>
       </c>
       <c r="J490" t="n">
-        <v>2237.500650911743</v>
+        <v>2237.500650911745</v>
       </c>
       <c r="K490" t="n">
-        <v>34.55599460867557</v>
+        <v>34.5559946086756</v>
       </c>
     </row>
     <row r="491">
@@ -17103,13 +17103,13 @@
         <v>26970</v>
       </c>
       <c r="I495" t="n">
-        <v>29183.61628697165</v>
+        <v>29183.61628697164</v>
       </c>
       <c r="J495" t="n">
-        <v>2213.61628697165</v>
+        <v>2213.616286971643</v>
       </c>
       <c r="K495" t="n">
-        <v>8.207698505642009</v>
+        <v>8.207698505641982</v>
       </c>
     </row>
     <row r="496">
@@ -17169,13 +17169,13 @@
         <v>24980</v>
       </c>
       <c r="I497" t="n">
-        <v>22779.10854919372</v>
+        <v>22779.10854919373</v>
       </c>
       <c r="J497" t="n">
-        <v>2200.891450806277</v>
+        <v>2200.891450806273</v>
       </c>
       <c r="K497" t="n">
-        <v>8.810614294660837</v>
+        <v>8.810614294660823</v>
       </c>
     </row>
     <row r="498">
@@ -17235,13 +17235,13 @@
         <v>19800</v>
       </c>
       <c r="I499" t="n">
-        <v>21987.19352236653</v>
+        <v>21987.19352236652</v>
       </c>
       <c r="J499" t="n">
-        <v>2187.193522366528</v>
+        <v>2187.193522366524</v>
       </c>
       <c r="K499" t="n">
-        <v>11.04643193114408</v>
+        <v>11.04643193114406</v>
       </c>
     </row>
     <row r="500">
@@ -17273,10 +17273,10 @@
         <v>15186.75512963545</v>
       </c>
       <c r="J500" t="n">
-        <v>2186.75512963545</v>
+        <v>2186.755129635449</v>
       </c>
       <c r="K500" t="n">
-        <v>16.82119330488808</v>
+        <v>16.82119330488807</v>
       </c>
     </row>
     <row r="501">
@@ -17306,10 +17306,10 @@
         <v>12174.4443140843</v>
       </c>
       <c r="J501" t="n">
-        <v>2184.4443140843</v>
+        <v>2184.444314084301</v>
       </c>
       <c r="K501" t="n">
-        <v>21.86630945029329</v>
+        <v>21.86630945029331</v>
       </c>
     </row>
     <row r="502">
@@ -17444,10 +17444,10 @@
         <v>13166.6605354675</v>
       </c>
       <c r="J505" t="n">
-        <v>2176.660535467498</v>
+        <v>2176.660535467496</v>
       </c>
       <c r="K505" t="n">
-        <v>19.80582834820289</v>
+        <v>19.80582834820287</v>
       </c>
     </row>
     <row r="506">
@@ -17476,13 +17476,13 @@
         <v>9995</v>
       </c>
       <c r="I506" t="n">
-        <v>12168.5584413934</v>
+        <v>12168.55844139339</v>
       </c>
       <c r="J506" t="n">
-        <v>2173.558441393396</v>
+        <v>2173.558441393394</v>
       </c>
       <c r="K506" t="n">
-        <v>21.74645764275533</v>
+        <v>21.74645764275532</v>
       </c>
     </row>
     <row r="507">
@@ -17648,10 +17648,10 @@
         <v>10022.70728105315</v>
       </c>
       <c r="J511" t="n">
-        <v>2122.707281053152</v>
+        <v>2122.707281053154</v>
       </c>
       <c r="K511" t="n">
-        <v>26.86971241839433</v>
+        <v>26.86971241839435</v>
       </c>
     </row>
     <row r="512">
@@ -17814,13 +17814,13 @@
         <v>4950</v>
       </c>
       <c r="I516" t="n">
-        <v>7055.98372326954</v>
+        <v>7055.983723269542</v>
       </c>
       <c r="J516" t="n">
-        <v>2105.98372326954</v>
+        <v>2105.983723269542</v>
       </c>
       <c r="K516" t="n">
-        <v>42.54512572261697</v>
+        <v>42.54512572261701</v>
       </c>
     </row>
     <row r="517">
@@ -17852,10 +17852,10 @@
         <v>15578.86956281061</v>
       </c>
       <c r="J517" t="n">
-        <v>2088.869562810605</v>
+        <v>2088.869562810609</v>
       </c>
       <c r="K517" t="n">
-        <v>15.48457793039737</v>
+        <v>15.4845779303974</v>
       </c>
     </row>
     <row r="518">
@@ -17948,10 +17948,10 @@
         <v>1490</v>
       </c>
       <c r="I520" t="n">
-        <v>3555.488558130228</v>
+        <v>3555.488558130227</v>
       </c>
       <c r="J520" t="n">
-        <v>2065.488558130228</v>
+        <v>2065.488558130227</v>
       </c>
       <c r="K520" t="n">
         <v>138.6233931631025</v>
@@ -18016,13 +18016,13 @@
         <v>6300</v>
       </c>
       <c r="I522" t="n">
-        <v>8348.617969304552</v>
+        <v>8348.617969304551</v>
       </c>
       <c r="J522" t="n">
-        <v>2048.617969304552</v>
+        <v>2048.617969304551</v>
       </c>
       <c r="K522" t="n">
-        <v>32.51774554451671</v>
+        <v>32.51774554451667</v>
       </c>
     </row>
     <row r="523">
@@ -18054,10 +18054,10 @@
         <v>26950.68739682539</v>
       </c>
       <c r="J523" t="n">
-        <v>2036.312603174611</v>
+        <v>2036.312603174607</v>
       </c>
       <c r="K523" t="n">
-        <v>7.024916697742472</v>
+        <v>7.02491669774246</v>
       </c>
     </row>
     <row r="524">
@@ -18117,13 +18117,13 @@
         <v>5950</v>
       </c>
       <c r="I525" t="n">
-        <v>7979.470295516054</v>
+        <v>7979.470295516055</v>
       </c>
       <c r="J525" t="n">
-        <v>2029.470295516054</v>
+        <v>2029.470295516055</v>
       </c>
       <c r="K525" t="n">
-        <v>34.10874446245469</v>
+        <v>34.1087444624547</v>
       </c>
     </row>
     <row r="526">
@@ -18183,13 +18183,13 @@
         <v>11990</v>
       </c>
       <c r="I527" t="n">
-        <v>9979.3032780551</v>
+        <v>9979.303278055102</v>
       </c>
       <c r="J527" t="n">
-        <v>2010.6967219449</v>
+        <v>2010.696721944898</v>
       </c>
       <c r="K527" t="n">
-        <v>16.76978083356881</v>
+        <v>16.76978083356879</v>
       </c>
     </row>
     <row r="528">
@@ -18252,10 +18252,10 @@
         <v>12342.15050601348</v>
       </c>
       <c r="J529" t="n">
-        <v>2002.150506013475</v>
+        <v>2002.150506013479</v>
       </c>
       <c r="K529" t="n">
-        <v>19.36315769838951</v>
+        <v>19.36315769838954</v>
       </c>
     </row>
     <row r="530">
@@ -18285,10 +18285,10 @@
         <v>14990.36010276415</v>
       </c>
       <c r="J530" t="n">
-        <v>2000.360102764147</v>
+        <v>2000.360102764149</v>
       </c>
       <c r="K530" t="n">
-        <v>15.39923096816126</v>
+        <v>15.39923096816127</v>
       </c>
     </row>
     <row r="531">
@@ -18520,10 +18520,10 @@
         <v>16866.65952397643</v>
       </c>
       <c r="J537" t="n">
-        <v>1966.659523976432</v>
+        <v>1966.659523976428</v>
       </c>
       <c r="K537" t="n">
-        <v>13.19905720789552</v>
+        <v>13.19905720789549</v>
       </c>
     </row>
     <row r="538">
@@ -18550,13 +18550,13 @@
         <v>13500</v>
       </c>
       <c r="I538" t="n">
-        <v>11536.01718833474</v>
+        <v>11536.01718833475</v>
       </c>
       <c r="J538" t="n">
-        <v>1963.982811665255</v>
+        <v>1963.982811665253</v>
       </c>
       <c r="K538" t="n">
-        <v>14.54802082715004</v>
+        <v>14.54802082715002</v>
       </c>
     </row>
     <row r="539">
@@ -18717,13 +18717,13 @@
         <v>29995</v>
       </c>
       <c r="I543" t="n">
-        <v>28055.0182958912</v>
+        <v>28055.01829589121</v>
       </c>
       <c r="J543" t="n">
-        <v>1939.981704108795</v>
+        <v>1939.981704108788</v>
       </c>
       <c r="K543" t="n">
-        <v>6.467683627633924</v>
+        <v>6.4676836276339</v>
       </c>
     </row>
     <row r="544">
@@ -18790,10 +18790,10 @@
         <v>15883.86998307063</v>
       </c>
       <c r="J545" t="n">
-        <v>1933.869983070628</v>
+        <v>1933.86998307063</v>
       </c>
       <c r="K545" t="n">
-        <v>13.86286726215504</v>
+        <v>13.86286726215505</v>
       </c>
     </row>
     <row r="546">
@@ -18825,10 +18825,10 @@
         <v>15883.86998307063</v>
       </c>
       <c r="J546" t="n">
-        <v>1933.869983070628</v>
+        <v>1933.86998307063</v>
       </c>
       <c r="K546" t="n">
-        <v>13.86286726215504</v>
+        <v>13.86286726215505</v>
       </c>
     </row>
     <row r="547">
@@ -18890,13 +18890,13 @@
         <v>25895</v>
       </c>
       <c r="I548" t="n">
-        <v>23982.8346069566</v>
+        <v>23982.83460695661</v>
       </c>
       <c r="J548" t="n">
-        <v>1912.165393043397</v>
+        <v>1912.165393043393</v>
       </c>
       <c r="K548" t="n">
-        <v>7.384303506636018</v>
+        <v>7.384303506636004</v>
       </c>
     </row>
     <row r="549">
@@ -18959,10 +18959,10 @@
         <v>16807.25166104157</v>
       </c>
       <c r="J550" t="n">
-        <v>1907.25166104157</v>
+        <v>1907.251661041566</v>
       </c>
       <c r="K550" t="n">
-        <v>12.8003467183998</v>
+        <v>12.80034671839977</v>
       </c>
     </row>
     <row r="551">
@@ -18989,13 +18989,13 @@
         <v>19990</v>
       </c>
       <c r="I551" t="n">
-        <v>18089.0979461933</v>
+        <v>18089.09794619329</v>
       </c>
       <c r="J551" t="n">
-        <v>1900.902053806702</v>
+        <v>1900.902053806705</v>
       </c>
       <c r="K551" t="n">
-        <v>9.509264901484249</v>
+        <v>9.509264901484269</v>
       </c>
     </row>
     <row r="552">
@@ -19027,10 +19027,10 @@
         <v>18848.81081107837</v>
       </c>
       <c r="J552" t="n">
-        <v>1898.810811078365</v>
+        <v>1898.810811078369</v>
       </c>
       <c r="K552" t="n">
-        <v>11.20242366417915</v>
+        <v>11.20242366417917</v>
       </c>
     </row>
     <row r="553">
@@ -19231,10 +19231,10 @@
         <v>16873.19937645427</v>
       </c>
       <c r="J558" t="n">
-        <v>1883.199376454268</v>
+        <v>1883.199376454271</v>
       </c>
       <c r="K558" t="n">
-        <v>12.56303786827397</v>
+        <v>12.56303786827399</v>
       </c>
     </row>
     <row r="559">
@@ -19806,10 +19806,10 @@
         <v>11310.91986825307</v>
       </c>
       <c r="J575" t="n">
-        <v>1811.919868253071</v>
+        <v>1811.919868253073</v>
       </c>
       <c r="K575" t="n">
-        <v>19.07484859725309</v>
+        <v>19.07484859725311</v>
       </c>
     </row>
     <row r="576">
@@ -19973,10 +19973,10 @@
         <v>10184.6107319837</v>
       </c>
       <c r="J580" t="n">
-        <v>1803.389268016301</v>
+        <v>1803.389268016299</v>
       </c>
       <c r="K580" t="n">
-        <v>15.04328718732316</v>
+        <v>15.04328718732315</v>
       </c>
     </row>
     <row r="581">
@@ -20003,13 +20003,13 @@
         <v>2950</v>
       </c>
       <c r="I581" t="n">
-        <v>4748.852071428572</v>
+        <v>4748.852071428571</v>
       </c>
       <c r="J581" t="n">
-        <v>1798.852071428572</v>
+        <v>1798.852071428571</v>
       </c>
       <c r="K581" t="n">
-        <v>60.97803631961262</v>
+        <v>60.97803631961259</v>
       </c>
     </row>
     <row r="582">
@@ -20036,13 +20036,13 @@
         <v>2950</v>
       </c>
       <c r="I582" t="n">
-        <v>4748.852071428572</v>
+        <v>4748.852071428571</v>
       </c>
       <c r="J582" t="n">
-        <v>1798.852071428572</v>
+        <v>1798.852071428571</v>
       </c>
       <c r="K582" t="n">
-        <v>60.97803631961262</v>
+        <v>60.97803631961259</v>
       </c>
     </row>
     <row r="583">
@@ -20145,7 +20145,7 @@
         <v>1786.25075281407</v>
       </c>
       <c r="K585" t="n">
-        <v>26.46297411576399</v>
+        <v>26.46297411576401</v>
       </c>
     </row>
     <row r="586">
@@ -20411,13 +20411,13 @@
         <v>3950</v>
       </c>
       <c r="I593" t="n">
-        <v>5701.702656819561</v>
+        <v>5701.702656819562</v>
       </c>
       <c r="J593" t="n">
-        <v>1751.702656819561</v>
+        <v>1751.702656819562</v>
       </c>
       <c r="K593" t="n">
-        <v>44.34690270429267</v>
+        <v>44.3469027042927</v>
       </c>
     </row>
     <row r="594">
@@ -20452,7 +20452,7 @@
         <v>1750.713845418471</v>
       </c>
       <c r="K594" t="n">
-        <v>70.05657644731779</v>
+        <v>70.05657644731774</v>
       </c>
     </row>
     <row r="595">
@@ -20551,7 +20551,7 @@
         <v>1742.046088362104</v>
       </c>
       <c r="K597" t="n">
-        <v>21.9125294133598</v>
+        <v>21.91252941335981</v>
       </c>
     </row>
     <row r="598">
@@ -20813,13 +20813,13 @@
         <v>27890</v>
       </c>
       <c r="I605" t="n">
-        <v>26170.51818146912</v>
+        <v>26170.51818146911</v>
       </c>
       <c r="J605" t="n">
-        <v>1719.48181853088</v>
+        <v>1719.481818530887</v>
       </c>
       <c r="K605" t="n">
-        <v>6.165227029511938</v>
+        <v>6.165227029511963</v>
       </c>
     </row>
     <row r="606">
@@ -20912,13 +20912,13 @@
         <v>11990</v>
       </c>
       <c r="I608" t="n">
-        <v>13691.704027067</v>
+        <v>13691.70402706701</v>
       </c>
       <c r="J608" t="n">
-        <v>1701.704027067004</v>
+        <v>1701.704027067006</v>
       </c>
       <c r="K608" t="n">
-        <v>14.19269413733948</v>
+        <v>14.1926941373395</v>
       </c>
     </row>
     <row r="609">
@@ -20945,13 +20945,13 @@
         <v>14900</v>
       </c>
       <c r="I609" t="n">
-        <v>16598.14022613989</v>
+        <v>16598.14022613988</v>
       </c>
       <c r="J609" t="n">
-        <v>1698.140226139887</v>
+        <v>1698.140226139883</v>
       </c>
       <c r="K609" t="n">
-        <v>11.39691426939522</v>
+        <v>11.39691426939519</v>
       </c>
     </row>
     <row r="610">
@@ -20978,13 +20978,13 @@
         <v>7999</v>
       </c>
       <c r="I610" t="n">
-        <v>6305.710281416403</v>
+        <v>6305.710281416404</v>
       </c>
       <c r="J610" t="n">
-        <v>1693.289718583597</v>
+        <v>1693.289718583596</v>
       </c>
       <c r="K610" t="n">
-        <v>21.16876757824225</v>
+        <v>21.16876757824224</v>
       </c>
     </row>
     <row r="611">
@@ -21013,13 +21013,13 @@
         <v>7900</v>
       </c>
       <c r="I611" t="n">
-        <v>9588.885682557768</v>
+        <v>9588.88568255777</v>
       </c>
       <c r="J611" t="n">
-        <v>1688.885682557768</v>
+        <v>1688.88568255777</v>
       </c>
       <c r="K611" t="n">
-        <v>21.37829977921225</v>
+        <v>21.37829977921227</v>
       </c>
     </row>
     <row r="612">
@@ -21079,13 +21079,13 @@
         <v>8990</v>
       </c>
       <c r="I613" t="n">
-        <v>7304.52781252568</v>
+        <v>7304.527812525679</v>
       </c>
       <c r="J613" t="n">
-        <v>1685.47218747432</v>
+        <v>1685.472187474321</v>
       </c>
       <c r="K613" t="n">
-        <v>18.74830019437508</v>
+        <v>18.74830019437509</v>
       </c>
     </row>
     <row r="614">
@@ -21182,13 +21182,13 @@
         <v>4445</v>
       </c>
       <c r="I616" t="n">
-        <v>6125.123773799092</v>
+        <v>6125.123773799091</v>
       </c>
       <c r="J616" t="n">
-        <v>1680.123773799092</v>
+        <v>1680.123773799091</v>
       </c>
       <c r="K616" t="n">
-        <v>37.79806015296045</v>
+        <v>37.79806015296043</v>
       </c>
     </row>
     <row r="617">
@@ -21488,10 +21488,10 @@
         <v>27629.42386092617</v>
       </c>
       <c r="J625" t="n">
-        <v>1659.42386092617</v>
+        <v>1659.423860926167</v>
       </c>
       <c r="K625" t="n">
-        <v>6.389772279269041</v>
+        <v>6.389772279269028</v>
       </c>
     </row>
     <row r="626">
@@ -21554,10 +21554,10 @@
         <v>25097.12490023957</v>
       </c>
       <c r="J627" t="n">
-        <v>1652.875099760433</v>
+        <v>1652.875099760429</v>
       </c>
       <c r="K627" t="n">
-        <v>6.178972335553021</v>
+        <v>6.178972335553007</v>
       </c>
     </row>
     <row r="628">
@@ -21652,13 +21652,13 @@
         <v>4750</v>
       </c>
       <c r="I630" t="n">
-        <v>6387.6299958706</v>
+        <v>6387.629995870599</v>
       </c>
       <c r="J630" t="n">
-        <v>1637.6299958706</v>
+        <v>1637.629995870599</v>
       </c>
       <c r="K630" t="n">
-        <v>34.47642096569685</v>
+        <v>34.47642096569683</v>
       </c>
     </row>
     <row r="631">
@@ -21791,10 +21791,10 @@
         <v>12323.10255965177</v>
       </c>
       <c r="J634" t="n">
-        <v>1626.897440348228</v>
+        <v>1626.897440348226</v>
       </c>
       <c r="K634" t="n">
-        <v>11.66234724263963</v>
+        <v>11.66234724263961</v>
       </c>
     </row>
     <row r="635">
@@ -21887,13 +21887,13 @@
         <v>17200</v>
       </c>
       <c r="I637" t="n">
-        <v>18816.42355611999</v>
+        <v>18816.42355612</v>
       </c>
       <c r="J637" t="n">
-        <v>1616.423556119993</v>
+        <v>1616.423556119997</v>
       </c>
       <c r="K637" t="n">
-        <v>9.397811372790656</v>
+        <v>9.397811372790677</v>
       </c>
     </row>
     <row r="638">
@@ -21923,10 +21923,10 @@
         <v>16133.84896628999</v>
       </c>
       <c r="J638" t="n">
-        <v>1616.151033710008</v>
+        <v>1616.151033710006</v>
       </c>
       <c r="K638" t="n">
-        <v>9.105076246253565</v>
+        <v>9.105076246253557</v>
       </c>
     </row>
     <row r="639">
@@ -21988,13 +21988,13 @@
         <v>7900</v>
       </c>
       <c r="I640" t="n">
-        <v>9514.36852925729</v>
+        <v>9514.368529257288</v>
       </c>
       <c r="J640" t="n">
-        <v>1614.36852925729</v>
+        <v>1614.368529257288</v>
       </c>
       <c r="K640" t="n">
-        <v>20.43504467414291</v>
+        <v>20.43504467414289</v>
       </c>
     </row>
     <row r="641">
@@ -22057,10 +22057,10 @@
         <v>15296.69111528448</v>
       </c>
       <c r="J642" t="n">
-        <v>1606.691115284482</v>
+        <v>1606.69111528448</v>
       </c>
       <c r="K642" t="n">
-        <v>11.73623897212916</v>
+        <v>11.73623897212915</v>
       </c>
     </row>
     <row r="643">
@@ -22258,13 +22258,13 @@
         <v>4800</v>
       </c>
       <c r="I648" t="n">
-        <v>6373.922821150541</v>
+        <v>6373.92282115054</v>
       </c>
       <c r="J648" t="n">
-        <v>1573.922821150541</v>
+        <v>1573.92282115054</v>
       </c>
       <c r="K648" t="n">
-        <v>32.7900587739696</v>
+        <v>32.79005877396958</v>
       </c>
     </row>
     <row r="649">
@@ -22328,13 +22328,13 @@
         <v>23990</v>
       </c>
       <c r="I650" t="n">
-        <v>22417.26125602175</v>
+        <v>22417.26125602176</v>
       </c>
       <c r="J650" t="n">
-        <v>1572.738743978247</v>
+        <v>1572.73874397824</v>
       </c>
       <c r="K650" t="n">
-        <v>6.555809687279062</v>
+        <v>6.555809687279032</v>
       </c>
     </row>
     <row r="651">
@@ -22361,13 +22361,13 @@
         <v>6300</v>
       </c>
       <c r="I651" t="n">
-        <v>7868.514452583331</v>
+        <v>7868.51445258333</v>
       </c>
       <c r="J651" t="n">
-        <v>1568.514452583331</v>
+        <v>1568.51445258333</v>
       </c>
       <c r="K651" t="n">
-        <v>24.89705480291002</v>
+        <v>24.89705480291001</v>
       </c>
     </row>
     <row r="652">
@@ -22427,13 +22427,13 @@
         <v>14400</v>
       </c>
       <c r="I653" t="n">
-        <v>12843.55650775618</v>
+        <v>12843.55650775619</v>
       </c>
       <c r="J653" t="n">
-        <v>1556.443492243816</v>
+        <v>1556.443492243814</v>
       </c>
       <c r="K653" t="n">
-        <v>10.80863536280428</v>
+        <v>10.80863536280427</v>
       </c>
     </row>
     <row r="654">
@@ -22465,10 +22465,10 @@
         <v>20434.34521528886</v>
       </c>
       <c r="J654" t="n">
-        <v>1555.65478471114</v>
+        <v>1555.654784711143</v>
       </c>
       <c r="K654" t="n">
-        <v>7.074373736749156</v>
+        <v>7.074373736749173</v>
       </c>
     </row>
     <row r="655">
@@ -22629,13 +22629,13 @@
         <v>8500</v>
       </c>
       <c r="I659" t="n">
-        <v>6955.684140051773</v>
+        <v>6955.684140051774</v>
       </c>
       <c r="J659" t="n">
-        <v>1544.315859948227</v>
+        <v>1544.315859948226</v>
       </c>
       <c r="K659" t="n">
-        <v>18.16842188174384</v>
+        <v>18.16842188174383</v>
       </c>
     </row>
     <row r="660">
@@ -22697,13 +22697,13 @@
         <v>2999</v>
       </c>
       <c r="I661" t="n">
-        <v>4533.102219914261</v>
+        <v>4533.10221991426</v>
       </c>
       <c r="J661" t="n">
-        <v>1534.102219914261</v>
+        <v>1534.10221991426</v>
       </c>
       <c r="K661" t="n">
-        <v>51.15379192778462</v>
+        <v>51.15379192778459</v>
       </c>
     </row>
     <row r="662">
@@ -22829,13 +22829,13 @@
         <v>29900</v>
       </c>
       <c r="I665" t="n">
-        <v>28383.97542231552</v>
+        <v>28383.97542231553</v>
       </c>
       <c r="J665" t="n">
-        <v>1516.024577684479</v>
+        <v>1516.024577684471</v>
       </c>
       <c r="K665" t="n">
-        <v>5.070316313326016</v>
+        <v>5.07031631332599</v>
       </c>
     </row>
     <row r="666">
@@ -22865,10 +22865,10 @@
         <v>10251.23420852401</v>
       </c>
       <c r="J666" t="n">
-        <v>1501.234208524007</v>
+        <v>1501.234208524009</v>
       </c>
       <c r="K666" t="n">
-        <v>17.15696238313151</v>
+        <v>17.15696238313153</v>
       </c>
     </row>
     <row r="667">
@@ -22930,13 +22930,13 @@
         <v>13445</v>
       </c>
       <c r="I668" t="n">
-        <v>11952.75045512094</v>
+        <v>11952.75045512093</v>
       </c>
       <c r="J668" t="n">
-        <v>1492.249544879063</v>
+        <v>1492.249544879065</v>
       </c>
       <c r="K668" t="n">
-        <v>11.09891814711092</v>
+        <v>11.09891814711093</v>
       </c>
     </row>
     <row r="669">
@@ -22968,10 +22968,10 @@
         <v>13390.75224603175</v>
       </c>
       <c r="J669" t="n">
-        <v>1490.752246031754</v>
+        <v>1490.752246031752</v>
       </c>
       <c r="K669" t="n">
-        <v>12.52732979858617</v>
+        <v>12.52732979858616</v>
       </c>
     </row>
     <row r="670">
@@ -23033,13 +23033,13 @@
         <v>18900</v>
       </c>
       <c r="I671" t="n">
-        <v>17416.65245830733</v>
+        <v>17416.65245830734</v>
       </c>
       <c r="J671" t="n">
-        <v>1483.347541692667</v>
+        <v>1483.347541692663</v>
       </c>
       <c r="K671" t="n">
-        <v>7.848399691495591</v>
+        <v>7.848399691495572</v>
       </c>
     </row>
     <row r="672">
@@ -23102,10 +23102,10 @@
         <v>18420.86444072333</v>
       </c>
       <c r="J673" t="n">
-        <v>1479.135559276667</v>
+        <v>1479.13555927667</v>
       </c>
       <c r="K673" t="n">
-        <v>7.43284200641541</v>
+        <v>7.432842006415429</v>
       </c>
     </row>
     <row r="674">
@@ -23137,10 +23137,10 @@
         <v>13424.27782945527</v>
       </c>
       <c r="J674" t="n">
-        <v>1474.27782945527</v>
+        <v>1474.277829455268</v>
       </c>
       <c r="K674" t="n">
-        <v>12.33705296615289</v>
+        <v>12.33705296615287</v>
       </c>
     </row>
     <row r="675">
@@ -23268,13 +23268,13 @@
         <v>21995</v>
       </c>
       <c r="I678" t="n">
-        <v>23456.85001520456</v>
+        <v>23456.85001520457</v>
       </c>
       <c r="J678" t="n">
-        <v>1461.850015204564</v>
+        <v>1461.850015204567</v>
       </c>
       <c r="K678" t="n">
-        <v>6.646283315319679</v>
+        <v>6.646283315319696</v>
       </c>
     </row>
     <row r="679">
@@ -23303,13 +23303,13 @@
         <v>4500</v>
       </c>
       <c r="I679" t="n">
-        <v>5957.764845418473</v>
+        <v>5957.764845418471</v>
       </c>
       <c r="J679" t="n">
-        <v>1457.764845418473</v>
+        <v>1457.764845418471</v>
       </c>
       <c r="K679" t="n">
-        <v>32.39477434263273</v>
+        <v>32.39477434263269</v>
       </c>
     </row>
     <row r="680">
@@ -23574,10 +23574,10 @@
         <v>13061.69658086554</v>
       </c>
       <c r="J687" t="n">
-        <v>1441.696580865537</v>
+        <v>1441.696580865539</v>
       </c>
       <c r="K687" t="n">
-        <v>12.40702737405798</v>
+        <v>12.40702737405799</v>
       </c>
     </row>
     <row r="688">
@@ -23670,13 +23670,13 @@
         <v>4745</v>
       </c>
       <c r="I690" t="n">
-        <v>6158.580858874978</v>
+        <v>6158.580858874976</v>
       </c>
       <c r="J690" t="n">
-        <v>1413.580858874978</v>
+        <v>1413.580858874976</v>
       </c>
       <c r="K690" t="n">
-        <v>29.79095592992577</v>
+        <v>29.79095592992573</v>
       </c>
     </row>
     <row r="691">
@@ -23882,7 +23882,7 @@
         <v>1379.204319524471</v>
       </c>
       <c r="K696" t="n">
-        <v>28.14702692907084</v>
+        <v>28.14702692907083</v>
       </c>
     </row>
     <row r="697">
@@ -23979,13 +23979,13 @@
         <v>2499</v>
       </c>
       <c r="I699" t="n">
-        <v>3874.511421251349</v>
+        <v>3874.51142125135</v>
       </c>
       <c r="J699" t="n">
-        <v>1375.511421251349</v>
+        <v>1375.51142125135</v>
       </c>
       <c r="K699" t="n">
-        <v>55.04247383958981</v>
+        <v>55.04247383958983</v>
       </c>
     </row>
     <row r="700">
@@ -24116,10 +24116,10 @@
         <v>15154.28953671179</v>
       </c>
       <c r="J703" t="n">
-        <v>1364.289536711787</v>
+        <v>1364.289536711785</v>
       </c>
       <c r="K703" t="n">
-        <v>9.893325139316804</v>
+        <v>9.893325139316792</v>
       </c>
     </row>
     <row r="704">
@@ -24282,13 +24282,13 @@
         <v>7800</v>
       </c>
       <c r="I708" t="n">
-        <v>6449.262149877901</v>
+        <v>6449.262149877902</v>
       </c>
       <c r="J708" t="n">
-        <v>1350.737850122099</v>
+        <v>1350.737850122098</v>
       </c>
       <c r="K708" t="n">
-        <v>17.3171519246423</v>
+        <v>17.31715192464229</v>
       </c>
     </row>
     <row r="709">
@@ -24484,13 +24484,13 @@
         <v>9990</v>
       </c>
       <c r="I714" t="n">
-        <v>11322.4332678946</v>
+        <v>11322.43326789461</v>
       </c>
       <c r="J714" t="n">
-        <v>1332.433267894603</v>
+        <v>1332.433267894607</v>
       </c>
       <c r="K714" t="n">
-        <v>13.33767034929532</v>
+        <v>13.33767034929536</v>
       </c>
     </row>
     <row r="715">
@@ -24620,13 +24620,13 @@
         <v>10950</v>
       </c>
       <c r="I718" t="n">
-        <v>12264.91190117675</v>
+        <v>12264.91190117674</v>
       </c>
       <c r="J718" t="n">
-        <v>1314.911901176747</v>
+        <v>1314.911901176743</v>
       </c>
       <c r="K718" t="n">
-        <v>12.00832786462783</v>
+        <v>12.00832786462779</v>
       </c>
     </row>
     <row r="719">
@@ -24926,10 +24926,10 @@
         <v>15003.82228174603</v>
       </c>
       <c r="J727" t="n">
-        <v>1286.177718253966</v>
+        <v>1286.17771825397</v>
       </c>
       <c r="K727" t="n">
-        <v>7.895504716107835</v>
+        <v>7.895504716107857</v>
       </c>
     </row>
     <row r="728">
@@ -25095,10 +25095,10 @@
         <v>16230.34368401344</v>
       </c>
       <c r="J732" t="n">
-        <v>1280.343684013442</v>
+        <v>1280.34368401344</v>
       </c>
       <c r="K732" t="n">
-        <v>8.564171799421015</v>
+        <v>8.564171799421002</v>
       </c>
     </row>
     <row r="733">
@@ -25125,13 +25125,13 @@
         <v>14999</v>
       </c>
       <c r="I733" t="n">
-        <v>13719.13981885808</v>
+        <v>13719.13981885807</v>
       </c>
       <c r="J733" t="n">
-        <v>1279.860181141925</v>
+        <v>1279.860181141927</v>
       </c>
       <c r="K733" t="n">
-        <v>8.532970072284318</v>
+        <v>8.53297007228433</v>
       </c>
     </row>
     <row r="734">
@@ -25226,13 +25226,13 @@
         <v>20950</v>
       </c>
       <c r="I736" t="n">
-        <v>22222.51759972528</v>
+        <v>22222.51759972527</v>
       </c>
       <c r="J736" t="n">
-        <v>1272.517599725277</v>
+        <v>1272.51759972527</v>
       </c>
       <c r="K736" t="n">
-        <v>6.074069688426144</v>
+        <v>6.07406968842611</v>
       </c>
     </row>
     <row r="737">
@@ -25261,13 +25261,13 @@
         <v>1999</v>
       </c>
       <c r="I737" t="n">
-        <v>3270.225118517914</v>
+        <v>3270.225118517915</v>
       </c>
       <c r="J737" t="n">
-        <v>1271.225118517914</v>
+        <v>1271.225118517915</v>
       </c>
       <c r="K737" t="n">
-        <v>63.59305245212175</v>
+        <v>63.5930524521218</v>
       </c>
     </row>
     <row r="738">
@@ -25363,10 +25363,10 @@
         <v>12746.02226249838</v>
       </c>
       <c r="J740" t="n">
-        <v>1256.02226249838</v>
+        <v>1256.022262498378</v>
       </c>
       <c r="K740" t="n">
-        <v>10.93143831591279</v>
+        <v>10.93143831591278</v>
       </c>
     </row>
     <row r="741">
@@ -25396,10 +25396,10 @@
         <v>15543.13351728527</v>
       </c>
       <c r="J741" t="n">
-        <v>1255.866482714731</v>
+        <v>1255.86648271473</v>
       </c>
       <c r="K741" t="n">
-        <v>7.475840720963934</v>
+        <v>7.475840720963923</v>
       </c>
     </row>
     <row r="742">
@@ -25426,13 +25426,13 @@
         <v>6500</v>
       </c>
       <c r="I742" t="n">
-        <v>7755.056643074138</v>
+        <v>7755.05664307414</v>
       </c>
       <c r="J742" t="n">
-        <v>1255.056643074138</v>
+        <v>1255.05664307414</v>
       </c>
       <c r="K742" t="n">
-        <v>19.30856373960213</v>
+        <v>19.30856373960215</v>
       </c>
     </row>
     <row r="743">
@@ -25494,13 +25494,13 @@
         <v>6900</v>
       </c>
       <c r="I744" t="n">
-        <v>8150.340540892099</v>
+        <v>8150.340540892098</v>
       </c>
       <c r="J744" t="n">
-        <v>1250.340540892099</v>
+        <v>1250.340540892098</v>
       </c>
       <c r="K744" t="n">
-        <v>18.12087740423332</v>
+        <v>18.1208774042333</v>
       </c>
     </row>
     <row r="745">
@@ -25566,7 +25566,7 @@
         <v>1249.01053994936</v>
       </c>
       <c r="K746" t="n">
-        <v>21.16967016863323</v>
+        <v>21.16967016863321</v>
       </c>
     </row>
     <row r="747">
@@ -25760,13 +25760,13 @@
         <v>12900</v>
       </c>
       <c r="I752" t="n">
-        <v>14115.37721659045</v>
+        <v>14115.37721659046</v>
       </c>
       <c r="J752" t="n">
-        <v>1215.377216590454</v>
+        <v>1215.377216590457</v>
       </c>
       <c r="K752" t="n">
-        <v>9.421528810778712</v>
+        <v>9.42152881077874</v>
       </c>
     </row>
     <row r="753">
@@ -25826,13 +25826,13 @@
         <v>28750</v>
       </c>
       <c r="I754" t="n">
-        <v>29958.59581904975</v>
+        <v>29958.59581904976</v>
       </c>
       <c r="J754" t="n">
-        <v>1208.595819049751</v>
+        <v>1208.595819049759</v>
       </c>
       <c r="K754" t="n">
-        <v>4.203811544520874</v>
+        <v>4.203811544520899</v>
       </c>
     </row>
     <row r="755">
@@ -25899,10 +25899,10 @@
         <v>10789.2559375616</v>
       </c>
       <c r="J756" t="n">
-        <v>1200.744062438398</v>
+        <v>1200.744062438396</v>
       </c>
       <c r="K756" t="n">
-        <v>10.0145459752994</v>
+        <v>10.01454597529938</v>
       </c>
     </row>
     <row r="757">
@@ -25998,10 +25998,10 @@
         <v>13683.65409722222</v>
       </c>
       <c r="J759" t="n">
-        <v>1184.654097222223</v>
+        <v>1184.654097222225</v>
       </c>
       <c r="K759" t="n">
-        <v>9.477991017059146</v>
+        <v>9.477991017059162</v>
       </c>
     </row>
     <row r="760">
@@ -26158,13 +26158,13 @@
         <v>7250</v>
       </c>
       <c r="I764" t="n">
-        <v>6087.26787022779</v>
+        <v>6087.267870227791</v>
       </c>
       <c r="J764" t="n">
-        <v>1162.73212977221</v>
+        <v>1162.732129772209</v>
       </c>
       <c r="K764" t="n">
-        <v>16.03768454858221</v>
+        <v>16.0376845485822</v>
       </c>
     </row>
     <row r="765">
@@ -26196,10 +26196,10 @@
         <v>12338.15700644074</v>
       </c>
       <c r="J765" t="n">
-        <v>1161.842993559259</v>
+        <v>1161.842993559263</v>
       </c>
       <c r="K765" t="n">
-        <v>8.606244396735255</v>
+        <v>8.606244396735283</v>
       </c>
     </row>
     <row r="766">
@@ -26259,13 +26259,13 @@
         <v>5500</v>
       </c>
       <c r="I767" t="n">
-        <v>6658.540358111852</v>
+        <v>6658.54035811185</v>
       </c>
       <c r="J767" t="n">
-        <v>1158.540358111852</v>
+        <v>1158.54035811185</v>
       </c>
       <c r="K767" t="n">
-        <v>21.06437014748821</v>
+        <v>21.06437014748818</v>
       </c>
     </row>
     <row r="768">
@@ -26292,13 +26292,13 @@
         <v>4450</v>
       </c>
       <c r="I768" t="n">
-        <v>5605.36042063492</v>
+        <v>5605.360420634919</v>
       </c>
       <c r="J768" t="n">
-        <v>1155.36042063492</v>
+        <v>1155.360420634919</v>
       </c>
       <c r="K768" t="n">
-        <v>25.96315551988584</v>
+        <v>25.96315551988582</v>
       </c>
     </row>
     <row r="769">
@@ -26563,10 +26563,10 @@
         <v>17297.11830013123</v>
       </c>
       <c r="J776" t="n">
-        <v>1122.881699868773</v>
+        <v>1122.881699868765</v>
       </c>
       <c r="K776" t="n">
-        <v>6.095991855965107</v>
+        <v>6.095991855965067</v>
       </c>
     </row>
     <row r="777">
@@ -26661,13 +26661,13 @@
         <v>5900</v>
       </c>
       <c r="I779" t="n">
-        <v>7018.11583495671</v>
+        <v>7018.115834956711</v>
       </c>
       <c r="J779" t="n">
-        <v>1118.11583495671</v>
+        <v>1118.115834956711</v>
       </c>
       <c r="K779" t="n">
-        <v>18.9511158467239</v>
+        <v>18.95111584672392</v>
       </c>
     </row>
     <row r="780">
@@ -26762,13 +26762,13 @@
         <v>32900</v>
       </c>
       <c r="I782" t="n">
-        <v>31794.78885423239</v>
+        <v>31794.7888542324</v>
       </c>
       <c r="J782" t="n">
-        <v>1105.211145767607</v>
+        <v>1105.211145767604</v>
       </c>
       <c r="K782" t="n">
-        <v>3.359304394430418</v>
+        <v>3.359304394430406</v>
       </c>
     </row>
     <row r="783">
@@ -26865,13 +26865,13 @@
         <v>16500</v>
       </c>
       <c r="I785" t="n">
-        <v>15399.5018584056</v>
+        <v>15399.50185840559</v>
       </c>
       <c r="J785" t="n">
-        <v>1100.498141594404</v>
+        <v>1100.498141594406</v>
       </c>
       <c r="K785" t="n">
-        <v>6.669685706632752</v>
+        <v>6.669685706632762</v>
       </c>
     </row>
     <row r="786">
@@ -26900,13 +26900,13 @@
         <v>6900</v>
       </c>
       <c r="I786" t="n">
-        <v>5802.24840594498</v>
+        <v>5802.248405944981</v>
       </c>
       <c r="J786" t="n">
-        <v>1097.75159405502</v>
+        <v>1097.751594055019</v>
       </c>
       <c r="K786" t="n">
-        <v>15.90944339210174</v>
+        <v>15.90944339210173</v>
       </c>
     </row>
     <row r="787">
@@ -27041,10 +27041,10 @@
         <v>18899.19275284803</v>
       </c>
       <c r="J790" t="n">
-        <v>1090.807247151974</v>
+        <v>1090.80724715197</v>
       </c>
       <c r="K790" t="n">
-        <v>5.456764618068902</v>
+        <v>5.456764618068884</v>
       </c>
     </row>
     <row r="791">
@@ -27074,10 +27074,10 @@
         <v>10987.04287554112</v>
       </c>
       <c r="J791" t="n">
-        <v>1087.042875541119</v>
+        <v>1087.042875541123</v>
       </c>
       <c r="K791" t="n">
-        <v>10.98023106607191</v>
+        <v>10.98023106607195</v>
       </c>
     </row>
     <row r="792">
@@ -27104,13 +27104,13 @@
         <v>1699</v>
       </c>
       <c r="I792" t="n">
-        <v>2784.551826004031</v>
+        <v>2784.55182600403</v>
       </c>
       <c r="J792" t="n">
-        <v>1085.551826004031</v>
+        <v>1085.55182600403</v>
       </c>
       <c r="K792" t="n">
-        <v>63.89357422036673</v>
+        <v>63.8935742203667</v>
       </c>
     </row>
     <row r="793">
@@ -27209,13 +27209,13 @@
         <v>10700</v>
       </c>
       <c r="I795" t="n">
-        <v>9618.813110505325</v>
+        <v>9618.813110505323</v>
       </c>
       <c r="J795" t="n">
-        <v>1081.186889494675</v>
+        <v>1081.186889494677</v>
       </c>
       <c r="K795" t="n">
-        <v>10.10455036910911</v>
+        <v>10.10455036910913</v>
       </c>
     </row>
     <row r="796">
@@ -27276,10 +27276,10 @@
         <v>20913.9134728739</v>
       </c>
       <c r="J797" t="n">
-        <v>1076.086527126099</v>
+        <v>1076.086527126103</v>
       </c>
       <c r="K797" t="n">
-        <v>4.893526726357885</v>
+        <v>4.893526726357902</v>
       </c>
     </row>
     <row r="798">
@@ -27508,13 +27508,13 @@
         <v>28900</v>
       </c>
       <c r="I804" t="n">
-        <v>27860.01485804475</v>
+        <v>27860.01485804474</v>
       </c>
       <c r="J804" t="n">
-        <v>1039.985141955254</v>
+        <v>1039.985141955261</v>
       </c>
       <c r="K804" t="n">
-        <v>3.598564505035482</v>
+        <v>3.598564505035507</v>
       </c>
     </row>
     <row r="805">
@@ -27544,10 +27544,10 @@
         <v>23361.46734611786</v>
       </c>
       <c r="J805" t="n">
-        <v>1038.532653882139</v>
+        <v>1038.532653882135</v>
       </c>
       <c r="K805" t="n">
-        <v>4.256281368369423</v>
+        <v>4.256281368369407</v>
       </c>
     </row>
     <row r="806">
@@ -27577,10 +27577,10 @@
         <v>18983.98320948013</v>
       </c>
       <c r="J806" t="n">
-        <v>1033.983209480131</v>
+        <v>1033.983209480135</v>
       </c>
       <c r="K806" t="n">
-        <v>5.760352141950593</v>
+        <v>5.760352141950612</v>
       </c>
     </row>
     <row r="807">
@@ -27642,13 +27642,13 @@
         <v>6450</v>
       </c>
       <c r="I808" t="n">
-        <v>7476.042365734524</v>
+        <v>7476.042365734523</v>
       </c>
       <c r="J808" t="n">
-        <v>1026.042365734524</v>
+        <v>1026.042365734523</v>
       </c>
       <c r="K808" t="n">
-        <v>15.90763357727944</v>
+        <v>15.90763357727942</v>
       </c>
     </row>
     <row r="809">
@@ -27680,10 +27680,10 @@
         <v>11015.45684827527</v>
       </c>
       <c r="J809" t="n">
-        <v>1025.456848275273</v>
+        <v>1025.456848275275</v>
       </c>
       <c r="K809" t="n">
-        <v>10.2648333160688</v>
+        <v>10.26483331606881</v>
       </c>
     </row>
     <row r="810">
@@ -27814,10 +27814,10 @@
         <v>14487.35889519141</v>
       </c>
       <c r="J813" t="n">
-        <v>1002.64110480859</v>
+        <v>1002.641104808592</v>
       </c>
       <c r="K813" t="n">
-        <v>6.472828307350485</v>
+        <v>6.472828307350498</v>
       </c>
     </row>
     <row r="814">
@@ -27844,13 +27844,13 @@
         <v>11950</v>
       </c>
       <c r="I814" t="n">
-        <v>12951.03983214769</v>
+        <v>12951.0398321477</v>
       </c>
       <c r="J814" t="n">
-        <v>1001.039832147693</v>
+        <v>1001.039832147697</v>
       </c>
       <c r="K814" t="n">
-        <v>8.376902361068563</v>
+        <v>8.376902361068593</v>
       </c>
     </row>
     <row r="815">
@@ -27915,10 +27915,10 @@
         <v>13896.28711111112</v>
       </c>
       <c r="J816" t="n">
-        <v>996.2871111111181</v>
+        <v>996.2871111111162</v>
       </c>
       <c r="K816" t="n">
-        <v>7.723155900086186</v>
+        <v>7.723155900086172</v>
       </c>
     </row>
     <row r="817">
@@ -27945,13 +27945,13 @@
         <v>3900</v>
       </c>
       <c r="I817" t="n">
-        <v>2904.227535067914</v>
+        <v>2904.227535067915</v>
       </c>
       <c r="J817" t="n">
-        <v>995.7724649320858</v>
+        <v>995.7724649320853</v>
       </c>
       <c r="K817" t="n">
-        <v>25.53262730595091</v>
+        <v>25.5326273059509</v>
       </c>
     </row>
     <row r="818">
@@ -27983,10 +27983,10 @@
         <v>10406.47093259723</v>
       </c>
       <c r="J818" t="n">
-        <v>993.5290674027692</v>
+        <v>993.529067402771</v>
       </c>
       <c r="K818" t="n">
-        <v>8.715167257919029</v>
+        <v>8.715167257919044</v>
       </c>
     </row>
     <row r="819">
@@ -28016,10 +28016,10 @@
         <v>12452.68458528542</v>
       </c>
       <c r="J819" t="n">
-        <v>992.3154147145779</v>
+        <v>992.3154147145797</v>
       </c>
       <c r="K819" t="n">
-        <v>7.380553475006157</v>
+        <v>7.380553475006171</v>
       </c>
     </row>
     <row r="820">
@@ -28114,13 +28114,13 @@
         <v>8750</v>
       </c>
       <c r="I822" t="n">
-        <v>9734.263165784012</v>
+        <v>9734.263165784008</v>
       </c>
       <c r="J822" t="n">
-        <v>984.263165784012</v>
+        <v>984.2631657840084</v>
       </c>
       <c r="K822" t="n">
-        <v>11.24872189467442</v>
+        <v>11.24872189467438</v>
       </c>
     </row>
     <row r="823">
@@ -28149,13 +28149,13 @@
         <v>18990</v>
       </c>
       <c r="I823" t="n">
-        <v>18008.5346332564</v>
+        <v>18008.53463325641</v>
       </c>
       <c r="J823" t="n">
-        <v>981.465366743596</v>
+        <v>981.4653667435923</v>
       </c>
       <c r="K823" t="n">
-        <v>5.168327365685076</v>
+        <v>5.168327365685057</v>
       </c>
     </row>
     <row r="824">
@@ -28184,13 +28184,13 @@
         <v>14200</v>
       </c>
       <c r="I824" t="n">
-        <v>13220.49017737125</v>
+        <v>13220.49017737124</v>
       </c>
       <c r="J824" t="n">
-        <v>979.5098226287537</v>
+        <v>979.5098226287573</v>
       </c>
       <c r="K824" t="n">
-        <v>6.897956497385588</v>
+        <v>6.897956497385615</v>
       </c>
     </row>
     <row r="825">
@@ -28287,13 +28287,13 @@
         <v>14990</v>
       </c>
       <c r="I827" t="n">
-        <v>14023.16648067844</v>
+        <v>14023.16648067845</v>
       </c>
       <c r="J827" t="n">
-        <v>966.8335193215571</v>
+        <v>966.8335193215535</v>
       </c>
       <c r="K827" t="n">
-        <v>6.449856699943677</v>
+        <v>6.449856699943652</v>
       </c>
     </row>
     <row r="828">
@@ -28353,13 +28353,13 @@
         <v>15980</v>
       </c>
       <c r="I829" t="n">
-        <v>16946.42057541071</v>
+        <v>16946.4205754107</v>
       </c>
       <c r="J829" t="n">
-        <v>966.4205754107061</v>
+        <v>966.4205754107024</v>
       </c>
       <c r="K829" t="n">
-        <v>6.047688206575132</v>
+        <v>6.047688206575109</v>
       </c>
     </row>
     <row r="830">
@@ -28594,13 +28594,13 @@
         <v>7990</v>
       </c>
       <c r="I836" t="n">
-        <v>8932.386902184369</v>
+        <v>8932.386902184371</v>
       </c>
       <c r="J836" t="n">
-        <v>942.3869021843693</v>
+        <v>942.3869021843711</v>
       </c>
       <c r="K836" t="n">
-        <v>11.79457950168172</v>
+        <v>11.79457950168174</v>
       </c>
     </row>
     <row r="837">
@@ -28763,13 +28763,13 @@
         <v>5349</v>
       </c>
       <c r="I841" t="n">
-        <v>4421.267103641686</v>
+        <v>4421.267103641685</v>
       </c>
       <c r="J841" t="n">
-        <v>927.7328963583141</v>
+        <v>927.732896358315</v>
       </c>
       <c r="K841" t="n">
-        <v>17.34404367841305</v>
+        <v>17.34404367841307</v>
       </c>
     </row>
     <row r="842">
@@ -28798,13 +28798,13 @@
         <v>10200</v>
       </c>
       <c r="I842" t="n">
-        <v>9272.588077922881</v>
+        <v>9272.588077922883</v>
       </c>
       <c r="J842" t="n">
-        <v>927.411922077119</v>
+        <v>927.4119220771172</v>
       </c>
       <c r="K842" t="n">
-        <v>9.092273745854108</v>
+        <v>9.09227374585409</v>
       </c>
     </row>
     <row r="843">
@@ -28866,13 +28866,13 @@
         <v>2999</v>
       </c>
       <c r="I844" t="n">
-        <v>3917.595702253933</v>
+        <v>3917.595702253932</v>
       </c>
       <c r="J844" t="n">
-        <v>918.5957022539328</v>
+        <v>918.5957022539324</v>
       </c>
       <c r="K844" t="n">
-        <v>30.63006676405244</v>
+        <v>30.63006676405243</v>
       </c>
     </row>
     <row r="845">
@@ -29132,13 +29132,13 @@
         <v>5350</v>
       </c>
       <c r="I852" t="n">
-        <v>6257.188730921858</v>
+        <v>6257.188730921859</v>
       </c>
       <c r="J852" t="n">
-        <v>907.1887309218582</v>
+        <v>907.1887309218591</v>
       </c>
       <c r="K852" t="n">
-        <v>16.95679870881978</v>
+        <v>16.9567987088198</v>
       </c>
     </row>
     <row r="853">
@@ -29199,10 +29199,10 @@
         <v>3802.257331507623</v>
       </c>
       <c r="J854" t="n">
-        <v>897.7426684923767</v>
+        <v>897.7426684923771</v>
       </c>
       <c r="K854" t="n">
-        <v>19.10090784026333</v>
+        <v>19.10090784026334</v>
       </c>
     </row>
     <row r="855">
@@ -29229,13 +29229,13 @@
         <v>7750</v>
       </c>
       <c r="I855" t="n">
-        <v>8646.824762347467</v>
+        <v>8646.824762347465</v>
       </c>
       <c r="J855" t="n">
-        <v>896.8247623474672</v>
+        <v>896.8247623474654</v>
       </c>
       <c r="K855" t="n">
-        <v>11.57193241738667</v>
+        <v>11.57193241738665</v>
       </c>
     </row>
     <row r="856">
@@ -29394,13 +29394,13 @@
         <v>699</v>
       </c>
       <c r="I860" t="n">
-        <v>1577.651296479616</v>
+        <v>1577.651296479617</v>
       </c>
       <c r="J860" t="n">
-        <v>878.6512964796163</v>
+        <v>878.6512964796168</v>
       </c>
       <c r="K860" t="n">
-        <v>125.7011869069551</v>
+        <v>125.7011869069552</v>
       </c>
     </row>
     <row r="861">
@@ -29594,13 +29594,13 @@
         <v>8990</v>
       </c>
       <c r="I866" t="n">
-        <v>8129.716933632544</v>
+        <v>8129.716933632543</v>
       </c>
       <c r="J866" t="n">
-        <v>860.2830663674558</v>
+        <v>860.2830663674567</v>
       </c>
       <c r="K866" t="n">
-        <v>9.569333330005069</v>
+        <v>9.569333330005081</v>
       </c>
     </row>
     <row r="867">
@@ -29632,10 +29632,10 @@
         <v>23846.37626480128</v>
       </c>
       <c r="J867" t="n">
-        <v>856.3762648012816</v>
+        <v>856.376264801278</v>
       </c>
       <c r="K867" t="n">
-        <v>3.724994627234805</v>
+        <v>3.724994627234789</v>
       </c>
     </row>
     <row r="868">
@@ -29798,13 +29798,13 @@
         <v>23900</v>
       </c>
       <c r="I872" t="n">
-        <v>23060.97289673595</v>
+        <v>23060.97289673594</v>
       </c>
       <c r="J872" t="n">
-        <v>839.0271032640521</v>
+        <v>839.0271032640558</v>
       </c>
       <c r="K872" t="n">
-        <v>3.510573653824486</v>
+        <v>3.510573653824501</v>
       </c>
     </row>
     <row r="873">
@@ -29836,10 +29836,10 @@
         <v>3338.011971572574</v>
       </c>
       <c r="J873" t="n">
-        <v>838.0119715725741</v>
+        <v>838.0119715725737</v>
       </c>
       <c r="K873" t="n">
-        <v>33.52047886290296</v>
+        <v>33.52047886290295</v>
       </c>
     </row>
     <row r="874">
@@ -29904,10 +29904,10 @@
         <v>22730.5810194939</v>
       </c>
       <c r="J875" t="n">
-        <v>830.581019493904</v>
+        <v>830.5810194939004</v>
       </c>
       <c r="K875" t="n">
-        <v>3.792607394949334</v>
+        <v>3.792607394949317</v>
       </c>
     </row>
     <row r="876">
@@ -30004,13 +30004,13 @@
         <v>4950</v>
       </c>
       <c r="I878" t="n">
-        <v>5770.688074037819</v>
+        <v>5770.688074037818</v>
       </c>
       <c r="J878" t="n">
-        <v>820.6880740378192</v>
+        <v>820.6880740378183</v>
       </c>
       <c r="K878" t="n">
-        <v>16.57955705126907</v>
+        <v>16.57955705126906</v>
       </c>
     </row>
     <row r="879">
@@ -30037,13 +30037,13 @@
         <v>4690</v>
       </c>
       <c r="I879" t="n">
-        <v>5510.273186670166</v>
+        <v>5510.273186670167</v>
       </c>
       <c r="J879" t="n">
-        <v>820.2731866701661</v>
+        <v>820.273186670167</v>
       </c>
       <c r="K879" t="n">
-        <v>17.48983340448115</v>
+        <v>17.48983340448117</v>
       </c>
     </row>
     <row r="880">
@@ -30075,10 +30075,10 @@
         <v>17081.32298677837</v>
       </c>
       <c r="J880" t="n">
-        <v>818.6770132216334</v>
+        <v>818.6770132216297</v>
       </c>
       <c r="K880" t="n">
-        <v>4.573614599003538</v>
+        <v>4.573614599003518</v>
       </c>
     </row>
     <row r="881">
@@ -30275,10 +30275,10 @@
         <v>16702.0673572655</v>
       </c>
       <c r="J886" t="n">
-        <v>802.067357265496</v>
+        <v>802.0673572654996</v>
       </c>
       <c r="K886" t="n">
-        <v>5.044448787833308</v>
+        <v>5.044448787833331</v>
       </c>
     </row>
     <row r="887">
@@ -30371,13 +30371,13 @@
         <v>6899</v>
       </c>
       <c r="I889" t="n">
-        <v>7689.81875</v>
+        <v>7689.818750000001</v>
       </c>
       <c r="J889" t="n">
-        <v>790.8187500000004</v>
+        <v>790.8187500000013</v>
       </c>
       <c r="K889" t="n">
-        <v>11.46280258008407</v>
+        <v>11.46280258008409</v>
       </c>
     </row>
     <row r="890">
@@ -30507,13 +30507,13 @@
         <v>8400</v>
       </c>
       <c r="I893" t="n">
-        <v>7612.89059092575</v>
+        <v>7612.890590925748</v>
       </c>
       <c r="J893" t="n">
-        <v>787.1094090742499</v>
+        <v>787.1094090742517</v>
       </c>
       <c r="K893" t="n">
-        <v>9.370350108026784</v>
+        <v>9.370350108026807</v>
       </c>
     </row>
     <row r="894">
@@ -30540,13 +30540,13 @@
         <v>5450</v>
       </c>
       <c r="I894" t="n">
-        <v>6232.275043110892</v>
+        <v>6232.27504311089</v>
       </c>
       <c r="J894" t="n">
-        <v>782.2750431108916</v>
+        <v>782.2750431108898</v>
       </c>
       <c r="K894" t="n">
-        <v>14.35367051579617</v>
+        <v>14.35367051579614</v>
       </c>
     </row>
     <row r="895">
@@ -30774,10 +30774,10 @@
         <v>12742.87263824084</v>
       </c>
       <c r="J901" t="n">
-        <v>757.1273617591633</v>
+        <v>757.1273617591614</v>
       </c>
       <c r="K901" t="n">
-        <v>5.608350827845654</v>
+        <v>5.608350827845641</v>
       </c>
     </row>
     <row r="902">
@@ -30804,13 +30804,13 @@
         <v>18750</v>
       </c>
       <c r="I902" t="n">
-        <v>17995.91038487878</v>
+        <v>17995.91038487879</v>
       </c>
       <c r="J902" t="n">
-        <v>754.0896151212182</v>
+        <v>754.0896151212146</v>
       </c>
       <c r="K902" t="n">
-        <v>4.021811280646498</v>
+        <v>4.021811280646478</v>
       </c>
     </row>
     <row r="903">
@@ -30873,10 +30873,10 @@
         <v>14723.94505093785</v>
       </c>
       <c r="J904" t="n">
-        <v>743.9450509378494</v>
+        <v>743.945050937853</v>
       </c>
       <c r="K904" t="n">
-        <v>5.321495357209224</v>
+        <v>5.321495357209248</v>
       </c>
     </row>
     <row r="905">
@@ -30941,10 +30941,10 @@
         <v>11211.61082545028</v>
       </c>
       <c r="J906" t="n">
-        <v>738.3891745497185</v>
+        <v>738.3891745497167</v>
       </c>
       <c r="K906" t="n">
-        <v>6.178988908365845</v>
+        <v>6.17898890836583</v>
       </c>
     </row>
     <row r="907">
@@ -31037,13 +31037,13 @@
         <v>19500</v>
       </c>
       <c r="I909" t="n">
-        <v>18765.33071866248</v>
+        <v>18765.33071866249</v>
       </c>
       <c r="J909" t="n">
-        <v>734.6692813375157</v>
+        <v>734.6692813375121</v>
       </c>
       <c r="K909" t="n">
-        <v>3.767534776089824</v>
+        <v>3.767534776089806</v>
       </c>
     </row>
     <row r="910">
@@ -31377,13 +31377,13 @@
         <v>16990</v>
       </c>
       <c r="I919" t="n">
-        <v>17710.26093490541</v>
+        <v>17710.2609349054</v>
       </c>
       <c r="J919" t="n">
-        <v>720.2609349054073</v>
+        <v>720.2609349054037</v>
       </c>
       <c r="K919" t="n">
-        <v>4.239322748118937</v>
+        <v>4.239322748118915</v>
       </c>
     </row>
     <row r="920">
@@ -31513,13 +31513,13 @@
         <v>6950</v>
       </c>
       <c r="I923" t="n">
-        <v>6238.000676587306</v>
+        <v>6238.000676587307</v>
       </c>
       <c r="J923" t="n">
-        <v>711.9993234126941</v>
+        <v>711.9993234126932</v>
       </c>
       <c r="K923" t="n">
-        <v>10.24459458147761</v>
+        <v>10.2445945814776</v>
       </c>
     </row>
     <row r="924">
@@ -31549,10 +31549,10 @@
         <v>20269.62196254969</v>
       </c>
       <c r="J924" t="n">
-        <v>710.3780374503149</v>
+        <v>710.3780374503112</v>
       </c>
       <c r="K924" t="n">
-        <v>3.385977299572521</v>
+        <v>3.385977299572504</v>
       </c>
     </row>
     <row r="925">
@@ -31678,13 +31678,13 @@
         <v>13500</v>
       </c>
       <c r="I928" t="n">
-        <v>14204.661759347</v>
+        <v>14204.66175934699</v>
       </c>
       <c r="J928" t="n">
-        <v>704.6617593469964</v>
+        <v>704.6617593469928</v>
       </c>
       <c r="K928" t="n">
-        <v>5.219716735903677</v>
+        <v>5.21971673590365</v>
       </c>
     </row>
     <row r="929">
@@ -31849,13 +31849,13 @@
         <v>3900</v>
       </c>
       <c r="I933" t="n">
-        <v>3202.872151714228</v>
+        <v>3202.872151714227</v>
       </c>
       <c r="J933" t="n">
-        <v>697.1278482857724</v>
+        <v>697.1278482857729</v>
       </c>
       <c r="K933" t="n">
-        <v>17.87507303296853</v>
+        <v>17.87507303296854</v>
       </c>
     </row>
     <row r="934">
@@ -31882,13 +31882,13 @@
         <v>3900</v>
       </c>
       <c r="I934" t="n">
-        <v>3202.872151714228</v>
+        <v>3202.872151714227</v>
       </c>
       <c r="J934" t="n">
-        <v>697.1278482857724</v>
+        <v>697.1278482857729</v>
       </c>
       <c r="K934" t="n">
-        <v>17.87507303296853</v>
+        <v>17.87507303296854</v>
       </c>
     </row>
     <row r="935">
@@ -32055,13 +32055,13 @@
         <v>7500</v>
       </c>
       <c r="I939" t="n">
-        <v>6815.141759716386</v>
+        <v>6815.141759716385</v>
       </c>
       <c r="J939" t="n">
-        <v>684.8582402836137</v>
+        <v>684.8582402836155</v>
       </c>
       <c r="K939" t="n">
-        <v>9.131443203781515</v>
+        <v>9.13144320378154</v>
       </c>
     </row>
     <row r="940">
@@ -32088,13 +32088,13 @@
         <v>5950</v>
       </c>
       <c r="I940" t="n">
-        <v>5270.139779234775</v>
+        <v>5270.139779234776</v>
       </c>
       <c r="J940" t="n">
-        <v>679.8602207652248</v>
+        <v>679.8602207652239</v>
       </c>
       <c r="K940" t="n">
-        <v>11.42622219773487</v>
+        <v>11.42622219773485</v>
       </c>
     </row>
     <row r="941">
@@ -32154,13 +32154,13 @@
         <v>7300</v>
       </c>
       <c r="I942" t="n">
-        <v>6623.651448444695</v>
+        <v>6623.651448444696</v>
       </c>
       <c r="J942" t="n">
-        <v>676.3485515553048</v>
+        <v>676.3485515553039</v>
       </c>
       <c r="K942" t="n">
-        <v>9.26504865144253</v>
+        <v>9.265048651442518</v>
       </c>
     </row>
     <row r="943">
@@ -32189,13 +32189,13 @@
         <v>9000</v>
       </c>
       <c r="I943" t="n">
-        <v>8325.410959426194</v>
+        <v>8325.410959426192</v>
       </c>
       <c r="J943" t="n">
-        <v>674.5890405738064</v>
+        <v>674.5890405738082</v>
       </c>
       <c r="K943" t="n">
-        <v>7.495433784153405</v>
+        <v>7.495433784153426</v>
       </c>
     </row>
     <row r="944">
@@ -32396,10 +32396,10 @@
         <v>12096.82106432819</v>
       </c>
       <c r="J949" t="n">
-        <v>646.8210643281873</v>
+        <v>646.8210643281855</v>
       </c>
       <c r="K949" t="n">
-        <v>5.649092264874998</v>
+        <v>5.649092264874982</v>
       </c>
     </row>
     <row r="950">
@@ -32529,13 +32529,13 @@
         <v>8699</v>
       </c>
       <c r="I953" t="n">
-        <v>8065.902851602336</v>
+        <v>8065.902851602335</v>
       </c>
       <c r="J953" t="n">
-        <v>633.0971483976637</v>
+        <v>633.0971483976646</v>
       </c>
       <c r="K953" t="n">
-        <v>7.277815247702767</v>
+        <v>7.277815247702777</v>
       </c>
     </row>
     <row r="954">
@@ -32665,13 +32665,13 @@
         <v>29880</v>
       </c>
       <c r="I957" t="n">
-        <v>30510.06464054584</v>
+        <v>30510.06464054585</v>
       </c>
       <c r="J957" t="n">
-        <v>630.0646405458392</v>
+        <v>630.0646405458465</v>
       </c>
       <c r="K957" t="n">
-        <v>2.108650068761175</v>
+        <v>2.1086500687612</v>
       </c>
     </row>
     <row r="958">
@@ -32701,10 +32701,10 @@
         <v>11321.4929876217</v>
       </c>
       <c r="J958" t="n">
-        <v>628.5070123783025</v>
+        <v>628.5070123783007</v>
       </c>
       <c r="K958" t="n">
-        <v>5.259472906931402</v>
+        <v>5.259472906931387</v>
       </c>
     </row>
     <row r="959">
@@ -32903,10 +32903,10 @@
         <v>21366.82114697292</v>
       </c>
       <c r="J964" t="n">
-        <v>623.1788530270751</v>
+        <v>623.1788530270787</v>
       </c>
       <c r="K964" t="n">
-        <v>2.833919295257276</v>
+        <v>2.833919295257293</v>
       </c>
     </row>
     <row r="965">
@@ -32938,10 +32938,10 @@
         <v>11868.00695288567</v>
       </c>
       <c r="J965" t="n">
-        <v>618.0069528856693</v>
+        <v>618.0069528856711</v>
       </c>
       <c r="K965" t="n">
-        <v>5.493395136761505</v>
+        <v>5.493395136761521</v>
       </c>
     </row>
     <row r="966">
@@ -32971,10 +32971,10 @@
         <v>10517.04893783773</v>
       </c>
       <c r="J966" t="n">
-        <v>617.0489378377279</v>
+        <v>617.048937837726</v>
       </c>
       <c r="K966" t="n">
-        <v>6.232817553916443</v>
+        <v>6.232817553916425</v>
       </c>
     </row>
     <row r="967">
@@ -33036,13 +33036,13 @@
         <v>14990</v>
       </c>
       <c r="I968" t="n">
-        <v>15597.87690136498</v>
+        <v>15597.87690136499</v>
       </c>
       <c r="J968" t="n">
-        <v>607.8769013649835</v>
+        <v>607.8769013649853</v>
       </c>
       <c r="K968" t="n">
-        <v>4.055216153202025</v>
+        <v>4.055216153202037</v>
       </c>
     </row>
     <row r="969">
@@ -33172,13 +33172,13 @@
         <v>4900</v>
       </c>
       <c r="I972" t="n">
-        <v>5502.28041077545</v>
+        <v>5502.280410775448</v>
       </c>
       <c r="J972" t="n">
-        <v>602.28041077545</v>
+        <v>602.2804107754482</v>
       </c>
       <c r="K972" t="n">
-        <v>12.29143695460102</v>
+        <v>12.29143695460098</v>
       </c>
     </row>
     <row r="973">
@@ -33276,10 +33276,10 @@
         <v>16079.82855186496</v>
       </c>
       <c r="J975" t="n">
-        <v>598.1714481350409</v>
+        <v>598.1714481350391</v>
       </c>
       <c r="K975" t="n">
-        <v>3.586589807740982</v>
+        <v>3.586589807740971</v>
       </c>
     </row>
     <row r="976">
@@ -33346,10 +33346,10 @@
         <v>14658.81861588016</v>
       </c>
       <c r="J977" t="n">
-        <v>591.18138411984</v>
+        <v>591.1813841198364</v>
       </c>
       <c r="K977" t="n">
-        <v>3.876599240130099</v>
+        <v>3.876599240130075</v>
       </c>
     </row>
     <row r="978">
@@ -33378,13 +33378,13 @@
         <v>1249</v>
       </c>
       <c r="I978" t="n">
-        <v>1835.936996091077</v>
+        <v>1835.936996091076</v>
       </c>
       <c r="J978" t="n">
-        <v>586.9369960910769</v>
+        <v>586.9369960910765</v>
       </c>
       <c r="K978" t="n">
-        <v>46.99255373027037</v>
+        <v>46.99255373027034</v>
       </c>
     </row>
     <row r="979">
@@ -33413,13 +33413,13 @@
         <v>5299</v>
       </c>
       <c r="I979" t="n">
-        <v>4713.492767391858</v>
+        <v>4713.492767391856</v>
       </c>
       <c r="J979" t="n">
-        <v>585.5072326081417</v>
+        <v>585.5072326081436</v>
       </c>
       <c r="K979" t="n">
-        <v>11.04939106639256</v>
+        <v>11.04939106639259</v>
       </c>
     </row>
     <row r="980">
@@ -33446,13 +33446,13 @@
         <v>8290</v>
       </c>
       <c r="I980" t="n">
-        <v>8874.814968950222</v>
+        <v>8874.814968950224</v>
       </c>
       <c r="J980" t="n">
-        <v>584.8149689502225</v>
+        <v>584.8149689502243</v>
       </c>
       <c r="K980" t="n">
-        <v>7.054462834140199</v>
+        <v>7.054462834140221</v>
       </c>
     </row>
     <row r="981">
@@ -33484,10 +33484,10 @@
         <v>14574.14684666124</v>
       </c>
       <c r="J981" t="n">
-        <v>584.1468466612423</v>
+        <v>584.1468466612441</v>
       </c>
       <c r="K981" t="n">
-        <v>4.175459947542833</v>
+        <v>4.175459947542846</v>
       </c>
     </row>
     <row r="982">
@@ -33657,10 +33657,10 @@
         <v>15461.1203220545</v>
       </c>
       <c r="J986" t="n">
-        <v>561.1203220545012</v>
+        <v>561.120322054503</v>
       </c>
       <c r="K986" t="n">
-        <v>3.765908201708062</v>
+        <v>3.765908201708074</v>
       </c>
     </row>
     <row r="987">
@@ -33690,10 +33690,10 @@
         <v>15689.16635834667</v>
       </c>
       <c r="J987" t="n">
-        <v>560.8336416533293</v>
+        <v>560.8336416533257</v>
       </c>
       <c r="K987" t="n">
-        <v>3.451283948635873</v>
+        <v>3.45128394863585</v>
       </c>
     </row>
     <row r="988">
@@ -33857,10 +33857,10 @@
         <v>25484.76137759362</v>
       </c>
       <c r="J992" t="n">
-        <v>534.7613775936188</v>
+        <v>534.7613775936225</v>
       </c>
       <c r="K992" t="n">
-        <v>2.143332174723923</v>
+        <v>2.143332174723938</v>
       </c>
     </row>
     <row r="993">
@@ -33991,10 +33991,10 @@
         <v>15483.89153653583</v>
       </c>
       <c r="J996" t="n">
-        <v>515.1084634641738</v>
+        <v>515.108463464172</v>
       </c>
       <c r="K996" t="n">
-        <v>3.219629123471303</v>
+        <v>3.219629123471292</v>
       </c>
     </row>
     <row r="997">
@@ -34059,10 +34059,10 @@
         <v>14461.61167991031</v>
       </c>
       <c r="J998" t="n">
-        <v>511.6116799103111</v>
+        <v>511.6116799103092</v>
       </c>
       <c r="K998" t="n">
-        <v>3.667467239500438</v>
+        <v>3.667467239500425</v>
       </c>
     </row>
     <row r="999">
@@ -34127,10 +34127,10 @@
         <v>11937.70745833333</v>
       </c>
       <c r="J1000" t="n">
-        <v>487.7074583333306</v>
+        <v>487.7074583333342</v>
       </c>
       <c r="K1000" t="n">
-        <v>4.259453784570573</v>
+        <v>4.259453784570605</v>
       </c>
     </row>
     <row r="1001">
@@ -34360,10 +34360,10 @@
         <v>2728.836653159966</v>
       </c>
       <c r="J1007" t="n">
-        <v>471.1633468400337</v>
+        <v>471.1633468400341</v>
       </c>
       <c r="K1007" t="n">
-        <v>14.72385458875105</v>
+        <v>14.72385458875107</v>
       </c>
     </row>
     <row r="1008">
@@ -34393,10 +34393,10 @@
         <v>2418.46274404762</v>
       </c>
       <c r="J1008" t="n">
-        <v>469.4627440476197</v>
+        <v>469.4627440476202</v>
       </c>
       <c r="K1008" t="n">
-        <v>24.08736501013954</v>
+        <v>24.08736501013957</v>
       </c>
     </row>
     <row r="1009">
@@ -34764,10 +34764,10 @@
         <v>23441.45596957997</v>
       </c>
       <c r="J1019" t="n">
-        <v>438.5440304200274</v>
+        <v>438.544030420031</v>
       </c>
       <c r="K1019" t="n">
-        <v>1.83644903860983</v>
+        <v>1.836449038609845</v>
       </c>
     </row>
     <row r="1020">
@@ -34797,10 +34797,10 @@
         <v>20160.91082016517</v>
       </c>
       <c r="J1020" t="n">
-        <v>438.0891798348312</v>
+        <v>438.0891798348275</v>
       </c>
       <c r="K1020" t="n">
-        <v>2.12674974433143</v>
+        <v>2.126749744331412</v>
       </c>
     </row>
     <row r="1021">
@@ -34862,13 +34862,13 @@
         <v>2500</v>
       </c>
       <c r="I1022" t="n">
-        <v>2927.483108526418</v>
+        <v>2927.483108526417</v>
       </c>
       <c r="J1022" t="n">
-        <v>427.4831085264177</v>
+        <v>427.4831085264173</v>
       </c>
       <c r="K1022" t="n">
-        <v>17.09932434105671</v>
+        <v>17.09932434105669</v>
       </c>
     </row>
     <row r="1023">
@@ -34963,13 +34963,13 @@
         <v>6950</v>
       </c>
       <c r="I1025" t="n">
-        <v>6529.846569932521</v>
+        <v>6529.84656993252</v>
       </c>
       <c r="J1025" t="n">
-        <v>420.1534300674793</v>
+        <v>420.1534300674803</v>
       </c>
       <c r="K1025" t="n">
-        <v>6.045373094496106</v>
+        <v>6.045373094496118</v>
       </c>
     </row>
     <row r="1026">
@@ -35131,10 +35131,10 @@
         <v>17307.40294189144</v>
       </c>
       <c r="J1030" t="n">
-        <v>407.4029418914433</v>
+        <v>407.4029418914397</v>
       </c>
       <c r="K1030" t="n">
-        <v>2.410668295215641</v>
+        <v>2.410668295215619</v>
       </c>
     </row>
     <row r="1031">
@@ -35264,13 +35264,13 @@
         <v>4490</v>
       </c>
       <c r="I1034" t="n">
-        <v>4102.149005554199</v>
+        <v>4102.149005554198</v>
       </c>
       <c r="J1034" t="n">
-        <v>387.850994445801</v>
+        <v>387.8509944458019</v>
       </c>
       <c r="K1034" t="n">
-        <v>8.638106780530091</v>
+        <v>8.638106780530109</v>
       </c>
     </row>
     <row r="1035">
@@ -35330,13 +35330,13 @@
         <v>7290</v>
       </c>
       <c r="I1036" t="n">
-        <v>7675.385362978524</v>
+        <v>7675.385362978525</v>
       </c>
       <c r="J1036" t="n">
-        <v>385.3853629785244</v>
+        <v>385.3853629785253</v>
       </c>
       <c r="K1036" t="n">
-        <v>5.286493319321322</v>
+        <v>5.286493319321336</v>
       </c>
     </row>
     <row r="1037">
@@ -35398,13 +35398,13 @@
         <v>15250</v>
       </c>
       <c r="I1038" t="n">
-        <v>15632.2119777057</v>
+        <v>15632.21197770569</v>
       </c>
       <c r="J1038" t="n">
-        <v>382.2119777056978</v>
+        <v>382.2119777056942</v>
       </c>
       <c r="K1038" t="n">
-        <v>2.506308050529166</v>
+        <v>2.506308050529142</v>
       </c>
     </row>
     <row r="1039">
@@ -35504,10 +35504,10 @@
         <v>14870.49080704917</v>
       </c>
       <c r="J1041" t="n">
-        <v>371.4908070491729</v>
+        <v>371.4908070491674</v>
       </c>
       <c r="K1041" t="n">
-        <v>2.56218226808175</v>
+        <v>2.562182268081712</v>
       </c>
     </row>
     <row r="1042">
@@ -35633,13 +35633,13 @@
         <v>9450</v>
       </c>
       <c r="I1045" t="n">
-        <v>9811.524740961529</v>
+        <v>9811.524740961528</v>
       </c>
       <c r="J1045" t="n">
-        <v>361.5247409615295</v>
+        <v>361.5247409615276</v>
       </c>
       <c r="K1045" t="n">
-        <v>3.825658634513539</v>
+        <v>3.82565863451352</v>
       </c>
     </row>
     <row r="1046">
@@ -35704,10 +35704,10 @@
         <v>13032.80780445045</v>
       </c>
       <c r="J1047" t="n">
-        <v>357.1921955495509</v>
+        <v>357.1921955495545</v>
       </c>
       <c r="K1047" t="n">
-        <v>2.667604148988431</v>
+        <v>2.667604148988458</v>
       </c>
     </row>
     <row r="1048">
@@ -35734,13 +35734,13 @@
         <v>19989</v>
       </c>
       <c r="I1048" t="n">
-        <v>19634.55156722189</v>
+        <v>19634.5515672219</v>
       </c>
       <c r="J1048" t="n">
-        <v>354.4484327781065</v>
+        <v>354.4484327781029</v>
       </c>
       <c r="K1048" t="n">
-        <v>1.773217433478946</v>
+        <v>1.773217433478928</v>
       </c>
     </row>
     <row r="1049">
@@ -35800,13 +35800,13 @@
         <v>5499</v>
       </c>
       <c r="I1050" t="n">
-        <v>5848.910814724789</v>
+        <v>5848.910814724788</v>
       </c>
       <c r="J1050" t="n">
-        <v>349.9108147247889</v>
+        <v>349.910814724788</v>
       </c>
       <c r="K1050" t="n">
-        <v>6.363171753496799</v>
+        <v>6.363171753496781</v>
       </c>
     </row>
     <row r="1051">
@@ -35833,13 +35833,13 @@
         <v>14556</v>
       </c>
       <c r="I1051" t="n">
-        <v>14903.87937299881</v>
+        <v>14903.8793729988</v>
       </c>
       <c r="J1051" t="n">
-        <v>347.8793729988065</v>
+        <v>347.8793729988047</v>
       </c>
       <c r="K1051" t="n">
-        <v>2.389937984328157</v>
+        <v>2.389937984328144</v>
       </c>
     </row>
     <row r="1052">
@@ -35866,13 +35866,13 @@
         <v>7800</v>
       </c>
       <c r="I1052" t="n">
-        <v>8139.610494928927</v>
+        <v>8139.610494928928</v>
       </c>
       <c r="J1052" t="n">
-        <v>339.6104949289265</v>
+        <v>339.6104949289283</v>
       </c>
       <c r="K1052" t="n">
-        <v>4.353980704217006</v>
+        <v>4.35398070421703</v>
       </c>
     </row>
     <row r="1053">
@@ -35974,10 +35974,10 @@
         <v>26834.00480952381</v>
       </c>
       <c r="J1055" t="n">
-        <v>334.0048095238126</v>
+        <v>334.0048095238053</v>
       </c>
       <c r="K1055" t="n">
-        <v>1.260395507637029</v>
+        <v>1.260395507637001</v>
       </c>
     </row>
     <row r="1056">
@@ -36004,13 +36004,13 @@
         <v>14490</v>
       </c>
       <c r="I1056" t="n">
-        <v>14822.21175859942</v>
+        <v>14822.21175859941</v>
       </c>
       <c r="J1056" t="n">
-        <v>332.2117585994165</v>
+        <v>332.2117585994147</v>
       </c>
       <c r="K1056" t="n">
-        <v>2.29269674671785</v>
+        <v>2.292696746717838</v>
       </c>
     </row>
     <row r="1057">
@@ -36138,13 +36138,13 @@
         <v>22990</v>
       </c>
       <c r="I1060" t="n">
-        <v>22662.78518670635</v>
+        <v>22662.78518670636</v>
       </c>
       <c r="J1060" t="n">
-        <v>327.2148132936454</v>
+        <v>327.2148132936418</v>
       </c>
       <c r="K1060" t="n">
-        <v>1.423291923852307</v>
+        <v>1.423291923852291</v>
       </c>
     </row>
     <row r="1061">
@@ -36173,13 +36173,13 @@
         <v>12450</v>
       </c>
       <c r="I1061" t="n">
-        <v>12776.06237521877</v>
+        <v>12776.06237521878</v>
       </c>
       <c r="J1061" t="n">
-        <v>326.0623752187748</v>
+        <v>326.0623752187767</v>
       </c>
       <c r="K1061" t="n">
-        <v>2.618974901355621</v>
+        <v>2.618974901355636</v>
       </c>
     </row>
     <row r="1062">
@@ -36209,10 +36209,10 @@
         <v>28323.9758154762</v>
       </c>
       <c r="J1062" t="n">
-        <v>323.9758154762021</v>
+        <v>323.9758154761985</v>
       </c>
       <c r="K1062" t="n">
-        <v>1.157056483843579</v>
+        <v>1.157056483843566</v>
       </c>
     </row>
     <row r="1063">
@@ -36272,13 +36272,13 @@
         <v>8400</v>
       </c>
       <c r="I1064" t="n">
-        <v>8721.131717000626</v>
+        <v>8721.131717000624</v>
       </c>
       <c r="J1064" t="n">
-        <v>321.1317170006259</v>
+        <v>321.1317170006241</v>
       </c>
       <c r="K1064" t="n">
-        <v>3.822996630959833</v>
+        <v>3.822996630959811</v>
       </c>
     </row>
     <row r="1065">
@@ -36338,13 +36338,13 @@
         <v>2450</v>
       </c>
       <c r="I1066" t="n">
-        <v>2768.630937124941</v>
+        <v>2768.63093712494</v>
       </c>
       <c r="J1066" t="n">
-        <v>318.6309371249408</v>
+        <v>318.6309371249399</v>
       </c>
       <c r="K1066" t="n">
-        <v>13.00534437244657</v>
+        <v>13.00534437244653</v>
       </c>
     </row>
     <row r="1067">
@@ -36371,13 +36371,13 @@
         <v>5900</v>
       </c>
       <c r="I1067" t="n">
-        <v>6212.804492786215</v>
+        <v>6212.804492786212</v>
       </c>
       <c r="J1067" t="n">
-        <v>312.8044927862147</v>
+        <v>312.804492786212</v>
       </c>
       <c r="K1067" t="n">
-        <v>5.301771064173131</v>
+        <v>5.301771064173085</v>
       </c>
     </row>
     <row r="1068">
@@ -36503,13 +36503,13 @@
         <v>6999</v>
       </c>
       <c r="I1071" t="n">
-        <v>6701.676891478858</v>
+        <v>6701.676891478856</v>
       </c>
       <c r="J1071" t="n">
-        <v>297.3231085211419</v>
+        <v>297.3231085211437</v>
       </c>
       <c r="K1071" t="n">
-        <v>4.248079847423087</v>
+        <v>4.248079847423114</v>
       </c>
     </row>
     <row r="1072">
@@ -36574,10 +36574,10 @@
         <v>25657.54683439945</v>
       </c>
       <c r="J1073" t="n">
-        <v>292.4531656005456</v>
+        <v>292.4531656005529</v>
       </c>
       <c r="K1073" t="n">
-        <v>1.126987150676476</v>
+        <v>1.126987150676504</v>
       </c>
     </row>
     <row r="1074">
@@ -36607,10 +36607,10 @@
         <v>16190.94900287667</v>
       </c>
       <c r="J1074" t="n">
-        <v>290.9490028766722</v>
+        <v>290.9490028766704</v>
       </c>
       <c r="K1074" t="n">
-        <v>1.82986794262058</v>
+        <v>1.829867942620569</v>
       </c>
     </row>
     <row r="1075">
@@ -36639,13 +36639,13 @@
         <v>8650</v>
       </c>
       <c r="I1075" t="n">
-        <v>8937.859059854494</v>
+        <v>8937.859059854496</v>
       </c>
       <c r="J1075" t="n">
-        <v>287.8590598544943</v>
+        <v>287.8590598544961</v>
       </c>
       <c r="K1075" t="n">
-        <v>3.32785040294213</v>
+        <v>3.327850402942151</v>
       </c>
     </row>
     <row r="1076">
@@ -36908,10 +36908,10 @@
         <v>3122.529387821191</v>
       </c>
       <c r="J1083" t="n">
-        <v>277.4706121788086</v>
+        <v>277.4706121788095</v>
       </c>
       <c r="K1083" t="n">
-        <v>8.160900358200252</v>
+        <v>8.160900358200278</v>
       </c>
     </row>
     <row r="1084">
@@ -37416,13 +37416,13 @@
         <v>9850</v>
       </c>
       <c r="I1098" t="n">
-        <v>9603.066822763636</v>
+        <v>9603.066822763634</v>
       </c>
       <c r="J1098" t="n">
-        <v>246.9331772363639</v>
+        <v>246.9331772363657</v>
       </c>
       <c r="K1098" t="n">
-        <v>2.506935809506233</v>
+        <v>2.506935809506251</v>
       </c>
     </row>
     <row r="1099">
@@ -37449,13 +37449,13 @@
         <v>6950</v>
       </c>
       <c r="I1099" t="n">
-        <v>6705.563185616172</v>
+        <v>6705.563185616171</v>
       </c>
       <c r="J1099" t="n">
-        <v>244.4368143838283</v>
+        <v>244.4368143838292</v>
       </c>
       <c r="K1099" t="n">
-        <v>3.517076465954364</v>
+        <v>3.517076465954377</v>
       </c>
     </row>
     <row r="1100">
@@ -37585,13 +37585,13 @@
         <v>9990</v>
       </c>
       <c r="I1103" t="n">
-        <v>10224.56104617604</v>
+        <v>10224.56104617605</v>
       </c>
       <c r="J1103" t="n">
-        <v>234.5610461760443</v>
+        <v>234.561046176048</v>
       </c>
       <c r="K1103" t="n">
-        <v>2.347958420180624</v>
+        <v>2.34795842018066</v>
       </c>
     </row>
     <row r="1104">
@@ -37623,10 +37623,10 @@
         <v>21219.28659810746</v>
       </c>
       <c r="J1104" t="n">
-        <v>229.2865981074574</v>
+        <v>229.286598107461</v>
       </c>
       <c r="K1104" t="n">
-        <v>1.092361115328525</v>
+        <v>1.092361115328542</v>
       </c>
     </row>
     <row r="1105">
@@ -37792,10 +37792,10 @@
         <v>11214.77337475869</v>
       </c>
       <c r="J1109" t="n">
-        <v>215.7733747586863</v>
+        <v>215.7733747586881</v>
       </c>
       <c r="K1109" t="n">
-        <v>1.961754475485828</v>
+        <v>1.961754475485845</v>
       </c>
     </row>
     <row r="1110">
@@ -37822,13 +37822,13 @@
         <v>9499</v>
       </c>
       <c r="I1110" t="n">
-        <v>9714.631741852329</v>
+        <v>9714.631741852327</v>
       </c>
       <c r="J1110" t="n">
-        <v>215.6317418523286</v>
+        <v>215.6317418523267</v>
       </c>
       <c r="K1110" t="n">
-        <v>2.270046761262539</v>
+        <v>2.270046761262519</v>
       </c>
     </row>
     <row r="1111">
@@ -37855,13 +37855,13 @@
         <v>6990</v>
       </c>
       <c r="I1111" t="n">
-        <v>6774.543373937328</v>
+        <v>6774.543373937327</v>
       </c>
       <c r="J1111" t="n">
-        <v>215.4566260626716</v>
+        <v>215.4566260626734</v>
       </c>
       <c r="K1111" t="n">
-        <v>3.082355165417333</v>
+        <v>3.08235516541736</v>
       </c>
     </row>
     <row r="1112">
@@ -37893,10 +37893,10 @@
         <v>10114.24535714286</v>
       </c>
       <c r="J1112" t="n">
-        <v>214.2453571428578</v>
+        <v>214.2453571428596</v>
       </c>
       <c r="K1112" t="n">
-        <v>2.164094516594523</v>
+        <v>2.164094516594541</v>
       </c>
     </row>
     <row r="1113">
@@ -37926,10 +37926,10 @@
         <v>12685.76253237579</v>
       </c>
       <c r="J1113" t="n">
-        <v>214.2374676242107</v>
+        <v>214.2374676242125</v>
       </c>
       <c r="K1113" t="n">
-        <v>1.660755562978377</v>
+        <v>1.660755562978392</v>
       </c>
     </row>
     <row r="1114">
@@ -37956,13 +37956,13 @@
         <v>10400</v>
       </c>
       <c r="I1114" t="n">
-        <v>10192.37782318614</v>
+        <v>10192.37782318613</v>
       </c>
       <c r="J1114" t="n">
-        <v>207.6221768138639</v>
+        <v>207.6221768138657</v>
       </c>
       <c r="K1114" t="n">
-        <v>1.996367084748691</v>
+        <v>1.996367084748709</v>
       </c>
     </row>
     <row r="1115">
@@ -38027,10 +38027,10 @@
         <v>11796.20960679327</v>
       </c>
       <c r="J1116" t="n">
-        <v>202.7903932067256</v>
+        <v>202.7903932067311</v>
       </c>
       <c r="K1116" t="n">
-        <v>1.690060781787863</v>
+        <v>1.690060781787908</v>
       </c>
     </row>
     <row r="1117">
@@ -38093,10 +38093,10 @@
         <v>14794.90150688383</v>
       </c>
       <c r="J1118" t="n">
-        <v>195.0984931161729</v>
+        <v>195.0984931161747</v>
       </c>
       <c r="K1118" t="n">
-        <v>1.301524303643582</v>
+        <v>1.301524303643594</v>
       </c>
     </row>
     <row r="1119">
@@ -38193,13 +38193,13 @@
         <v>35470</v>
       </c>
       <c r="I1121" t="n">
-        <v>35289.99763333335</v>
+        <v>35289.99763333336</v>
       </c>
       <c r="J1121" t="n">
-        <v>180.002366666653</v>
+        <v>180.0023666666384</v>
       </c>
       <c r="K1121" t="n">
-        <v>0.5074777746452015</v>
+        <v>0.5074777746451604</v>
       </c>
     </row>
     <row r="1122">
@@ -38294,13 +38294,13 @@
         <v>6950</v>
       </c>
       <c r="I1124" t="n">
-        <v>7128.079323075619</v>
+        <v>7128.079323075617</v>
       </c>
       <c r="J1124" t="n">
-        <v>178.079323075619</v>
+        <v>178.0793230756171</v>
       </c>
       <c r="K1124" t="n">
-        <v>2.56229241835423</v>
+        <v>2.562292418354204</v>
       </c>
     </row>
     <row r="1125">
@@ -38332,10 +38332,10 @@
         <v>27225.75008802309</v>
       </c>
       <c r="J1125" t="n">
-        <v>174.2499119769127</v>
+        <v>174.2499119769091</v>
       </c>
       <c r="K1125" t="n">
-        <v>0.6359485838573457</v>
+        <v>0.6359485838573323</v>
       </c>
     </row>
     <row r="1126">
@@ -38397,13 +38397,13 @@
         <v>3500</v>
       </c>
       <c r="I1127" t="n">
-        <v>3330.14625210074</v>
+        <v>3330.146252100741</v>
       </c>
       <c r="J1127" t="n">
-        <v>169.8537478992598</v>
+        <v>169.8537478992594</v>
       </c>
       <c r="K1127" t="n">
-        <v>4.852964225693138</v>
+        <v>4.852964225693125</v>
       </c>
     </row>
     <row r="1128">
@@ -38465,13 +38465,13 @@
         <v>11790</v>
       </c>
       <c r="I1129" t="n">
-        <v>11627.66430212928</v>
+        <v>11627.66430212927</v>
       </c>
       <c r="J1129" t="n">
-        <v>162.3356978707234</v>
+        <v>162.3356978707252</v>
       </c>
       <c r="K1129" t="n">
-        <v>1.37689311171097</v>
+        <v>1.376893111710985</v>
       </c>
     </row>
     <row r="1130">
@@ -38533,13 +38533,13 @@
         <v>1900</v>
       </c>
       <c r="I1131" t="n">
-        <v>2061.700245317591</v>
+        <v>2061.700245317592</v>
       </c>
       <c r="J1131" t="n">
-        <v>161.7002453175915</v>
+        <v>161.7002453175919</v>
       </c>
       <c r="K1131" t="n">
-        <v>8.510539227241656</v>
+        <v>8.510539227241679</v>
       </c>
     </row>
     <row r="1132">
@@ -38599,13 +38599,13 @@
         <v>7290</v>
       </c>
       <c r="I1133" t="n">
-        <v>7128.747561380638</v>
+        <v>7128.747561380637</v>
       </c>
       <c r="J1133" t="n">
-        <v>161.2524386193618</v>
+        <v>161.2524386193627</v>
       </c>
       <c r="K1133" t="n">
-        <v>2.211967607947349</v>
+        <v>2.211967607947362</v>
       </c>
     </row>
     <row r="1134">
@@ -38634,13 +38634,13 @@
         <v>7950</v>
       </c>
       <c r="I1134" t="n">
-        <v>8108.807304639802</v>
+        <v>8108.807304639803</v>
       </c>
       <c r="J1134" t="n">
-        <v>158.8073046398022</v>
+        <v>158.8073046398031</v>
       </c>
       <c r="K1134" t="n">
-        <v>1.997576158991222</v>
+        <v>1.997576158991234</v>
       </c>
     </row>
     <row r="1135">
@@ -38803,13 +38803,13 @@
         <v>6299</v>
       </c>
       <c r="I1139" t="n">
-        <v>6149.723811578751</v>
+        <v>6149.72381157875</v>
       </c>
       <c r="J1139" t="n">
-        <v>149.2761884212487</v>
+        <v>149.2761884212496</v>
       </c>
       <c r="K1139" t="n">
-        <v>2.369839473269545</v>
+        <v>2.36983947326956</v>
       </c>
     </row>
     <row r="1140">
@@ -38869,13 +38869,13 @@
         <v>6850</v>
       </c>
       <c r="I1141" t="n">
-        <v>6702.034946391772</v>
+        <v>6702.034946391774</v>
       </c>
       <c r="J1141" t="n">
-        <v>147.9650536082281</v>
+        <v>147.9650536082263</v>
       </c>
       <c r="K1141" t="n">
-        <v>2.1600737753026</v>
+        <v>2.160073775302574</v>
       </c>
     </row>
     <row r="1142">
@@ -39069,13 +39069,13 @@
         <v>24950</v>
       </c>
       <c r="I1147" t="n">
-        <v>25078.74006204277</v>
+        <v>25078.74006204276</v>
       </c>
       <c r="J1147" t="n">
-        <v>128.7400620427652</v>
+        <v>128.7400620427579</v>
       </c>
       <c r="K1147" t="n">
-        <v>0.5159922326363334</v>
+        <v>0.5159922326363043</v>
       </c>
     </row>
     <row r="1148">
@@ -39107,10 +39107,10 @@
         <v>15016.3329386387</v>
       </c>
       <c r="J1148" t="n">
-        <v>126.3329386386995</v>
+        <v>126.3329386386959</v>
       </c>
       <c r="K1148" t="n">
-        <v>0.848441495222965</v>
+        <v>0.8484414952229405</v>
       </c>
     </row>
     <row r="1149">
@@ -39337,13 +39337,13 @@
         <v>12500</v>
       </c>
       <c r="I1155" t="n">
-        <v>12392.41658525531</v>
+        <v>12392.41658525532</v>
       </c>
       <c r="J1155" t="n">
-        <v>107.5834147446858</v>
+        <v>107.583414744684</v>
       </c>
       <c r="K1155" t="n">
-        <v>0.8606673179574864</v>
+        <v>0.8606673179574719</v>
       </c>
     </row>
     <row r="1156">
@@ -39403,13 +39403,13 @@
         <v>3900</v>
       </c>
       <c r="I1157" t="n">
-        <v>3802.000166740937</v>
+        <v>3802.000166740938</v>
       </c>
       <c r="J1157" t="n">
-        <v>97.9998332590626</v>
+        <v>97.99983325906214</v>
       </c>
       <c r="K1157" t="n">
-        <v>2.512816237411862</v>
+        <v>2.51281623741185</v>
       </c>
     </row>
     <row r="1158">
@@ -39534,10 +39534,10 @@
         <v>14986.52628841234</v>
       </c>
       <c r="J1161" t="n">
-        <v>86.52628841233854</v>
+        <v>86.52628841233673</v>
       </c>
       <c r="K1161" t="n">
-        <v>0.580713345049252</v>
+        <v>0.5807133450492398</v>
       </c>
     </row>
     <row r="1162">
@@ -39560,13 +39560,13 @@
         <v>9486</v>
       </c>
       <c r="I1162" t="n">
-        <v>9571.883185017456</v>
+        <v>9571.883185017457</v>
       </c>
       <c r="J1162" t="n">
-        <v>85.88318501745562</v>
+        <v>85.88318501745744</v>
       </c>
       <c r="K1162" t="n">
-        <v>0.9053677526613495</v>
+        <v>0.9053677526613687</v>
       </c>
     </row>
     <row r="1163">
@@ -39865,13 +39865,13 @@
         <v>7500</v>
       </c>
       <c r="I1171" t="n">
-        <v>7565.479895983889</v>
+        <v>7565.479895983888</v>
       </c>
       <c r="J1171" t="n">
-        <v>65.47989598388904</v>
+        <v>65.47989598388813</v>
       </c>
       <c r="K1171" t="n">
-        <v>0.8730652797851871</v>
+        <v>0.873065279785175</v>
       </c>
     </row>
     <row r="1172">
@@ -39898,13 +39898,13 @@
         <v>6900</v>
       </c>
       <c r="I1172" t="n">
-        <v>6836.011792078541</v>
+        <v>6836.011792078542</v>
       </c>
       <c r="J1172" t="n">
-        <v>63.98820792145943</v>
+        <v>63.98820792145762</v>
       </c>
       <c r="K1172" t="n">
-        <v>0.9273653321950642</v>
+        <v>0.9273653321950379</v>
       </c>
     </row>
     <row r="1173">
@@ -39934,10 +39934,10 @@
         <v>14438.52827719193</v>
       </c>
       <c r="J1173" t="n">
-        <v>60.4717228080699</v>
+        <v>60.47172280807354</v>
       </c>
       <c r="K1173" t="n">
-        <v>0.4170751279955162</v>
+        <v>0.4170751279955413</v>
       </c>
     </row>
     <row r="1174">
@@ -39997,13 +39997,13 @@
         <v>5450</v>
       </c>
       <c r="I1175" t="n">
-        <v>5508.725577999404</v>
+        <v>5508.725577999405</v>
       </c>
       <c r="J1175" t="n">
-        <v>58.72557799940387</v>
+        <v>58.72557799940478</v>
       </c>
       <c r="K1175" t="n">
-        <v>1.077533541273465</v>
+        <v>1.077533541273482</v>
       </c>
     </row>
     <row r="1176">
@@ -40063,13 +40063,13 @@
         <v>4250</v>
       </c>
       <c r="I1177" t="n">
-        <v>4195.779951417594</v>
+        <v>4195.779951417593</v>
       </c>
       <c r="J1177" t="n">
-        <v>54.22004858240598</v>
+        <v>54.22004858240689</v>
       </c>
       <c r="K1177" t="n">
-        <v>1.275765848997788</v>
+        <v>1.275765848997809</v>
       </c>
     </row>
     <row r="1178">
@@ -40268,10 +40268,10 @@
         <v>14958.21873070219</v>
       </c>
       <c r="J1183" t="n">
-        <v>31.78126929780774</v>
+        <v>31.78126929780956</v>
       </c>
       <c r="K1183" t="n">
-        <v>0.2120164729673632</v>
+        <v>0.2120164729673753</v>
       </c>
     </row>
     <row r="1184">
@@ -40366,13 +40366,13 @@
         <v>6990</v>
       </c>
       <c r="I1186" t="n">
-        <v>6971.590411604736</v>
+        <v>6971.590411604735</v>
       </c>
       <c r="J1186" t="n">
-        <v>18.40958839526411</v>
+        <v>18.40958839526502</v>
       </c>
       <c r="K1186" t="n">
-        <v>0.2633703633084994</v>
+        <v>0.2633703633085124</v>
       </c>
     </row>
     <row r="1187">
@@ -40399,13 +40399,13 @@
         <v>29900</v>
       </c>
       <c r="I1187" t="n">
-        <v>29883.76995614154</v>
+        <v>29883.76995614153</v>
       </c>
       <c r="J1187" t="n">
-        <v>16.2300438584607</v>
+        <v>16.23004385846798</v>
       </c>
       <c r="K1187" t="n">
-        <v>0.05428108313866456</v>
+        <v>0.05428108313868889</v>
       </c>
     </row>
     <row r="1188">
@@ -40432,13 +40432,13 @@
         <v>6000</v>
       </c>
       <c r="I1188" t="n">
-        <v>6015.327811880325</v>
+        <v>6015.327811880327</v>
       </c>
       <c r="J1188" t="n">
-        <v>15.3278118803255</v>
+        <v>15.32781188032732</v>
       </c>
       <c r="K1188" t="n">
-        <v>0.2554635313387583</v>
+        <v>0.2554635313387886</v>
       </c>
     </row>
     <row r="1189">
@@ -40500,13 +40500,13 @@
         <v>31750</v>
       </c>
       <c r="I1190" t="n">
-        <v>31742.26554312072</v>
+        <v>31742.26554312073</v>
       </c>
       <c r="J1190" t="n">
-        <v>7.734456879275967</v>
+        <v>7.734456879272329</v>
       </c>
       <c r="K1190" t="n">
-        <v>0.0243604941079558</v>
+        <v>0.02436049410794434</v>
       </c>
     </row>
     <row r="1191">
@@ -40569,10 +40569,10 @@
         <v>22945.82586284841</v>
       </c>
       <c r="J1192" t="n">
-        <v>4.174137151589093</v>
+        <v>4.174137151585455</v>
       </c>
       <c r="K1192" t="n">
-        <v>0.01818796144483265</v>
+        <v>0.0181879614448168</v>
       </c>
     </row>
   </sheetData>
